--- a/EMSC STATISTICS UPDATED.xlsx
+++ b/EMSC STATISTICS UPDATED.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3480" uniqueCount="1479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3626" uniqueCount="1532">
   <si>
     <t xml:space="preserve">Edition</t>
   </si>
@@ -267,7 +267,7 @@
     <t xml:space="preserve">Raúl Mañas</t>
   </si>
   <si>
-    <t xml:space="preserve">The Netherlands</t>
+    <t xml:space="preserve">Netherlands</t>
   </si>
   <si>
     <t xml:space="preserve">Bløf ft. Geike Arnaert</t>
@@ -3519,9 +3519,6 @@
     <t xml:space="preserve">Furore</t>
   </si>
   <si>
-    <t xml:space="preserve">Netherlands</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tiësto</t>
   </si>
   <si>
@@ -4462,14 +4459,177 @@
   </si>
   <si>
     <t xml:space="preserve">Punjabi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMSC 2405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damiano David</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Born With a Broken Heart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love Me Better</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLEMMING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onweer In M'n Hoofd (Thunder in my Head)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noam Bettan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">היום (Today)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridges Burn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEMME FATALE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hearts On The Run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crazy Loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love Maria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blas Cantó</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El bueno acaba mal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si seulement... (If Only)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kygo, Sigrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Feeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A garota não</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dilúvio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adrian Garzia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dianah Kay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebadeštruktívny návyk (Self-destructive Habit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avicii ft. Agnes, Vargas &amp; Lagola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tough Love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silvester Belt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyliai Tyliai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oscar and the Wolf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somebody Without U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liam Payne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teardrops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Giesinger &amp; Michael Schulte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More To This Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rozy Krasnye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seemone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans Mes Rêves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tatyana Kurtukova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruskaya Zima (Russian Winter)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEKSEEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naodyntsi tantsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marko Louis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ružice (Little Roses)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kantera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vjaġġ Sabiħ (Nice Trip)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodeo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VICTORIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sad girl summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manijak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJ Project feat. Andia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrograd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;ВЯРНО&quot;;&quot;ВЯРНО&quot;;&quot;НЕВЯРНО&quot;"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -4642,7 +4802,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4775,6 +4935,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4887,12 +5051,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z981"/>
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A680" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E222" activeCellId="0" sqref="E222"/>
+      <selection pane="bottomLeft" activeCell="C693" activeCellId="14" sqref="C19 C54 C100 C109 C156 C205 C237 C279 C319 C360 C391 C435 C449 C497 C693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30656,13 +30820,13 @@
         <v>1135</v>
       </c>
       <c r="C530" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D530" s="25" t="s">
         <v>1164</v>
       </c>
-      <c r="D530" s="25" t="s">
+      <c r="E530" s="25" t="s">
         <v>1165</v>
-      </c>
-      <c r="E530" s="25" t="s">
-        <v>1166</v>
       </c>
       <c r="F530" s="26" t="n">
         <v>1</v>
@@ -30709,10 +30873,10 @@
         <v>76</v>
       </c>
       <c r="D531" s="25" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E531" s="25" t="s">
         <v>1167</v>
-      </c>
-      <c r="E531" s="25" t="s">
-        <v>1168</v>
       </c>
       <c r="F531" s="26" t="n">
         <v>2</v>
@@ -30759,10 +30923,10 @@
         <v>116</v>
       </c>
       <c r="D532" s="25" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E532" s="25" t="s">
         <v>1169</v>
-      </c>
-      <c r="E532" s="25" t="s">
-        <v>1170</v>
       </c>
       <c r="F532" s="26" t="n">
         <v>2</v>
@@ -30780,7 +30944,7 @@
         <v>69</v>
       </c>
       <c r="K532" s="25" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="L532" s="5"/>
       <c r="M532" s="5"/>
@@ -30809,10 +30973,10 @@
         <v>51</v>
       </c>
       <c r="D533" s="25" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E533" s="25" t="s">
         <v>1172</v>
-      </c>
-      <c r="E533" s="25" t="s">
-        <v>1173</v>
       </c>
       <c r="F533" s="26" t="n">
         <v>2</v>
@@ -30859,10 +31023,10 @@
         <v>120</v>
       </c>
       <c r="D534" s="25" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E534" s="25" t="s">
         <v>1174</v>
-      </c>
-      <c r="E534" s="25" t="s">
-        <v>1175</v>
       </c>
       <c r="F534" s="26" t="n">
         <v>2</v>
@@ -30880,7 +31044,7 @@
         <v>81</v>
       </c>
       <c r="K534" s="25" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="L534" s="5"/>
       <c r="M534" s="5"/>
@@ -30909,10 +31073,10 @@
         <v>159</v>
       </c>
       <c r="D535" s="25" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E535" s="25" t="s">
         <v>1177</v>
-      </c>
-      <c r="E535" s="25" t="s">
-        <v>1178</v>
       </c>
       <c r="F535" s="26" t="s">
         <v>70</v>
@@ -30926,7 +31090,7 @@
       <c r="I535" s="26"/>
       <c r="J535" s="26"/>
       <c r="K535" s="25" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="L535" s="5"/>
       <c r="M535" s="5"/>
@@ -30955,10 +31119,10 @@
         <v>204</v>
       </c>
       <c r="D536" s="25" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E536" s="25" t="s">
         <v>1180</v>
-      </c>
-      <c r="E536" s="25" t="s">
-        <v>1181</v>
       </c>
       <c r="F536" s="26" t="n">
         <v>1</v>
@@ -31005,10 +31169,10 @@
         <v>72</v>
       </c>
       <c r="D537" s="25" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E537" s="25" t="s">
         <v>1182</v>
-      </c>
-      <c r="E537" s="25" t="s">
-        <v>1183</v>
       </c>
       <c r="F537" s="26" t="n">
         <v>2</v>
@@ -31026,7 +31190,7 @@
         <v>70</v>
       </c>
       <c r="K537" s="25" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="L537" s="5"/>
       <c r="M537" s="5"/>
@@ -31058,7 +31222,7 @@
         <v>177</v>
       </c>
       <c r="E538" s="25" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F538" s="26" t="n">
         <v>1</v>
@@ -31105,7 +31269,7 @@
         <v>16</v>
       </c>
       <c r="D539" s="25" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E539" s="25" t="s">
         <v>133</v>
@@ -31155,10 +31319,10 @@
         <v>228</v>
       </c>
       <c r="D540" s="25" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E540" s="25" t="s">
         <v>1187</v>
-      </c>
-      <c r="E540" s="25" t="s">
-        <v>1188</v>
       </c>
       <c r="F540" s="26" t="n">
         <v>2</v>
@@ -31205,10 +31369,10 @@
         <v>214</v>
       </c>
       <c r="D541" s="25" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E541" s="25" t="s">
         <v>1189</v>
-      </c>
-      <c r="E541" s="25" t="s">
-        <v>1190</v>
       </c>
       <c r="F541" s="26" t="n">
         <v>1</v>
@@ -31254,7 +31418,7 @@
         <v>219</v>
       </c>
       <c r="E542" s="25" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F542" s="26" t="n">
         <v>1</v>
@@ -31297,10 +31461,10 @@
         <v>174</v>
       </c>
       <c r="D543" s="25" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E543" s="25" t="s">
         <v>1192</v>
-      </c>
-      <c r="E543" s="25" t="s">
-        <v>1193</v>
       </c>
       <c r="F543" s="26" t="n">
         <v>1</v>
@@ -31314,7 +31478,7 @@
         <v>36</v>
       </c>
       <c r="K543" s="25" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="L543" s="5"/>
       <c r="M543" s="5"/>
@@ -31343,10 +31507,10 @@
         <v>92</v>
       </c>
       <c r="D544" s="25" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E544" s="25" t="s">
         <v>1195</v>
-      </c>
-      <c r="E544" s="25" t="s">
-        <v>1196</v>
       </c>
       <c r="F544" s="26" t="n">
         <v>1</v>
@@ -31389,10 +31553,10 @@
         <v>254</v>
       </c>
       <c r="D545" s="25" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E545" s="25" t="s">
         <v>1197</v>
-      </c>
-      <c r="E545" s="25" t="s">
-        <v>1198</v>
       </c>
       <c r="F545" s="26" t="n">
         <v>2</v>
@@ -31435,10 +31599,10 @@
         <v>104</v>
       </c>
       <c r="D546" s="25" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E546" s="25" t="s">
         <v>1199</v>
-      </c>
-      <c r="E546" s="25" t="s">
-        <v>1200</v>
       </c>
       <c r="F546" s="26" t="n">
         <v>2</v>
@@ -31481,10 +31645,10 @@
         <v>63</v>
       </c>
       <c r="D547" s="25" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E547" s="25" t="s">
         <v>1201</v>
-      </c>
-      <c r="E547" s="25" t="s">
-        <v>1202</v>
       </c>
       <c r="F547" s="26" t="n">
         <v>2</v>
@@ -31527,10 +31691,10 @@
         <v>183</v>
       </c>
       <c r="D548" s="27" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E548" s="27" t="s">
         <v>1203</v>
-      </c>
-      <c r="E548" s="27" t="s">
-        <v>1204</v>
       </c>
       <c r="F548" s="28" t="n">
         <v>2</v>
@@ -31567,7 +31731,7 @@
         <v>16</v>
       </c>
       <c r="B549" s="29" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C549" s="29" t="s">
         <v>159</v>
@@ -31576,7 +31740,7 @@
         <v>806</v>
       </c>
       <c r="E549" s="29" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="F549" s="29" t="n">
         <v>1</v>
@@ -31594,7 +31758,7 @@
         <v>115</v>
       </c>
       <c r="K549" s="29" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="L549" s="30"/>
       <c r="M549" s="30"/>
@@ -31617,16 +31781,16 @@
         <v>16</v>
       </c>
       <c r="B550" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C550" s="16" t="s">
         <v>120</v>
       </c>
       <c r="D550" s="16" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E550" s="16" t="s">
         <v>1207</v>
-      </c>
-      <c r="E550" s="16" t="s">
-        <v>1208</v>
       </c>
       <c r="F550" s="16" t="n">
         <v>1</v>
@@ -31667,16 +31831,16 @@
         <v>16</v>
       </c>
       <c r="B551" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C551" s="16" t="s">
         <v>32</v>
       </c>
       <c r="D551" s="16" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E551" s="16" t="s">
         <v>1209</v>
-      </c>
-      <c r="E551" s="16" t="s">
-        <v>1210</v>
       </c>
       <c r="F551" s="16" t="n">
         <v>2</v>
@@ -31717,16 +31881,16 @@
         <v>16</v>
       </c>
       <c r="B552" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C552" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D552" s="16" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E552" s="16" t="s">
         <v>1211</v>
-      </c>
-      <c r="E552" s="16" t="s">
-        <v>1212</v>
       </c>
       <c r="F552" s="16" t="n">
         <v>2</v>
@@ -31767,16 +31931,16 @@
         <v>16</v>
       </c>
       <c r="B553" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C553" s="16" t="s">
         <v>63</v>
       </c>
       <c r="D553" s="16" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E553" s="16" t="s">
         <v>1213</v>
-      </c>
-      <c r="E553" s="16" t="s">
-        <v>1214</v>
       </c>
       <c r="F553" s="16" t="n">
         <v>2</v>
@@ -31817,16 +31981,16 @@
         <v>16</v>
       </c>
       <c r="B554" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C554" s="16" t="s">
         <v>116</v>
       </c>
       <c r="D554" s="16" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E554" s="16" t="s">
         <v>1215</v>
-      </c>
-      <c r="E554" s="16" t="s">
-        <v>1216</v>
       </c>
       <c r="F554" s="16" t="n">
         <v>2</v>
@@ -31867,16 +32031,16 @@
         <v>16</v>
       </c>
       <c r="B555" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C555" s="16" t="s">
         <v>221</v>
       </c>
       <c r="D555" s="16" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E555" s="16" t="s">
         <v>1217</v>
-      </c>
-      <c r="E555" s="16" t="s">
-        <v>1218</v>
       </c>
       <c r="F555" s="16" t="n">
         <v>2</v>
@@ -31894,7 +32058,7 @@
         <v>105</v>
       </c>
       <c r="K555" s="16" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="L555" s="30"/>
       <c r="M555" s="30"/>
@@ -31917,16 +32081,16 @@
         <v>16</v>
       </c>
       <c r="B556" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C556" s="16" t="s">
         <v>88</v>
       </c>
       <c r="D556" s="16" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E556" s="16" t="s">
         <v>1219</v>
-      </c>
-      <c r="E556" s="16" t="s">
-        <v>1220</v>
       </c>
       <c r="F556" s="16" t="n">
         <v>1</v>
@@ -31967,16 +32131,16 @@
         <v>16</v>
       </c>
       <c r="B557" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C557" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D557" s="16" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E557" s="16" t="s">
         <v>1221</v>
-      </c>
-      <c r="E557" s="16" t="s">
-        <v>1222</v>
       </c>
       <c r="F557" s="16" t="n">
         <v>1</v>
@@ -32017,16 +32181,16 @@
         <v>16</v>
       </c>
       <c r="B558" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C558" s="16" t="s">
         <v>204</v>
       </c>
       <c r="D558" s="16" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E558" s="16" t="s">
         <v>1223</v>
-      </c>
-      <c r="E558" s="16" t="s">
-        <v>1224</v>
       </c>
       <c r="F558" s="16" t="n">
         <v>1</v>
@@ -32067,7 +32231,7 @@
         <v>16</v>
       </c>
       <c r="B559" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C559" s="16" t="s">
         <v>28</v>
@@ -32076,7 +32240,7 @@
         <v>325</v>
       </c>
       <c r="E559" s="16" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F559" s="16" t="s">
         <v>70</v>
@@ -32113,7 +32277,7 @@
         <v>16</v>
       </c>
       <c r="B560" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C560" s="16" t="s">
         <v>96</v>
@@ -32122,7 +32286,7 @@
         <v>745</v>
       </c>
       <c r="E560" s="16" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F560" s="16" t="n">
         <v>1</v>
@@ -32163,16 +32327,16 @@
         <v>16</v>
       </c>
       <c r="B561" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C561" s="16" t="s">
         <v>67</v>
       </c>
       <c r="D561" s="16" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E561" s="16" t="s">
         <v>1227</v>
-      </c>
-      <c r="E561" s="16" t="s">
-        <v>1228</v>
       </c>
       <c r="F561" s="16" t="n">
         <v>2</v>
@@ -32213,16 +32377,16 @@
         <v>16</v>
       </c>
       <c r="B562" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C562" s="16" t="s">
         <v>104</v>
       </c>
       <c r="D562" s="16" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E562" s="16" t="s">
         <v>1229</v>
-      </c>
-      <c r="E562" s="16" t="s">
-        <v>1230</v>
       </c>
       <c r="F562" s="16" t="n">
         <v>1</v>
@@ -32263,16 +32427,16 @@
         <v>16</v>
       </c>
       <c r="B563" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C563" s="16" t="s">
-        <v>1164</v>
+        <v>80</v>
       </c>
       <c r="D563" s="16" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E563" s="16" t="s">
         <v>1231</v>
-      </c>
-      <c r="E563" s="16" t="s">
-        <v>1232</v>
       </c>
       <c r="F563" s="16" t="n">
         <v>2</v>
@@ -32290,7 +32454,7 @@
         <v>50</v>
       </c>
       <c r="K563" s="16" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="L563" s="30"/>
       <c r="M563" s="30"/>
@@ -32313,16 +32477,16 @@
         <v>16</v>
       </c>
       <c r="B564" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C564" s="16" t="s">
         <v>76</v>
       </c>
       <c r="D564" s="16" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E564" s="16" t="s">
         <v>1234</v>
-      </c>
-      <c r="E564" s="16" t="s">
-        <v>1235</v>
       </c>
       <c r="F564" s="16" t="n">
         <v>2</v>
@@ -32363,16 +32527,16 @@
         <v>16</v>
       </c>
       <c r="B565" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C565" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D565" s="16" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E565" s="16" t="s">
         <v>1236</v>
-      </c>
-      <c r="E565" s="16" t="s">
-        <v>1237</v>
       </c>
       <c r="F565" s="16" t="n">
         <v>1</v>
@@ -32413,16 +32577,16 @@
         <v>16</v>
       </c>
       <c r="B566" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C566" s="16" t="s">
         <v>279</v>
       </c>
       <c r="D566" s="16" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E566" s="16" t="s">
         <v>1238</v>
-      </c>
-      <c r="E566" s="16" t="s">
-        <v>1239</v>
       </c>
       <c r="F566" s="16" t="n">
         <v>2</v>
@@ -32463,16 +32627,16 @@
         <v>16</v>
       </c>
       <c r="B567" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C567" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D567" s="16" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E567" s="16" t="s">
         <v>1240</v>
-      </c>
-      <c r="E567" s="16" t="s">
-        <v>1241</v>
       </c>
       <c r="F567" s="16" t="n">
         <v>1</v>
@@ -32513,16 +32677,16 @@
         <v>16</v>
       </c>
       <c r="B568" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C568" s="16" t="s">
         <v>214</v>
       </c>
       <c r="D568" s="16" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E568" s="16" t="s">
         <v>1242</v>
-      </c>
-      <c r="E568" s="16" t="s">
-        <v>1243</v>
       </c>
       <c r="F568" s="16" t="n">
         <v>2</v>
@@ -32563,16 +32727,16 @@
         <v>16</v>
       </c>
       <c r="B569" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C569" s="16" t="s">
         <v>100</v>
       </c>
       <c r="D569" s="16" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E569" s="16" t="s">
         <v>1244</v>
-      </c>
-      <c r="E569" s="16" t="s">
-        <v>1245</v>
       </c>
       <c r="F569" s="16" t="n">
         <v>2</v>
@@ -32613,16 +32777,16 @@
         <v>16</v>
       </c>
       <c r="B570" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C570" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D570" s="16" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E570" s="16" t="s">
         <v>1246</v>
-      </c>
-      <c r="E570" s="16" t="s">
-        <v>1247</v>
       </c>
       <c r="F570" s="16" t="n">
         <v>1</v>
@@ -32663,16 +32827,16 @@
         <v>16</v>
       </c>
       <c r="B571" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C571" s="16" t="s">
         <v>334</v>
       </c>
       <c r="D571" s="16" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E571" s="16" t="s">
         <v>1248</v>
-      </c>
-      <c r="E571" s="16" t="s">
-        <v>1249</v>
       </c>
       <c r="F571" s="16" t="n">
         <v>1</v>
@@ -32713,16 +32877,16 @@
         <v>16</v>
       </c>
       <c r="B572" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C572" s="16" t="s">
         <v>55</v>
       </c>
       <c r="D572" s="16" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E572" s="16" t="s">
         <v>1250</v>
-      </c>
-      <c r="E572" s="16" t="s">
-        <v>1251</v>
       </c>
       <c r="F572" s="16" t="n">
         <v>2</v>
@@ -32763,16 +32927,16 @@
         <v>16</v>
       </c>
       <c r="B573" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C573" s="16" t="s">
         <v>228</v>
       </c>
       <c r="D573" s="16" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E573" s="16" t="s">
         <v>1252</v>
-      </c>
-      <c r="E573" s="16" t="s">
-        <v>1253</v>
       </c>
       <c r="F573" s="16" t="n">
         <v>1</v>
@@ -32813,16 +32977,16 @@
         <v>16</v>
       </c>
       <c r="B574" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C574" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D574" s="16" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E574" s="16" t="s">
         <v>1254</v>
-      </c>
-      <c r="E574" s="16" t="s">
-        <v>1255</v>
       </c>
       <c r="F574" s="16" t="n">
         <v>1</v>
@@ -32859,16 +33023,16 @@
         <v>16</v>
       </c>
       <c r="B575" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C575" s="16" t="s">
         <v>36</v>
       </c>
       <c r="D575" s="16" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E575" s="16" t="s">
         <v>1256</v>
-      </c>
-      <c r="E575" s="16" t="s">
-        <v>1257</v>
       </c>
       <c r="F575" s="16" t="n">
         <v>1</v>
@@ -32905,16 +33069,16 @@
         <v>16</v>
       </c>
       <c r="B576" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C576" s="16" t="s">
         <v>183</v>
       </c>
       <c r="D576" s="16" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E576" s="16" t="s">
         <v>1258</v>
-      </c>
-      <c r="E576" s="16" t="s">
-        <v>1259</v>
       </c>
       <c r="F576" s="16" t="n">
         <v>1</v>
@@ -32951,16 +33115,16 @@
         <v>16</v>
       </c>
       <c r="B577" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C577" s="16" t="s">
         <v>174</v>
       </c>
       <c r="D577" s="16" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E577" s="16" t="s">
         <v>1260</v>
-      </c>
-      <c r="E577" s="16" t="s">
-        <v>1261</v>
       </c>
       <c r="F577" s="16" t="n">
         <v>1</v>
@@ -32997,16 +33161,16 @@
         <v>16</v>
       </c>
       <c r="B578" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C578" s="16" t="s">
         <v>128</v>
       </c>
       <c r="D578" s="16" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E578" s="16" t="s">
         <v>1262</v>
-      </c>
-      <c r="E578" s="16" t="s">
-        <v>1263</v>
       </c>
       <c r="F578" s="16" t="n">
         <v>1</v>
@@ -33043,7 +33207,7 @@
         <v>16</v>
       </c>
       <c r="B579" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C579" s="16" t="s">
         <v>92</v>
@@ -33089,16 +33253,16 @@
         <v>16</v>
       </c>
       <c r="B580" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C580" s="16" t="s">
         <v>72</v>
       </c>
       <c r="D580" s="16" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E580" s="16" t="s">
         <v>1264</v>
-      </c>
-      <c r="E580" s="16" t="s">
-        <v>1265</v>
       </c>
       <c r="F580" s="16" t="n">
         <v>2</v>
@@ -33135,16 +33299,16 @@
         <v>16</v>
       </c>
       <c r="B581" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C581" s="16" t="s">
         <v>144</v>
       </c>
       <c r="D581" s="16" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E581" s="16" t="s">
         <v>1266</v>
-      </c>
-      <c r="E581" s="16" t="s">
-        <v>1267</v>
       </c>
       <c r="F581" s="16" t="n">
         <v>2</v>
@@ -33181,16 +33345,16 @@
         <v>16</v>
       </c>
       <c r="B582" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C582" s="16" t="s">
         <v>84</v>
       </c>
       <c r="D582" s="16" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E582" s="16" t="s">
         <v>1268</v>
-      </c>
-      <c r="E582" s="16" t="s">
-        <v>1269</v>
       </c>
       <c r="F582" s="16" t="n">
         <v>2</v>
@@ -33204,7 +33368,7 @@
         <v>28</v>
       </c>
       <c r="K582" s="16" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="L582" s="30"/>
       <c r="M582" s="30"/>
@@ -33227,16 +33391,16 @@
         <v>16</v>
       </c>
       <c r="B583" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C583" s="16" t="s">
         <v>236</v>
       </c>
       <c r="D583" s="16" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E583" s="16" t="s">
         <v>1270</v>
-      </c>
-      <c r="E583" s="16" t="s">
-        <v>1271</v>
       </c>
       <c r="F583" s="16" t="n">
         <v>2</v>
@@ -33273,16 +33437,16 @@
         <v>16</v>
       </c>
       <c r="B584" s="20" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C584" s="20" t="s">
         <v>254</v>
       </c>
       <c r="D584" s="20" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E584" s="20" t="s">
         <v>1272</v>
-      </c>
-      <c r="E584" s="20" t="s">
-        <v>1273</v>
       </c>
       <c r="F584" s="20" t="n">
         <v>2</v>
@@ -33296,7 +33460,7 @@
         <v>14</v>
       </c>
       <c r="K584" s="20" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="L584" s="30"/>
       <c r="M584" s="30"/>
@@ -33319,16 +33483,16 @@
         <v>17</v>
       </c>
       <c r="B585" s="24" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C585" s="24" t="s">
         <v>116</v>
       </c>
       <c r="D585" s="24" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E585" s="24" t="s">
         <v>1275</v>
-      </c>
-      <c r="E585" s="24" t="s">
-        <v>1276</v>
       </c>
       <c r="F585" s="24" t="n">
         <v>2</v>
@@ -33346,7 +33510,7 @@
         <v>82</v>
       </c>
       <c r="K585" s="24" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="L585" s="5"/>
       <c r="M585" s="5"/>
@@ -33369,16 +33533,16 @@
         <v>17</v>
       </c>
       <c r="B586" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C586" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D586" s="26" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E586" s="26" t="s">
         <v>1277</v>
-      </c>
-      <c r="E586" s="26" t="s">
-        <v>1278</v>
       </c>
       <c r="F586" s="26" t="n">
         <v>2</v>
@@ -33396,7 +33560,7 @@
         <v>102</v>
       </c>
       <c r="K586" s="26" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="L586" s="5"/>
       <c r="M586" s="5"/>
@@ -33419,16 +33583,16 @@
         <v>17</v>
       </c>
       <c r="B587" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C587" s="26" t="s">
         <v>51</v>
       </c>
       <c r="D587" s="26" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E587" s="26" t="s">
         <v>1279</v>
-      </c>
-      <c r="E587" s="26" t="s">
-        <v>1280</v>
       </c>
       <c r="F587" s="26" t="n">
         <v>1</v>
@@ -33469,16 +33633,16 @@
         <v>17</v>
       </c>
       <c r="B588" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C588" s="26" t="s">
         <v>44</v>
       </c>
       <c r="D588" s="26" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E588" s="26" t="s">
         <v>1281</v>
-      </c>
-      <c r="E588" s="26" t="s">
-        <v>1282</v>
       </c>
       <c r="F588" s="26" t="n">
         <v>1</v>
@@ -33519,16 +33683,16 @@
         <v>17</v>
       </c>
       <c r="B589" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C589" s="26" t="s">
         <v>334</v>
       </c>
       <c r="D589" s="26" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E589" s="26" t="s">
         <v>1283</v>
-      </c>
-      <c r="E589" s="26" t="s">
-        <v>1284</v>
       </c>
       <c r="F589" s="26" t="n">
         <v>1</v>
@@ -33569,16 +33733,16 @@
         <v>17</v>
       </c>
       <c r="B590" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C590" s="26" t="s">
         <v>63</v>
       </c>
       <c r="D590" s="26" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E590" s="26" t="s">
         <v>1285</v>
-      </c>
-      <c r="E590" s="26" t="s">
-        <v>1286</v>
       </c>
       <c r="F590" s="26" t="n">
         <v>2</v>
@@ -33619,16 +33783,16 @@
         <v>17</v>
       </c>
       <c r="B591" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C591" s="26" t="s">
         <v>40</v>
       </c>
       <c r="D591" s="26" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E591" s="26" t="s">
         <v>1287</v>
-      </c>
-      <c r="E591" s="26" t="s">
-        <v>1288</v>
       </c>
       <c r="F591" s="26" t="n">
         <v>1</v>
@@ -33646,7 +33810,7 @@
         <v>70</v>
       </c>
       <c r="K591" s="26" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="L591" s="5"/>
       <c r="M591" s="5"/>
@@ -33669,16 +33833,16 @@
         <v>17</v>
       </c>
       <c r="B592" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C592" s="26" t="s">
         <v>76</v>
       </c>
       <c r="D592" s="26" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E592" s="26" t="s">
         <v>1290</v>
-      </c>
-      <c r="E592" s="26" t="s">
-        <v>1291</v>
       </c>
       <c r="F592" s="26" t="n">
         <v>2</v>
@@ -33719,16 +33883,16 @@
         <v>17</v>
       </c>
       <c r="B593" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C593" s="26" t="s">
         <v>24</v>
       </c>
       <c r="D593" s="26" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E593" s="26" t="s">
         <v>1292</v>
-      </c>
-      <c r="E593" s="26" t="s">
-        <v>1293</v>
       </c>
       <c r="F593" s="26" t="n">
         <v>1</v>
@@ -33769,16 +33933,16 @@
         <v>17</v>
       </c>
       <c r="B594" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C594" s="26" t="s">
         <v>214</v>
       </c>
       <c r="D594" s="26" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E594" s="26" t="s">
         <v>1294</v>
-      </c>
-      <c r="E594" s="26" t="s">
-        <v>1295</v>
       </c>
       <c r="F594" s="26" t="n">
         <v>2</v>
@@ -33819,16 +33983,16 @@
         <v>17</v>
       </c>
       <c r="B595" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C595" s="26" t="s">
         <v>96</v>
       </c>
       <c r="D595" s="26" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E595" s="26" t="s">
         <v>1296</v>
-      </c>
-      <c r="E595" s="26" t="s">
-        <v>1297</v>
       </c>
       <c r="F595" s="26" t="n">
         <v>2</v>
@@ -33869,7 +34033,7 @@
         <v>17</v>
       </c>
       <c r="B596" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C596" s="26" t="s">
         <v>221</v>
@@ -33878,7 +34042,7 @@
         <v>1025</v>
       </c>
       <c r="E596" s="26" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F596" s="26" t="n">
         <v>2</v>
@@ -33919,16 +34083,16 @@
         <v>17</v>
       </c>
       <c r="B597" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C597" s="26" t="s">
         <v>642</v>
       </c>
       <c r="D597" s="26" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E597" s="26" t="s">
         <v>1299</v>
-      </c>
-      <c r="E597" s="26" t="s">
-        <v>1300</v>
       </c>
       <c r="F597" s="26" t="n">
         <v>1</v>
@@ -33969,16 +34133,16 @@
         <v>17</v>
       </c>
       <c r="B598" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C598" s="26" t="s">
         <v>67</v>
       </c>
       <c r="D598" s="26" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E598" s="26" t="s">
         <v>1301</v>
-      </c>
-      <c r="E598" s="26" t="s">
-        <v>1302</v>
       </c>
       <c r="F598" s="26" t="n">
         <v>1</v>
@@ -34019,16 +34183,16 @@
         <v>17</v>
       </c>
       <c r="B599" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C599" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D599" s="26" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E599" s="26" t="s">
         <v>1303</v>
-      </c>
-      <c r="E599" s="26" t="s">
-        <v>1304</v>
       </c>
       <c r="F599" s="26" t="n">
         <v>1</v>
@@ -34069,16 +34233,16 @@
         <v>17</v>
       </c>
       <c r="B600" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C600" s="26" t="s">
         <v>159</v>
       </c>
       <c r="D600" s="26" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E600" s="26" t="s">
         <v>1305</v>
-      </c>
-      <c r="E600" s="26" t="s">
-        <v>1306</v>
       </c>
       <c r="F600" s="26" t="s">
         <v>70</v>
@@ -34092,7 +34256,7 @@
       <c r="I600" s="26"/>
       <c r="J600" s="26"/>
       <c r="K600" s="26" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="L600" s="5"/>
       <c r="M600" s="5"/>
@@ -34115,16 +34279,16 @@
         <v>17</v>
       </c>
       <c r="B601" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C601" s="26" t="s">
         <v>204</v>
       </c>
       <c r="D601" s="26" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E601" s="26" t="s">
         <v>1307</v>
-      </c>
-      <c r="E601" s="26" t="s">
-        <v>1308</v>
       </c>
       <c r="F601" s="26" t="n">
         <v>1</v>
@@ -34165,16 +34329,16 @@
         <v>17</v>
       </c>
       <c r="B602" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C602" s="26" t="s">
         <v>32</v>
       </c>
       <c r="D602" s="26" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E602" s="26" t="s">
         <v>1309</v>
-      </c>
-      <c r="E602" s="26" t="s">
-        <v>1310</v>
       </c>
       <c r="F602" s="26" t="n">
         <v>2</v>
@@ -34215,16 +34379,16 @@
         <v>17</v>
       </c>
       <c r="B603" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C603" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D603" s="26" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E603" s="26" t="s">
         <v>1311</v>
-      </c>
-      <c r="E603" s="26" t="s">
-        <v>1312</v>
       </c>
       <c r="F603" s="26" t="n">
         <v>2</v>
@@ -34265,16 +34429,16 @@
         <v>17</v>
       </c>
       <c r="B604" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C604" s="26" t="s">
         <v>28</v>
       </c>
       <c r="D604" s="26" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E604" s="26" t="s">
         <v>1313</v>
-      </c>
-      <c r="E604" s="26" t="s">
-        <v>1314</v>
       </c>
       <c r="F604" s="26" t="n">
         <v>1</v>
@@ -34315,16 +34479,16 @@
         <v>17</v>
       </c>
       <c r="B605" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C605" s="26" t="s">
         <v>536</v>
       </c>
       <c r="D605" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E605" s="26" t="s">
         <v>1315</v>
-      </c>
-      <c r="E605" s="26" t="s">
-        <v>1316</v>
       </c>
       <c r="F605" s="26" t="n">
         <v>2</v>
@@ -34365,16 +34529,16 @@
         <v>17</v>
       </c>
       <c r="B606" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C606" s="26" t="s">
         <v>279</v>
       </c>
       <c r="D606" s="26" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E606" s="26" t="s">
         <v>1317</v>
-      </c>
-      <c r="E606" s="26" t="s">
-        <v>1318</v>
       </c>
       <c r="F606" s="26" t="n">
         <v>2</v>
@@ -34415,16 +34579,16 @@
         <v>17</v>
       </c>
       <c r="B607" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C607" s="26" t="s">
         <v>724</v>
       </c>
       <c r="D607" s="26" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E607" s="26" t="s">
         <v>1319</v>
-      </c>
-      <c r="E607" s="26" t="s">
-        <v>1320</v>
       </c>
       <c r="F607" s="26" t="n">
         <v>2</v>
@@ -34465,7 +34629,7 @@
         <v>17</v>
       </c>
       <c r="B608" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C608" s="26" t="s">
         <v>128</v>
@@ -34474,7 +34638,7 @@
         <v>394</v>
       </c>
       <c r="E608" s="26" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F608" s="26" t="n">
         <v>1</v>
@@ -34515,16 +34679,16 @@
         <v>17</v>
       </c>
       <c r="B609" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C609" s="26" t="s">
         <v>254</v>
       </c>
       <c r="D609" s="26" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E609" s="26" t="s">
         <v>1322</v>
-      </c>
-      <c r="E609" s="26" t="s">
-        <v>1323</v>
       </c>
       <c r="F609" s="26" t="n">
         <v>1</v>
@@ -34542,7 +34706,7 @@
         <v>46</v>
       </c>
       <c r="K609" s="26" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="L609" s="5"/>
       <c r="M609" s="5"/>
@@ -34565,16 +34729,16 @@
         <v>17</v>
       </c>
       <c r="B610" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C610" s="26" t="s">
         <v>72</v>
       </c>
       <c r="D610" s="26" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E610" s="26" t="s">
         <v>1324</v>
-      </c>
-      <c r="E610" s="26" t="s">
-        <v>1325</v>
       </c>
       <c r="F610" s="26" t="n">
         <v>1</v>
@@ -34611,16 +34775,16 @@
         <v>17</v>
       </c>
       <c r="B611" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C611" s="26" t="s">
         <v>183</v>
       </c>
       <c r="D611" s="26" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E611" s="26" t="s">
         <v>1326</v>
-      </c>
-      <c r="E611" s="26" t="s">
-        <v>1327</v>
       </c>
       <c r="F611" s="26" t="n">
         <v>1</v>
@@ -34657,16 +34821,16 @@
         <v>17</v>
       </c>
       <c r="B612" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C612" s="26" t="s">
         <v>800</v>
       </c>
       <c r="D612" s="26" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E612" s="26" t="s">
         <v>1328</v>
-      </c>
-      <c r="E612" s="26" t="s">
-        <v>1329</v>
       </c>
       <c r="F612" s="26" t="n">
         <v>1</v>
@@ -34703,16 +34867,16 @@
         <v>17</v>
       </c>
       <c r="B613" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C613" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D613" s="26" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E613" s="26" t="s">
         <v>1330</v>
-      </c>
-      <c r="E613" s="26" t="s">
-        <v>1331</v>
       </c>
       <c r="F613" s="26" t="n">
         <v>1</v>
@@ -34749,16 +34913,16 @@
         <v>17</v>
       </c>
       <c r="B614" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C614" s="26" t="s">
         <v>104</v>
       </c>
       <c r="D614" s="26" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E614" s="26" t="s">
         <v>1332</v>
-      </c>
-      <c r="E614" s="26" t="s">
-        <v>1333</v>
       </c>
       <c r="F614" s="26" t="n">
         <v>1</v>
@@ -34795,7 +34959,7 @@
         <v>17</v>
       </c>
       <c r="B615" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C615" s="26" t="s">
         <v>20</v>
@@ -34804,7 +34968,7 @@
         <v>420</v>
       </c>
       <c r="E615" s="26" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="F615" s="26" t="n">
         <v>1</v>
@@ -34841,16 +35005,16 @@
         <v>17</v>
       </c>
       <c r="B616" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C616" s="26" t="s">
         <v>136</v>
       </c>
       <c r="D616" s="26" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E616" s="26" t="s">
         <v>1335</v>
-      </c>
-      <c r="E616" s="26" t="s">
-        <v>1336</v>
       </c>
       <c r="F616" s="26" t="n">
         <v>2</v>
@@ -34887,16 +35051,16 @@
         <v>17</v>
       </c>
       <c r="B617" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C617" s="26" t="s">
         <v>153</v>
       </c>
       <c r="D617" s="26" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E617" s="26" t="s">
         <v>1337</v>
-      </c>
-      <c r="E617" s="26" t="s">
-        <v>1338</v>
       </c>
       <c r="F617" s="26" t="n">
         <v>2</v>
@@ -34933,16 +35097,16 @@
         <v>17</v>
       </c>
       <c r="B618" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C618" s="26" t="s">
         <v>358</v>
       </c>
       <c r="D618" s="26" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E618" s="26" t="s">
         <v>1339</v>
-      </c>
-      <c r="E618" s="26" t="s">
-        <v>1340</v>
       </c>
       <c r="F618" s="26" t="n">
         <v>2</v>
@@ -34956,7 +35120,7 @@
         <v>27</v>
       </c>
       <c r="K618" s="26" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="L618" s="5"/>
       <c r="M618" s="5"/>
@@ -34979,16 +35143,16 @@
         <v>17</v>
       </c>
       <c r="B619" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C619" s="26" t="s">
-        <v>1164</v>
+        <v>80</v>
       </c>
       <c r="D619" s="26" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E619" s="26" t="s">
         <v>1341</v>
-      </c>
-      <c r="E619" s="26" t="s">
-        <v>1342</v>
       </c>
       <c r="F619" s="26" t="n">
         <v>2</v>
@@ -35025,16 +35189,16 @@
         <v>17</v>
       </c>
       <c r="B620" s="26" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C620" s="26" t="s">
         <v>100</v>
       </c>
       <c r="D620" s="26" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E620" s="26" t="s">
         <v>1343</v>
-      </c>
-      <c r="E620" s="26" t="s">
-        <v>1344</v>
       </c>
       <c r="F620" s="26" t="n">
         <v>2</v>
@@ -35071,16 +35235,16 @@
         <v>18</v>
       </c>
       <c r="B621" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C621" s="25" t="s">
         <v>63</v>
       </c>
       <c r="D621" s="25" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E621" s="25" t="s">
         <v>1346</v>
-      </c>
-      <c r="E621" s="25" t="s">
-        <v>1347</v>
       </c>
       <c r="F621" s="26" t="n">
         <v>2</v>
@@ -35121,7 +35285,7 @@
         <v>18</v>
       </c>
       <c r="B622" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C622" s="25" t="s">
         <v>120</v>
@@ -35130,7 +35294,7 @@
         <v>589</v>
       </c>
       <c r="E622" s="25" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F622" s="26" t="n">
         <v>2</v>
@@ -35171,7 +35335,7 @@
         <v>18</v>
       </c>
       <c r="B623" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C623" s="25" t="s">
         <v>96</v>
@@ -35180,7 +35344,7 @@
         <v>842</v>
       </c>
       <c r="E623" s="25" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F623" s="26" t="n">
         <v>2</v>
@@ -35221,16 +35385,16 @@
         <v>18</v>
       </c>
       <c r="B624" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C624" s="25" t="s">
         <v>183</v>
       </c>
       <c r="D624" s="25" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E624" s="25" t="s">
         <v>1350</v>
-      </c>
-      <c r="E624" s="25" t="s">
-        <v>1351</v>
       </c>
       <c r="F624" s="26" t="n">
         <v>1</v>
@@ -35248,7 +35412,7 @@
         <v>96</v>
       </c>
       <c r="K624" s="25" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="L624" s="5"/>
       <c r="M624" s="5"/>
@@ -35271,7 +35435,7 @@
         <v>18</v>
       </c>
       <c r="B625" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C625" s="25" t="s">
         <v>24</v>
@@ -35280,7 +35444,7 @@
         <v>950</v>
       </c>
       <c r="E625" s="25" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="F625" s="26" t="n">
         <v>1</v>
@@ -35321,16 +35485,16 @@
         <v>18</v>
       </c>
       <c r="B626" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C626" s="25" t="s">
         <v>44</v>
       </c>
       <c r="D626" s="25" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E626" s="25" t="s">
         <v>1353</v>
-      </c>
-      <c r="E626" s="25" t="s">
-        <v>1354</v>
       </c>
       <c r="F626" s="26" t="n">
         <v>1</v>
@@ -35371,16 +35535,16 @@
         <v>18</v>
       </c>
       <c r="B627" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C627" s="25" t="s">
-        <v>1164</v>
+        <v>80</v>
       </c>
       <c r="D627" s="25" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E627" s="25" t="s">
         <v>1355</v>
-      </c>
-      <c r="E627" s="25" t="s">
-        <v>1356</v>
       </c>
       <c r="F627" s="26" t="n">
         <v>2</v>
@@ -35398,7 +35562,7 @@
         <v>78</v>
       </c>
       <c r="K627" s="25" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="L627" s="5"/>
       <c r="M627" s="5"/>
@@ -35421,16 +35585,16 @@
         <v>18</v>
       </c>
       <c r="B628" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C628" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D628" s="25" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E628" s="25" t="s">
         <v>1358</v>
-      </c>
-      <c r="E628" s="25" t="s">
-        <v>1359</v>
       </c>
       <c r="F628" s="26" t="n">
         <v>2</v>
@@ -35471,16 +35635,16 @@
         <v>18</v>
       </c>
       <c r="B629" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C629" s="25" t="s">
         <v>197</v>
       </c>
       <c r="D629" s="25" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E629" s="25" t="s">
         <v>1360</v>
-      </c>
-      <c r="E629" s="25" t="s">
-        <v>1361</v>
       </c>
       <c r="F629" s="26" t="n">
         <v>1</v>
@@ -35521,7 +35685,7 @@
         <v>18</v>
       </c>
       <c r="B630" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C630" s="25" t="s">
         <v>76</v>
@@ -35530,7 +35694,7 @@
         <v>1095</v>
       </c>
       <c r="E630" s="25" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="F630" s="26" t="n">
         <v>2</v>
@@ -35548,7 +35712,7 @@
         <v>100</v>
       </c>
       <c r="K630" s="25" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="L630" s="5"/>
       <c r="M630" s="5"/>
@@ -35571,16 +35735,16 @@
         <v>18</v>
       </c>
       <c r="B631" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C631" s="25" t="s">
         <v>32</v>
       </c>
       <c r="D631" s="25" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E631" s="25" t="s">
         <v>1364</v>
-      </c>
-      <c r="E631" s="25" t="s">
-        <v>1365</v>
       </c>
       <c r="F631" s="26" t="n">
         <v>1</v>
@@ -35598,7 +35762,7 @@
         <v>104</v>
       </c>
       <c r="K631" s="25" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="L631" s="5"/>
       <c r="M631" s="5"/>
@@ -35621,16 +35785,16 @@
         <v>18</v>
       </c>
       <c r="B632" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C632" s="25" t="s">
         <v>104</v>
       </c>
       <c r="D632" s="25" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E632" s="25" t="s">
         <v>1366</v>
-      </c>
-      <c r="E632" s="25" t="s">
-        <v>1367</v>
       </c>
       <c r="F632" s="26" t="n">
         <v>2</v>
@@ -35671,16 +35835,16 @@
         <v>18</v>
       </c>
       <c r="B633" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C633" s="25" t="s">
         <v>116</v>
       </c>
       <c r="D633" s="25" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E633" s="25" t="s">
         <v>1368</v>
-      </c>
-      <c r="E633" s="25" t="s">
-        <v>1369</v>
       </c>
       <c r="F633" s="26" t="s">
         <v>70</v>
@@ -35694,7 +35858,7 @@
       <c r="I633" s="26"/>
       <c r="J633" s="26"/>
       <c r="K633" s="25" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="L633" s="5"/>
       <c r="M633" s="5"/>
@@ -35717,16 +35881,16 @@
         <v>18</v>
       </c>
       <c r="B634" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C634" s="25" t="s">
         <v>72</v>
       </c>
       <c r="D634" s="25" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E634" s="25" t="s">
         <v>1370</v>
-      </c>
-      <c r="E634" s="25" t="s">
-        <v>1371</v>
       </c>
       <c r="F634" s="26" t="n">
         <v>1</v>
@@ -35744,7 +35908,7 @@
         <v>64</v>
       </c>
       <c r="K634" s="25" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="L634" s="5"/>
       <c r="M634" s="5"/>
@@ -35767,16 +35931,16 @@
         <v>18</v>
       </c>
       <c r="B635" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C635" s="25" t="s">
         <v>51</v>
       </c>
       <c r="D635" s="25" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E635" s="25" t="s">
         <v>1372</v>
-      </c>
-      <c r="E635" s="25" t="s">
-        <v>1373</v>
       </c>
       <c r="F635" s="26" t="n">
         <v>1</v>
@@ -35817,16 +35981,16 @@
         <v>18</v>
       </c>
       <c r="B636" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C636" s="25" t="s">
         <v>16</v>
       </c>
       <c r="D636" s="25" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E636" s="25" t="s">
         <v>1374</v>
-      </c>
-      <c r="E636" s="25" t="s">
-        <v>1375</v>
       </c>
       <c r="F636" s="26" t="n">
         <v>1</v>
@@ -35867,16 +36031,16 @@
         <v>18</v>
       </c>
       <c r="B637" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C637" s="25" t="s">
         <v>136</v>
       </c>
       <c r="D637" s="25" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E637" s="25" t="s">
         <v>1376</v>
-      </c>
-      <c r="E637" s="25" t="s">
-        <v>1377</v>
       </c>
       <c r="F637" s="26" t="n">
         <v>1</v>
@@ -35917,16 +36081,16 @@
         <v>18</v>
       </c>
       <c r="B638" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C638" s="25" t="s">
         <v>12</v>
       </c>
       <c r="D638" s="25" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E638" s="25" t="s">
         <v>1378</v>
-      </c>
-      <c r="E638" s="25" t="s">
-        <v>1379</v>
       </c>
       <c r="F638" s="26" t="n">
         <v>2</v>
@@ -35967,16 +36131,16 @@
         <v>18</v>
       </c>
       <c r="B639" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C639" s="25" t="s">
         <v>159</v>
       </c>
       <c r="D639" s="25" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E639" s="25" t="s">
         <v>1380</v>
-      </c>
-      <c r="E639" s="25" t="s">
-        <v>1381</v>
       </c>
       <c r="F639" s="26" t="n">
         <v>2</v>
@@ -36017,16 +36181,16 @@
         <v>18</v>
       </c>
       <c r="B640" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C640" s="25" t="s">
         <v>20</v>
       </c>
       <c r="D640" s="25" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E640" s="25" t="s">
         <v>1382</v>
-      </c>
-      <c r="E640" s="25" t="s">
-        <v>1383</v>
       </c>
       <c r="F640" s="26" t="n">
         <v>2</v>
@@ -36067,16 +36231,16 @@
         <v>18</v>
       </c>
       <c r="B641" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C641" s="25" t="s">
         <v>254</v>
       </c>
       <c r="D641" s="25" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E641" s="25" t="s">
         <v>1384</v>
-      </c>
-      <c r="E641" s="25" t="s">
-        <v>1385</v>
       </c>
       <c r="F641" s="26" t="n">
         <v>2</v>
@@ -36094,7 +36258,7 @@
         <v>47</v>
       </c>
       <c r="K641" s="25" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="L641" s="5"/>
       <c r="M641" s="5"/>
@@ -36117,16 +36281,16 @@
         <v>18</v>
       </c>
       <c r="B642" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C642" s="25" t="s">
         <v>124</v>
       </c>
       <c r="D642" s="25" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E642" s="25" t="s">
         <v>1386</v>
-      </c>
-      <c r="E642" s="25" t="s">
-        <v>1387</v>
       </c>
       <c r="F642" s="26" t="n">
         <v>1</v>
@@ -36144,7 +36308,7 @@
         <v>65</v>
       </c>
       <c r="K642" s="25" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="L642" s="5"/>
       <c r="M642" s="5"/>
@@ -36167,16 +36331,16 @@
         <v>18</v>
       </c>
       <c r="B643" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C643" s="25" t="s">
         <v>100</v>
       </c>
       <c r="D643" s="25" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E643" s="25" t="s">
         <v>1388</v>
-      </c>
-      <c r="E643" s="25" t="s">
-        <v>1389</v>
       </c>
       <c r="F643" s="26" t="n">
         <v>1</v>
@@ -36217,16 +36381,16 @@
         <v>18</v>
       </c>
       <c r="B644" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C644" s="25" t="s">
         <v>221</v>
       </c>
       <c r="D644" s="25" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E644" s="25" t="s">
         <v>1390</v>
-      </c>
-      <c r="E644" s="25" t="s">
-        <v>1391</v>
       </c>
       <c r="F644" s="26" t="n">
         <v>1</v>
@@ -36267,16 +36431,16 @@
         <v>18</v>
       </c>
       <c r="B645" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C645" s="25" t="s">
         <v>40</v>
       </c>
       <c r="D645" s="25" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E645" s="25" t="s">
         <v>1392</v>
-      </c>
-      <c r="E645" s="25" t="s">
-        <v>1393</v>
       </c>
       <c r="F645" s="26" t="n">
         <v>2</v>
@@ -36317,16 +36481,16 @@
         <v>18</v>
       </c>
       <c r="B646" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C646" s="25" t="s">
         <v>228</v>
       </c>
       <c r="D646" s="25" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E646" s="25" t="s">
         <v>1394</v>
-      </c>
-      <c r="E646" s="25" t="s">
-        <v>1395</v>
       </c>
       <c r="F646" s="26" t="n">
         <v>1</v>
@@ -36363,16 +36527,16 @@
         <v>18</v>
       </c>
       <c r="B647" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C647" s="25" t="s">
         <v>800</v>
       </c>
       <c r="D647" s="25" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E647" s="25" t="s">
         <v>1396</v>
-      </c>
-      <c r="E647" s="25" t="s">
-        <v>1397</v>
       </c>
       <c r="F647" s="26" t="n">
         <v>1</v>
@@ -36409,16 +36573,16 @@
         <v>18</v>
       </c>
       <c r="B648" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C648" s="25" t="s">
         <v>204</v>
       </c>
       <c r="D648" s="25" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E648" s="25" t="s">
         <v>1398</v>
-      </c>
-      <c r="E648" s="25" t="s">
-        <v>1399</v>
       </c>
       <c r="F648" s="26" t="n">
         <v>1</v>
@@ -36455,16 +36619,16 @@
         <v>18</v>
       </c>
       <c r="B649" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C649" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D649" s="25" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E649" s="25" t="s">
         <v>1400</v>
-      </c>
-      <c r="E649" s="25" t="s">
-        <v>1401</v>
       </c>
       <c r="F649" s="26" t="n">
         <v>1</v>
@@ -36478,7 +36642,7 @@
         <v>33</v>
       </c>
       <c r="K649" s="25" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="L649" s="5"/>
       <c r="M649" s="5"/>
@@ -36501,16 +36665,16 @@
         <v>18</v>
       </c>
       <c r="B650" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C650" s="25" t="s">
         <v>214</v>
       </c>
       <c r="D650" s="25" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E650" s="25" t="s">
         <v>1403</v>
-      </c>
-      <c r="E650" s="25" t="s">
-        <v>1404</v>
       </c>
       <c r="F650" s="26" t="n">
         <v>1</v>
@@ -36547,16 +36711,16 @@
         <v>18</v>
       </c>
       <c r="B651" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C651" s="25" t="s">
         <v>128</v>
       </c>
       <c r="D651" s="25" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E651" s="25" t="s">
         <v>1405</v>
-      </c>
-      <c r="E651" s="25" t="s">
-        <v>1406</v>
       </c>
       <c r="F651" s="26" t="n">
         <v>2</v>
@@ -36593,16 +36757,16 @@
         <v>18</v>
       </c>
       <c r="B652" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C652" s="25" t="s">
         <v>536</v>
       </c>
       <c r="D652" s="25" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E652" s="25" t="s">
         <v>1407</v>
-      </c>
-      <c r="E652" s="25" t="s">
-        <v>1408</v>
       </c>
       <c r="F652" s="26" t="n">
         <v>2</v>
@@ -36639,16 +36803,16 @@
         <v>18</v>
       </c>
       <c r="B653" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C653" s="25" t="s">
         <v>140</v>
       </c>
       <c r="D653" s="25" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E653" s="25" t="s">
         <v>1409</v>
-      </c>
-      <c r="E653" s="25" t="s">
-        <v>1410</v>
       </c>
       <c r="F653" s="26" t="n">
         <v>2</v>
@@ -36685,16 +36849,16 @@
         <v>18</v>
       </c>
       <c r="B654" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C654" s="25" t="s">
         <v>153</v>
       </c>
       <c r="D654" s="25" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E654" s="25" t="s">
         <v>1411</v>
-      </c>
-      <c r="E654" s="25" t="s">
-        <v>1412</v>
       </c>
       <c r="F654" s="26" t="n">
         <v>2</v>
@@ -36731,16 +36895,16 @@
         <v>18</v>
       </c>
       <c r="B655" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C655" s="25" t="s">
         <v>67</v>
       </c>
       <c r="D655" s="25" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E655" s="25" t="s">
         <v>1413</v>
-      </c>
-      <c r="E655" s="25" t="s">
-        <v>1414</v>
       </c>
       <c r="F655" s="26" t="n">
         <v>2</v>
@@ -36777,16 +36941,16 @@
         <v>18</v>
       </c>
       <c r="B656" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C656" s="25" t="s">
         <v>312</v>
       </c>
       <c r="D656" s="25" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E656" s="25" t="s">
         <v>1415</v>
-      </c>
-      <c r="E656" s="25" t="s">
-        <v>1416</v>
       </c>
       <c r="F656" s="26" t="n">
         <v>2</v>
@@ -36823,16 +36987,16 @@
         <v>19</v>
       </c>
       <c r="B657" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C657" s="31" t="s">
         <v>116</v>
       </c>
       <c r="D657" s="31" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E657" s="31" t="s">
         <v>1418</v>
-      </c>
-      <c r="E657" s="31" t="s">
-        <v>1419</v>
       </c>
       <c r="F657" s="32" t="n">
         <v>2</v>
@@ -36873,16 +37037,16 @@
         <v>19</v>
       </c>
       <c r="B658" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C658" s="31" t="s">
         <v>32</v>
       </c>
       <c r="D658" s="31" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E658" s="31" t="s">
         <v>1420</v>
-      </c>
-      <c r="E658" s="31" t="s">
-        <v>1421</v>
       </c>
       <c r="F658" s="32" t="n">
         <v>1</v>
@@ -36923,16 +37087,16 @@
         <v>19</v>
       </c>
       <c r="B659" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C659" s="31" t="s">
         <v>76</v>
       </c>
       <c r="D659" s="31" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E659" s="31" t="s">
         <v>1422</v>
-      </c>
-      <c r="E659" s="31" t="s">
-        <v>1423</v>
       </c>
       <c r="F659" s="32" t="n">
         <v>1</v>
@@ -36973,16 +37137,16 @@
         <v>19</v>
       </c>
       <c r="B660" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C660" s="31" t="s">
         <v>204</v>
       </c>
       <c r="D660" s="31" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E660" s="31" t="s">
         <v>1424</v>
-      </c>
-      <c r="E660" s="31" t="s">
-        <v>1425</v>
       </c>
       <c r="F660" s="32" t="n">
         <v>2</v>
@@ -37023,16 +37187,16 @@
         <v>19</v>
       </c>
       <c r="B661" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C661" s="31" t="s">
         <v>136</v>
       </c>
       <c r="D661" s="31" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E661" s="31" t="s">
         <v>1426</v>
-      </c>
-      <c r="E661" s="31" t="s">
-        <v>1427</v>
       </c>
       <c r="F661" s="32" t="n">
         <v>2</v>
@@ -37073,7 +37237,7 @@
         <v>19</v>
       </c>
       <c r="B662" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C662" s="31" t="s">
         <v>159</v>
@@ -37082,7 +37246,7 @@
         <v>341</v>
       </c>
       <c r="E662" s="31" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="F662" s="32" t="n">
         <v>2</v>
@@ -37123,16 +37287,16 @@
         <v>19</v>
       </c>
       <c r="B663" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C663" s="31" t="s">
         <v>104</v>
       </c>
       <c r="D663" s="31" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E663" s="31" t="s">
         <v>1429</v>
-      </c>
-      <c r="E663" s="31" t="s">
-        <v>1430</v>
       </c>
       <c r="F663" s="32" t="n">
         <v>2</v>
@@ -37173,16 +37337,16 @@
         <v>19</v>
       </c>
       <c r="B664" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C664" s="31" t="s">
-        <v>1164</v>
+        <v>80</v>
       </c>
       <c r="D664" s="31" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E664" s="31" t="s">
         <v>1431</v>
-      </c>
-      <c r="E664" s="31" t="s">
-        <v>1432</v>
       </c>
       <c r="F664" s="32" t="n">
         <v>1</v>
@@ -37223,16 +37387,16 @@
         <v>19</v>
       </c>
       <c r="B665" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C665" s="31" t="s">
         <v>228</v>
       </c>
       <c r="D665" s="31" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E665" s="31" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="F665" s="32" t="n">
         <v>1</v>
@@ -37273,16 +37437,16 @@
         <v>19</v>
       </c>
       <c r="B666" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C666" s="31" t="s">
         <v>214</v>
       </c>
       <c r="D666" s="31" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E666" s="31" t="s">
         <v>1434</v>
-      </c>
-      <c r="E666" s="31" t="s">
-        <v>1435</v>
       </c>
       <c r="F666" s="32" t="n">
         <v>1</v>
@@ -37323,16 +37487,16 @@
         <v>19</v>
       </c>
       <c r="B667" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C667" s="31" t="s">
         <v>63</v>
       </c>
       <c r="D667" s="31" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E667" s="31" t="s">
         <v>1436</v>
-      </c>
-      <c r="E667" s="31" t="s">
-        <v>1437</v>
       </c>
       <c r="F667" s="32" t="s">
         <v>70</v>
@@ -37369,16 +37533,16 @@
         <v>19</v>
       </c>
       <c r="B668" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C668" s="31" t="s">
         <v>96</v>
       </c>
       <c r="D668" s="31" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E668" s="31" t="s">
         <v>1438</v>
-      </c>
-      <c r="E668" s="31" t="s">
-        <v>1439</v>
       </c>
       <c r="F668" s="32" t="n">
         <v>1</v>
@@ -37419,16 +37583,16 @@
         <v>19</v>
       </c>
       <c r="B669" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C669" s="31" t="s">
         <v>67</v>
       </c>
       <c r="D669" s="31" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E669" s="31" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="F669" s="32" t="n">
         <v>2</v>
@@ -37469,16 +37633,16 @@
         <v>19</v>
       </c>
       <c r="B670" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C670" s="31" t="s">
         <v>279</v>
       </c>
       <c r="D670" s="31" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E670" s="31" t="s">
         <v>1441</v>
-      </c>
-      <c r="E670" s="31" t="s">
-        <v>1442</v>
       </c>
       <c r="F670" s="32" t="n">
         <v>1</v>
@@ -37519,7 +37683,7 @@
         <v>19</v>
       </c>
       <c r="B671" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C671" s="31" t="s">
         <v>28</v>
@@ -37528,7 +37692,7 @@
         <v>834</v>
       </c>
       <c r="E671" s="31" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="F671" s="32" t="n">
         <v>2</v>
@@ -37569,16 +37733,16 @@
         <v>19</v>
       </c>
       <c r="B672" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C672" s="31" t="s">
         <v>51</v>
       </c>
       <c r="D672" s="31" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E672" s="31" t="s">
         <v>1444</v>
-      </c>
-      <c r="E672" s="31" t="s">
-        <v>1445</v>
       </c>
       <c r="F672" s="32" t="n">
         <v>1</v>
@@ -37619,16 +37783,16 @@
         <v>19</v>
       </c>
       <c r="B673" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C673" s="31" t="s">
         <v>24</v>
       </c>
       <c r="D673" s="31" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E673" s="31" t="s">
         <v>1446</v>
-      </c>
-      <c r="E673" s="31" t="s">
-        <v>1447</v>
       </c>
       <c r="F673" s="32" t="n">
         <v>2</v>
@@ -37669,16 +37833,16 @@
         <v>19</v>
       </c>
       <c r="B674" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C674" s="31" t="s">
         <v>40</v>
       </c>
       <c r="D674" s="31" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E674" s="31" t="s">
         <v>1448</v>
-      </c>
-      <c r="E674" s="31" t="s">
-        <v>1449</v>
       </c>
       <c r="F674" s="32" t="n">
         <v>1</v>
@@ -37719,7 +37883,7 @@
         <v>19</v>
       </c>
       <c r="B675" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C675" s="31" t="s">
         <v>183</v>
@@ -37728,7 +37892,7 @@
         <v>989</v>
       </c>
       <c r="E675" s="31" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="F675" s="32" t="n">
         <v>1</v>
@@ -37769,16 +37933,16 @@
         <v>19</v>
       </c>
       <c r="B676" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C676" s="31" t="s">
         <v>55</v>
       </c>
       <c r="D676" s="31" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E676" s="31" t="s">
         <v>1451</v>
-      </c>
-      <c r="E676" s="31" t="s">
-        <v>1452</v>
       </c>
       <c r="F676" s="32" t="n">
         <v>2</v>
@@ -37819,16 +37983,16 @@
         <v>19</v>
       </c>
       <c r="B677" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C677" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D677" s="31" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E677" s="31" t="s">
         <v>1453</v>
-      </c>
-      <c r="E677" s="31" t="s">
-        <v>1454</v>
       </c>
       <c r="F677" s="32" t="n">
         <v>1</v>
@@ -37846,7 +38010,7 @@
         <v>50</v>
       </c>
       <c r="K677" s="31" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="L677" s="5"/>
       <c r="M677" s="5"/>
@@ -37869,16 +38033,16 @@
         <v>19</v>
       </c>
       <c r="B678" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C678" s="31" t="s">
         <v>72</v>
       </c>
       <c r="D678" s="31" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E678" s="31" t="s">
         <v>1455</v>
-      </c>
-      <c r="E678" s="31" t="s">
-        <v>1456</v>
       </c>
       <c r="F678" s="32" t="n">
         <v>1</v>
@@ -37919,16 +38083,16 @@
         <v>19</v>
       </c>
       <c r="B679" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C679" s="31" t="s">
         <v>88</v>
       </c>
       <c r="D679" s="31" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E679" s="31" t="s">
         <v>1457</v>
-      </c>
-      <c r="E679" s="31" t="s">
-        <v>1458</v>
       </c>
       <c r="F679" s="32" t="n">
         <v>2</v>
@@ -37946,7 +38110,7 @@
         <v>50</v>
       </c>
       <c r="K679" s="31" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="L679" s="5"/>
       <c r="M679" s="5"/>
@@ -37969,7 +38133,7 @@
         <v>19</v>
       </c>
       <c r="B680" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C680" s="31" t="s">
         <v>100</v>
@@ -37978,7 +38142,7 @@
         <v>879</v>
       </c>
       <c r="E680" s="31" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="F680" s="32" t="n">
         <v>2</v>
@@ -38019,16 +38183,16 @@
         <v>19</v>
       </c>
       <c r="B681" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C681" s="31" t="s">
         <v>144</v>
       </c>
       <c r="D681" s="31" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E681" s="31" t="s">
         <v>1460</v>
-      </c>
-      <c r="E681" s="31" t="s">
-        <v>1461</v>
       </c>
       <c r="F681" s="32" t="n">
         <v>2</v>
@@ -38046,7 +38210,7 @@
         <v>46</v>
       </c>
       <c r="K681" s="31" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="L681" s="5"/>
       <c r="M681" s="5"/>
@@ -38069,7 +38233,7 @@
         <v>19</v>
       </c>
       <c r="B682" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C682" s="31" t="s">
         <v>92</v>
@@ -38078,7 +38242,7 @@
         <v>1125</v>
       </c>
       <c r="E682" s="31" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="F682" s="32" t="n">
         <v>1</v>
@@ -38092,7 +38256,7 @@
         <v>41</v>
       </c>
       <c r="K682" s="31" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="L682" s="5"/>
       <c r="M682" s="5"/>
@@ -38115,16 +38279,16 @@
         <v>19</v>
       </c>
       <c r="B683" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C683" s="31" t="s">
         <v>12</v>
       </c>
       <c r="D683" s="31" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E683" s="31" t="s">
         <v>1463</v>
-      </c>
-      <c r="E683" s="31" t="s">
-        <v>1464</v>
       </c>
       <c r="F683" s="32" t="n">
         <v>1</v>
@@ -38161,16 +38325,16 @@
         <v>19</v>
       </c>
       <c r="B684" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C684" s="31" t="s">
         <v>221</v>
       </c>
       <c r="D684" s="31" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E684" s="31" t="s">
         <v>1465</v>
-      </c>
-      <c r="E684" s="31" t="s">
-        <v>1466</v>
       </c>
       <c r="F684" s="32" t="n">
         <v>1</v>
@@ -38207,16 +38371,16 @@
         <v>19</v>
       </c>
       <c r="B685" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C685" s="31" t="s">
         <v>724</v>
       </c>
       <c r="D685" s="31" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E685" s="31" t="s">
         <v>1467</v>
-      </c>
-      <c r="E685" s="31" t="s">
-        <v>1468</v>
       </c>
       <c r="F685" s="32" t="n">
         <v>1</v>
@@ -38230,7 +38394,7 @@
         <v>23</v>
       </c>
       <c r="K685" s="31" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="L685" s="5"/>
       <c r="M685" s="5"/>
@@ -38253,16 +38417,16 @@
         <v>19</v>
       </c>
       <c r="B686" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C686" s="31" t="s">
         <v>44</v>
       </c>
       <c r="D686" s="31" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E686" s="31" t="s">
         <v>1469</v>
-      </c>
-      <c r="E686" s="31" t="s">
-        <v>1470</v>
       </c>
       <c r="F686" s="32" t="n">
         <v>1</v>
@@ -38299,16 +38463,16 @@
         <v>19</v>
       </c>
       <c r="B687" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C687" s="31" t="s">
         <v>20</v>
       </c>
       <c r="D687" s="31" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E687" s="31" t="s">
         <v>1471</v>
-      </c>
-      <c r="E687" s="31" t="s">
-        <v>1472</v>
       </c>
       <c r="F687" s="32" t="n">
         <v>2</v>
@@ -38345,16 +38509,16 @@
         <v>19</v>
       </c>
       <c r="B688" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C688" s="31" t="s">
         <v>140</v>
       </c>
       <c r="D688" s="31" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E688" s="31" t="s">
         <v>1473</v>
-      </c>
-      <c r="E688" s="31" t="s">
-        <v>1474</v>
       </c>
       <c r="F688" s="32" t="n">
         <v>2</v>
@@ -38391,16 +38555,16 @@
         <v>19</v>
       </c>
       <c r="B689" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C689" s="31" t="s">
         <v>36</v>
       </c>
       <c r="D689" s="31" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E689" s="31" t="s">
         <v>1475</v>
-      </c>
-      <c r="E689" s="31" t="s">
-        <v>1476</v>
       </c>
       <c r="F689" s="32" t="n">
         <v>2</v>
@@ -38432,21 +38596,21 @@
       <c r="Y689" s="5"/>
       <c r="Z689" s="5"/>
     </row>
-    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="31" t="n">
         <v>19</v>
       </c>
       <c r="B690" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C690" s="31" t="s">
         <v>254</v>
       </c>
       <c r="D690" s="31" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E690" s="31" t="s">
         <v>1477</v>
-      </c>
-      <c r="E690" s="31" t="s">
-        <v>1478</v>
       </c>
       <c r="F690" s="32" t="n">
         <v>2</v>
@@ -38460,7 +38624,7 @@
         <v>14</v>
       </c>
       <c r="K690" s="31" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="L690" s="5"/>
       <c r="M690" s="5"/>
@@ -38478,606 +38642,1111 @@
       <c r="Y690" s="5"/>
       <c r="Z690" s="5"/>
     </row>
-    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A691" s="31"/>
-      <c r="B691" s="31"/>
-      <c r="C691" s="31"/>
-      <c r="D691" s="31"/>
-      <c r="E691" s="31"/>
-      <c r="F691" s="32"/>
-      <c r="G691" s="32"/>
-      <c r="H691" s="32"/>
-      <c r="I691" s="32"/>
-      <c r="J691" s="32"/>
-      <c r="K691" s="31"/>
+    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A691" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B691" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C691" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D691" s="31" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E691" s="31" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F691" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G691" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H691" s="32" t="n">
+        <v>159</v>
+      </c>
+      <c r="I691" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J691" s="32" t="n">
+        <v>120</v>
+      </c>
+      <c r="K691" s="31" t="s">
+        <v>43</v>
+      </c>
       <c r="L691" s="5"/>
       <c r="M691" s="5"/>
-      <c r="N691" s="5"/>
-      <c r="O691" s="5"/>
-      <c r="P691" s="5"/>
-      <c r="Q691" s="5"/>
-      <c r="R691" s="5"/>
-      <c r="S691" s="5"/>
-      <c r="T691" s="5"/>
-      <c r="U691" s="5"/>
-      <c r="V691" s="5"/>
-      <c r="W691" s="5"/>
-      <c r="X691" s="5"/>
-      <c r="Y691" s="5"/>
-      <c r="Z691" s="5"/>
-    </row>
-    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A692" s="31"/>
-      <c r="B692" s="31"/>
-      <c r="C692" s="31"/>
-      <c r="D692" s="31"/>
-      <c r="E692" s="31"/>
-      <c r="F692" s="32"/>
-      <c r="G692" s="32"/>
-      <c r="H692" s="32"/>
-      <c r="I692" s="32"/>
-      <c r="J692" s="32"/>
-      <c r="K692" s="31"/>
+      <c r="N691" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="O691" s="5" t="n">
+        <v>111</v>
+      </c>
+      <c r="P691" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q691" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="R691" s="33" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S691" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="T691" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="U691" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="V691" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W691" s="5" t="n">
+        <v>102</v>
+      </c>
+      <c r="X691" s="5" t="n">
+        <v>108</v>
+      </c>
+      <c r="Y691" s="33" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z691" s="33" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A692" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B692" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C692" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D692" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="E692" s="31" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F692" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G692" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H692" s="32" t="n">
+        <v>120</v>
+      </c>
+      <c r="I692" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="J692" s="32" t="n">
+        <v>66</v>
+      </c>
+      <c r="K692" s="31" t="s">
+        <v>1141</v>
+      </c>
       <c r="L692" s="5"/>
       <c r="M692" s="5"/>
       <c r="N692" s="5"/>
       <c r="O692" s="5"/>
       <c r="P692" s="5"/>
       <c r="Q692" s="5"/>
-      <c r="R692" s="5"/>
+      <c r="R692" s="33"/>
       <c r="S692" s="5"/>
       <c r="T692" s="5"/>
       <c r="U692" s="5"/>
       <c r="V692" s="5"/>
       <c r="W692" s="5"/>
       <c r="X692" s="5"/>
-      <c r="Y692" s="5"/>
-      <c r="Z692" s="5"/>
-    </row>
-    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A693" s="31"/>
-      <c r="B693" s="31"/>
-      <c r="C693" s="31"/>
-      <c r="D693" s="31"/>
-      <c r="E693" s="31"/>
-      <c r="F693" s="32"/>
-      <c r="G693" s="32"/>
-      <c r="H693" s="32"/>
-      <c r="I693" s="32"/>
-      <c r="J693" s="32"/>
-      <c r="K693" s="31"/>
+      <c r="Y692" s="33"/>
+      <c r="Z692" s="33"/>
+    </row>
+    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A693" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B693" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C693" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D693" s="31" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E693" s="31" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F693" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G693" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="H693" s="32" t="n">
+        <v>118</v>
+      </c>
+      <c r="I693" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J693" s="32" t="n">
+        <v>95</v>
+      </c>
+      <c r="K693" s="31" t="s">
+        <v>27</v>
+      </c>
       <c r="L693" s="5"/>
       <c r="M693" s="5"/>
       <c r="N693" s="5"/>
       <c r="O693" s="5"/>
       <c r="P693" s="5"/>
       <c r="Q693" s="5"/>
-      <c r="R693" s="5"/>
+      <c r="R693" s="33"/>
       <c r="S693" s="5"/>
       <c r="T693" s="5"/>
       <c r="U693" s="5"/>
       <c r="V693" s="5"/>
       <c r="W693" s="5"/>
       <c r="X693" s="5"/>
-      <c r="Y693" s="5"/>
-      <c r="Z693" s="5"/>
-    </row>
-    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A694" s="31"/>
-      <c r="B694" s="31"/>
-      <c r="C694" s="31"/>
-      <c r="D694" s="31"/>
-      <c r="E694" s="31"/>
-      <c r="F694" s="32"/>
-      <c r="G694" s="32"/>
-      <c r="H694" s="32"/>
-      <c r="I694" s="32"/>
-      <c r="J694" s="32"/>
-      <c r="K694" s="31"/>
+      <c r="Y693" s="33"/>
+      <c r="Z693" s="33"/>
+    </row>
+    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A694" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B694" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C694" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D694" s="31" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E694" s="31" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F694" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G694" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="H694" s="32" t="n">
+        <v>115</v>
+      </c>
+      <c r="I694" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J694" s="32" t="n">
+        <v>88</v>
+      </c>
+      <c r="K694" s="31" t="s">
+        <v>549</v>
+      </c>
       <c r="L694" s="5"/>
       <c r="M694" s="5"/>
       <c r="N694" s="5"/>
       <c r="O694" s="5"/>
       <c r="P694" s="5"/>
       <c r="Q694" s="5"/>
-      <c r="R694" s="5"/>
+      <c r="R694" s="33"/>
       <c r="S694" s="5"/>
       <c r="T694" s="5"/>
       <c r="U694" s="5"/>
       <c r="V694" s="5"/>
       <c r="W694" s="5"/>
       <c r="X694" s="5"/>
-      <c r="Y694" s="5"/>
-      <c r="Z694" s="5"/>
-    </row>
-    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A695" s="31"/>
-      <c r="B695" s="31"/>
-      <c r="C695" s="31"/>
-      <c r="D695" s="31"/>
-      <c r="E695" s="31"/>
-      <c r="F695" s="32"/>
-      <c r="G695" s="32"/>
-      <c r="H695" s="32"/>
-      <c r="I695" s="32"/>
-      <c r="J695" s="32"/>
-      <c r="K695" s="31"/>
+      <c r="Y694" s="33"/>
+      <c r="Z694" s="33"/>
+    </row>
+    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A695" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B695" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C695" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D695" s="31" t="s">
+        <v>589</v>
+      </c>
+      <c r="E695" s="31" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F695" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G695" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="H695" s="32" t="n">
+        <v>103</v>
+      </c>
+      <c r="I695" s="32" t="n">
+        <v>7</v>
+      </c>
+      <c r="J695" s="32" t="n">
+        <v>62</v>
+      </c>
+      <c r="K695" s="31" t="s">
+        <v>1175</v>
+      </c>
       <c r="L695" s="5"/>
       <c r="M695" s="5"/>
       <c r="N695" s="5"/>
       <c r="O695" s="5"/>
       <c r="P695" s="5"/>
       <c r="Q695" s="5"/>
-      <c r="R695" s="5"/>
+      <c r="R695" s="33"/>
       <c r="S695" s="5"/>
       <c r="T695" s="5"/>
       <c r="U695" s="5"/>
       <c r="V695" s="5"/>
       <c r="W695" s="5"/>
       <c r="X695" s="5"/>
-      <c r="Y695" s="5"/>
-      <c r="Z695" s="5"/>
-    </row>
-    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A696" s="31"/>
-      <c r="B696" s="31"/>
-      <c r="C696" s="31"/>
-      <c r="D696" s="31"/>
-      <c r="E696" s="31"/>
-      <c r="F696" s="32"/>
-      <c r="G696" s="32"/>
-      <c r="H696" s="32"/>
-      <c r="I696" s="32"/>
-      <c r="J696" s="32"/>
-      <c r="K696" s="31"/>
+      <c r="Y695" s="33"/>
+      <c r="Z695" s="33"/>
+    </row>
+    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A696" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B696" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C696" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D696" s="31" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E696" s="31" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F696" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G696" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="H696" s="32" t="n">
+        <v>103</v>
+      </c>
+      <c r="I696" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J696" s="32" t="n">
+        <v>90</v>
+      </c>
+      <c r="K696" s="31" t="s">
+        <v>1178</v>
+      </c>
       <c r="L696" s="5"/>
       <c r="M696" s="5"/>
       <c r="N696" s="5"/>
       <c r="O696" s="5"/>
       <c r="P696" s="5"/>
       <c r="Q696" s="5"/>
-      <c r="R696" s="5"/>
+      <c r="R696" s="33"/>
       <c r="S696" s="5"/>
       <c r="T696" s="5"/>
       <c r="U696" s="5"/>
       <c r="V696" s="5"/>
       <c r="W696" s="5"/>
       <c r="X696" s="5"/>
-      <c r="Y696" s="5"/>
-      <c r="Z696" s="5"/>
-    </row>
-    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A697" s="31"/>
-      <c r="B697" s="31"/>
-      <c r="C697" s="31"/>
-      <c r="D697" s="31"/>
-      <c r="E697" s="31"/>
-      <c r="F697" s="32"/>
-      <c r="G697" s="32"/>
-      <c r="H697" s="32"/>
-      <c r="I697" s="32"/>
-      <c r="J697" s="32"/>
-      <c r="K697" s="31"/>
+      <c r="Y696" s="33"/>
+      <c r="Z696" s="33"/>
+    </row>
+    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A697" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B697" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C697" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D697" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="E697" s="31" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F697" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G697" s="32" t="n">
+        <v>7</v>
+      </c>
+      <c r="H697" s="32" t="n">
+        <v>96</v>
+      </c>
+      <c r="I697" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J697" s="32" t="n">
+        <v>86</v>
+      </c>
+      <c r="K697" s="31" t="s">
+        <v>47</v>
+      </c>
       <c r="L697" s="5"/>
       <c r="M697" s="5"/>
       <c r="N697" s="5"/>
       <c r="O697" s="5"/>
       <c r="P697" s="5"/>
       <c r="Q697" s="5"/>
-      <c r="R697" s="5"/>
+      <c r="R697" s="33"/>
       <c r="S697" s="5"/>
       <c r="T697" s="5"/>
       <c r="U697" s="5"/>
       <c r="V697" s="5"/>
       <c r="W697" s="5"/>
       <c r="X697" s="5"/>
-      <c r="Y697" s="5"/>
-      <c r="Z697" s="5"/>
-    </row>
-    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A698" s="31"/>
-      <c r="B698" s="31"/>
-      <c r="C698" s="31"/>
-      <c r="D698" s="31"/>
-      <c r="E698" s="31"/>
-      <c r="F698" s="32"/>
-      <c r="G698" s="32"/>
-      <c r="H698" s="32"/>
-      <c r="I698" s="32"/>
-      <c r="J698" s="32"/>
-      <c r="K698" s="31"/>
+      <c r="Y697" s="33"/>
+      <c r="Z697" s="33"/>
+    </row>
+    <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A698" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B698" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C698" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="D698" s="31" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E698" s="31" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F698" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G698" s="32" t="n">
+        <v>8</v>
+      </c>
+      <c r="H698" s="32" t="n">
+        <v>92</v>
+      </c>
+      <c r="I698" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="J698" s="32" t="n">
+        <v>69</v>
+      </c>
+      <c r="K698" s="31" t="s">
+        <v>320</v>
+      </c>
       <c r="L698" s="5"/>
       <c r="M698" s="5"/>
       <c r="N698" s="5"/>
       <c r="O698" s="5"/>
       <c r="P698" s="5"/>
       <c r="Q698" s="5"/>
-      <c r="R698" s="5"/>
+      <c r="R698" s="33"/>
       <c r="S698" s="5"/>
       <c r="T698" s="5"/>
       <c r="U698" s="5"/>
       <c r="V698" s="5"/>
       <c r="W698" s="5"/>
       <c r="X698" s="5"/>
-      <c r="Y698" s="5"/>
-      <c r="Z698" s="5"/>
-    </row>
-    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A699" s="31"/>
-      <c r="B699" s="31"/>
-      <c r="C699" s="31"/>
-      <c r="D699" s="31"/>
-      <c r="E699" s="31"/>
-      <c r="F699" s="32"/>
-      <c r="G699" s="32"/>
-      <c r="H699" s="32"/>
-      <c r="I699" s="32"/>
-      <c r="J699" s="32"/>
-      <c r="K699" s="31"/>
+      <c r="Y698" s="33"/>
+      <c r="Z698" s="33"/>
+    </row>
+    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A699" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B699" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C699" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D699" s="31" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E699" s="31" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F699" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G699" s="32" t="n">
+        <v>9</v>
+      </c>
+      <c r="H699" s="32" t="n">
+        <v>81</v>
+      </c>
+      <c r="I699" s="32" t="n">
+        <v>9</v>
+      </c>
+      <c r="J699" s="32" t="n">
+        <v>46</v>
+      </c>
+      <c r="K699" s="31" t="s">
+        <v>71</v>
+      </c>
       <c r="L699" s="5"/>
       <c r="M699" s="5"/>
       <c r="N699" s="5"/>
       <c r="O699" s="5"/>
       <c r="P699" s="5"/>
       <c r="Q699" s="5"/>
-      <c r="R699" s="5"/>
+      <c r="R699" s="33"/>
       <c r="S699" s="5"/>
       <c r="T699" s="5"/>
       <c r="U699" s="5"/>
       <c r="V699" s="5"/>
       <c r="W699" s="5"/>
       <c r="X699" s="5"/>
-      <c r="Y699" s="5"/>
-      <c r="Z699" s="5"/>
-    </row>
-    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A700" s="31"/>
-      <c r="B700" s="31"/>
-      <c r="C700" s="31"/>
-      <c r="D700" s="31"/>
-      <c r="E700" s="31"/>
-      <c r="F700" s="32"/>
-      <c r="G700" s="32"/>
-      <c r="H700" s="32"/>
-      <c r="I700" s="32"/>
-      <c r="J700" s="32"/>
-      <c r="K700" s="31"/>
+      <c r="Y699" s="33"/>
+      <c r="Z699" s="33"/>
+    </row>
+    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A700" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B700" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C700" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="D700" s="31" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E700" s="31" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F700" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G700" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="H700" s="32" t="n">
+        <v>78</v>
+      </c>
+      <c r="I700" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="J700" s="32" t="n">
+        <v>65</v>
+      </c>
+      <c r="K700" s="31" t="s">
+        <v>135</v>
+      </c>
       <c r="L700" s="5"/>
       <c r="M700" s="5"/>
       <c r="N700" s="5"/>
       <c r="O700" s="5"/>
       <c r="P700" s="5"/>
       <c r="Q700" s="5"/>
-      <c r="R700" s="5"/>
+      <c r="R700" s="33"/>
       <c r="S700" s="5"/>
       <c r="T700" s="5"/>
       <c r="U700" s="5"/>
       <c r="V700" s="5"/>
       <c r="W700" s="5"/>
       <c r="X700" s="5"/>
-      <c r="Y700" s="5"/>
-      <c r="Z700" s="5"/>
-    </row>
-    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A701" s="31"/>
-      <c r="B701" s="31"/>
-      <c r="C701" s="31"/>
-      <c r="D701" s="31"/>
-      <c r="E701" s="31"/>
-      <c r="F701" s="32"/>
-      <c r="G701" s="32"/>
-      <c r="H701" s="32"/>
+      <c r="Y700" s="33"/>
+      <c r="Z700" s="33"/>
+    </row>
+    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A701" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B701" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C701" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D701" s="31" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E701" s="31" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F701" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G701" s="32" t="n">
+        <v>11</v>
+      </c>
+      <c r="H701" s="32" t="n">
+        <v>70</v>
+      </c>
       <c r="I701" s="32"/>
       <c r="J701" s="32"/>
-      <c r="K701" s="31"/>
+      <c r="K701" s="31" t="s">
+        <v>95</v>
+      </c>
       <c r="L701" s="5"/>
       <c r="M701" s="5"/>
       <c r="N701" s="5"/>
       <c r="O701" s="5"/>
       <c r="P701" s="5"/>
       <c r="Q701" s="5"/>
-      <c r="R701" s="5"/>
+      <c r="R701" s="33"/>
       <c r="S701" s="5"/>
       <c r="T701" s="5"/>
       <c r="U701" s="5"/>
       <c r="V701" s="5"/>
       <c r="W701" s="5"/>
       <c r="X701" s="5"/>
-      <c r="Y701" s="5"/>
-      <c r="Z701" s="5"/>
-    </row>
-    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A702" s="31"/>
-      <c r="B702" s="31"/>
-      <c r="C702" s="31"/>
-      <c r="D702" s="31"/>
-      <c r="E702" s="31"/>
-      <c r="F702" s="32"/>
-      <c r="G702" s="32"/>
-      <c r="H702" s="32"/>
-      <c r="I702" s="32"/>
-      <c r="J702" s="32"/>
-      <c r="K702" s="31"/>
+      <c r="Y701" s="33"/>
+      <c r="Z701" s="33"/>
+    </row>
+    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A702" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B702" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C702" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D702" s="31" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E702" s="31" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F702" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G702" s="32" t="n">
+        <v>12</v>
+      </c>
+      <c r="H702" s="32" t="n">
+        <v>68</v>
+      </c>
+      <c r="I702" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="J702" s="32" t="n">
+        <v>68</v>
+      </c>
+      <c r="K702" s="31" t="s">
+        <v>171</v>
+      </c>
       <c r="L702" s="5"/>
       <c r="M702" s="5"/>
       <c r="N702" s="5"/>
       <c r="O702" s="5"/>
       <c r="P702" s="5"/>
       <c r="Q702" s="5"/>
-      <c r="R702" s="5"/>
+      <c r="R702" s="33"/>
       <c r="S702" s="5"/>
       <c r="T702" s="5"/>
       <c r="U702" s="5"/>
       <c r="V702" s="5"/>
       <c r="W702" s="5"/>
       <c r="X702" s="5"/>
-      <c r="Y702" s="5"/>
-      <c r="Z702" s="5"/>
-    </row>
-    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A703" s="31"/>
-      <c r="B703" s="31"/>
-      <c r="C703" s="31"/>
-      <c r="D703" s="31"/>
-      <c r="E703" s="31"/>
-      <c r="F703" s="32"/>
-      <c r="G703" s="32"/>
-      <c r="H703" s="32"/>
-      <c r="I703" s="32"/>
-      <c r="J703" s="32"/>
-      <c r="K703" s="31"/>
+      <c r="Y702" s="33"/>
+      <c r="Z702" s="33"/>
+    </row>
+    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A703" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B703" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C703" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D703" s="31" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E703" s="31" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F703" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G703" s="32" t="n">
+        <v>13</v>
+      </c>
+      <c r="H703" s="32" t="n">
+        <v>66</v>
+      </c>
+      <c r="I703" s="32" t="n">
+        <v>8</v>
+      </c>
+      <c r="J703" s="32" t="n">
+        <v>52</v>
+      </c>
+      <c r="K703" s="31" t="s">
+        <v>62</v>
+      </c>
       <c r="L703" s="5"/>
       <c r="M703" s="5"/>
       <c r="N703" s="5"/>
       <c r="O703" s="5"/>
       <c r="P703" s="5"/>
       <c r="Q703" s="5"/>
-      <c r="R703" s="5"/>
+      <c r="R703" s="33"/>
       <c r="S703" s="5"/>
       <c r="T703" s="5"/>
       <c r="U703" s="5"/>
       <c r="V703" s="5"/>
       <c r="W703" s="5"/>
       <c r="X703" s="5"/>
-      <c r="Y703" s="5"/>
-      <c r="Z703" s="5"/>
-    </row>
-    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A704" s="31"/>
-      <c r="B704" s="31"/>
-      <c r="C704" s="31"/>
-      <c r="D704" s="31"/>
-      <c r="E704" s="31"/>
-      <c r="F704" s="32"/>
-      <c r="G704" s="32"/>
-      <c r="H704" s="32"/>
-      <c r="I704" s="32"/>
-      <c r="J704" s="32"/>
-      <c r="K704" s="31"/>
+      <c r="Y703" s="33"/>
+      <c r="Z703" s="33"/>
+    </row>
+    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A704" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B704" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C704" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D704" s="31" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E704" s="31" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F704" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G704" s="32" t="n">
+        <v>14</v>
+      </c>
+      <c r="H704" s="32" t="n">
+        <v>64</v>
+      </c>
+      <c r="I704" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J704" s="32" t="n">
+        <v>75</v>
+      </c>
+      <c r="K704" s="31" t="s">
+        <v>904</v>
+      </c>
       <c r="L704" s="5"/>
       <c r="M704" s="5"/>
       <c r="N704" s="5"/>
       <c r="O704" s="5"/>
       <c r="P704" s="5"/>
       <c r="Q704" s="5"/>
-      <c r="R704" s="5"/>
+      <c r="R704" s="33"/>
       <c r="S704" s="5"/>
       <c r="T704" s="5"/>
       <c r="U704" s="5"/>
       <c r="V704" s="5"/>
       <c r="W704" s="5"/>
       <c r="X704" s="5"/>
-      <c r="Y704" s="5"/>
-      <c r="Z704" s="5"/>
-    </row>
-    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A705" s="31"/>
-      <c r="B705" s="31"/>
-      <c r="C705" s="31"/>
-      <c r="D705" s="31"/>
-      <c r="E705" s="31"/>
-      <c r="F705" s="32"/>
-      <c r="G705" s="32"/>
-      <c r="H705" s="32"/>
-      <c r="I705" s="32"/>
-      <c r="J705" s="32"/>
-      <c r="K705" s="31"/>
+      <c r="Y704" s="33"/>
+      <c r="Z704" s="33"/>
+    </row>
+    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A705" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B705" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C705" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D705" s="31" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E705" s="31" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F705" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G705" s="32" t="n">
+        <v>15</v>
+      </c>
+      <c r="H705" s="32" t="n">
+        <v>64</v>
+      </c>
+      <c r="I705" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="J705" s="32" t="n">
+        <v>45</v>
+      </c>
+      <c r="K705" s="31" t="s">
+        <v>915</v>
+      </c>
       <c r="L705" s="5"/>
       <c r="M705" s="5"/>
       <c r="N705" s="5"/>
       <c r="O705" s="5"/>
       <c r="P705" s="5"/>
       <c r="Q705" s="5"/>
-      <c r="R705" s="5"/>
+      <c r="R705" s="33"/>
       <c r="S705" s="5"/>
       <c r="T705" s="5"/>
       <c r="U705" s="5"/>
       <c r="V705" s="5"/>
       <c r="W705" s="5"/>
       <c r="X705" s="5"/>
-      <c r="Y705" s="5"/>
-      <c r="Z705" s="5"/>
-    </row>
-    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A706" s="31"/>
-      <c r="B706" s="31"/>
-      <c r="C706" s="31"/>
-      <c r="D706" s="31"/>
-      <c r="E706" s="31"/>
-      <c r="F706" s="32"/>
-      <c r="G706" s="32"/>
-      <c r="H706" s="32"/>
-      <c r="I706" s="32"/>
-      <c r="J706" s="32"/>
-      <c r="K706" s="31"/>
+      <c r="Y705" s="33"/>
+      <c r="Z705" s="33"/>
+    </row>
+    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A706" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B706" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C706" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D706" s="31" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E706" s="31" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F706" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G706" s="32" t="n">
+        <v>16</v>
+      </c>
+      <c r="H706" s="32" t="n">
+        <v>62</v>
+      </c>
+      <c r="I706" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="J706" s="32" t="n">
+        <v>62</v>
+      </c>
+      <c r="K706" s="31" t="s">
+        <v>115</v>
+      </c>
       <c r="L706" s="5"/>
       <c r="M706" s="5"/>
       <c r="N706" s="5"/>
       <c r="O706" s="5"/>
       <c r="P706" s="5"/>
       <c r="Q706" s="5"/>
-      <c r="R706" s="5"/>
+      <c r="R706" s="33"/>
       <c r="S706" s="5"/>
       <c r="T706" s="5"/>
       <c r="U706" s="5"/>
       <c r="V706" s="5"/>
       <c r="W706" s="5"/>
       <c r="X706" s="5"/>
-      <c r="Y706" s="5"/>
-      <c r="Z706" s="5"/>
-    </row>
-    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A707" s="31"/>
-      <c r="B707" s="31"/>
-      <c r="C707" s="31"/>
-      <c r="D707" s="31"/>
-      <c r="E707" s="31"/>
-      <c r="F707" s="32"/>
-      <c r="G707" s="32"/>
-      <c r="H707" s="32"/>
-      <c r="I707" s="32"/>
-      <c r="J707" s="32"/>
-      <c r="K707" s="31"/>
+      <c r="Y706" s="33"/>
+      <c r="Z706" s="33"/>
+    </row>
+    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A707" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B707" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C707" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="D707" s="31" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E707" s="31" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F707" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G707" s="32" t="n">
+        <v>17</v>
+      </c>
+      <c r="H707" s="32" t="n">
+        <v>54</v>
+      </c>
+      <c r="I707" s="32" t="n">
+        <v>7</v>
+      </c>
+      <c r="J707" s="32" t="n">
+        <v>60</v>
+      </c>
+      <c r="K707" s="31" t="s">
+        <v>333</v>
+      </c>
       <c r="L707" s="5"/>
       <c r="M707" s="5"/>
       <c r="N707" s="5"/>
       <c r="O707" s="5"/>
       <c r="P707" s="5"/>
       <c r="Q707" s="5"/>
-      <c r="R707" s="5"/>
+      <c r="R707" s="33"/>
       <c r="S707" s="5"/>
       <c r="T707" s="5"/>
       <c r="U707" s="5"/>
       <c r="V707" s="5"/>
       <c r="W707" s="5"/>
       <c r="X707" s="5"/>
-      <c r="Y707" s="5"/>
-      <c r="Z707" s="5"/>
-    </row>
-    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A708" s="31"/>
-      <c r="B708" s="31"/>
-      <c r="C708" s="31"/>
-      <c r="D708" s="31"/>
-      <c r="E708" s="31"/>
-      <c r="F708" s="32"/>
-      <c r="G708" s="32"/>
-      <c r="H708" s="32"/>
-      <c r="I708" s="32"/>
-      <c r="J708" s="32"/>
-      <c r="K708" s="31"/>
+      <c r="Y707" s="33"/>
+      <c r="Z707" s="33"/>
+    </row>
+    <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A708" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B708" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C708" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D708" s="31" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E708" s="31" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F708" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G708" s="32" t="n">
+        <v>18</v>
+      </c>
+      <c r="H708" s="32" t="n">
+        <v>52</v>
+      </c>
+      <c r="I708" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="J708" s="32" t="n">
+        <v>70</v>
+      </c>
+      <c r="K708" s="31" t="s">
+        <v>233</v>
+      </c>
       <c r="L708" s="5"/>
       <c r="M708" s="5"/>
       <c r="N708" s="5"/>
       <c r="O708" s="5"/>
       <c r="P708" s="5"/>
       <c r="Q708" s="5"/>
-      <c r="R708" s="5"/>
+      <c r="R708" s="33"/>
       <c r="S708" s="5"/>
       <c r="T708" s="5"/>
       <c r="U708" s="5"/>
       <c r="V708" s="5"/>
       <c r="W708" s="5"/>
       <c r="X708" s="5"/>
-      <c r="Y708" s="5"/>
-      <c r="Z708" s="5"/>
-    </row>
-    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A709" s="31"/>
-      <c r="B709" s="31"/>
-      <c r="C709" s="31"/>
-      <c r="D709" s="31"/>
-      <c r="E709" s="31"/>
-      <c r="F709" s="32"/>
-      <c r="G709" s="32"/>
-      <c r="H709" s="32"/>
-      <c r="I709" s="32"/>
-      <c r="J709" s="32"/>
-      <c r="K709" s="31"/>
+      <c r="Y708" s="33"/>
+      <c r="Z708" s="33"/>
+    </row>
+    <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A709" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B709" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C709" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D709" s="31" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E709" s="31" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F709" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G709" s="32" t="n">
+        <v>19</v>
+      </c>
+      <c r="H709" s="32" t="n">
+        <v>48</v>
+      </c>
+      <c r="I709" s="32" t="n">
+        <v>8</v>
+      </c>
+      <c r="J709" s="32" t="n">
+        <v>56</v>
+      </c>
+      <c r="K709" s="31" t="s">
+        <v>436</v>
+      </c>
       <c r="L709" s="5"/>
       <c r="M709" s="5"/>
       <c r="N709" s="5"/>
       <c r="O709" s="5"/>
       <c r="P709" s="5"/>
       <c r="Q709" s="5"/>
-      <c r="R709" s="5"/>
+      <c r="R709" s="33"/>
       <c r="S709" s="5"/>
       <c r="T709" s="5"/>
       <c r="U709" s="5"/>
       <c r="V709" s="5"/>
       <c r="W709" s="5"/>
       <c r="X709" s="5"/>
-      <c r="Y709" s="5"/>
-      <c r="Z709" s="5"/>
-    </row>
-    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A710" s="31"/>
-      <c r="B710" s="31"/>
-      <c r="C710" s="31"/>
-      <c r="D710" s="31"/>
-      <c r="E710" s="31"/>
-      <c r="F710" s="32"/>
-      <c r="G710" s="32"/>
-      <c r="H710" s="32"/>
-      <c r="I710" s="32"/>
-      <c r="J710" s="32"/>
-      <c r="K710" s="31"/>
+      <c r="Y709" s="33"/>
+      <c r="Z709" s="33"/>
+    </row>
+    <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A710" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B710" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C710" s="31" t="s">
+        <v>800</v>
+      </c>
+      <c r="D710" s="31" t="s">
+        <v>846</v>
+      </c>
+      <c r="E710" s="31" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F710" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G710" s="32" t="n">
+        <v>20</v>
+      </c>
+      <c r="H710" s="32" t="n">
+        <v>38</v>
+      </c>
+      <c r="I710" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="J710" s="32" t="n">
+        <v>52</v>
+      </c>
+      <c r="K710" s="31" t="s">
+        <v>147</v>
+      </c>
       <c r="L710" s="5"/>
       <c r="M710" s="5"/>
       <c r="N710" s="5"/>
       <c r="O710" s="5"/>
       <c r="P710" s="5"/>
       <c r="Q710" s="5"/>
-      <c r="R710" s="5"/>
+      <c r="R710" s="33"/>
       <c r="S710" s="5"/>
       <c r="T710" s="5"/>
       <c r="U710" s="5"/>
       <c r="V710" s="5"/>
       <c r="W710" s="5"/>
       <c r="X710" s="5"/>
-      <c r="Y710" s="5"/>
-      <c r="Z710" s="5"/>
-    </row>
-    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A711" s="31"/>
-      <c r="B711" s="31"/>
-      <c r="C711" s="31"/>
-      <c r="D711" s="31"/>
-      <c r="E711" s="31"/>
-      <c r="F711" s="32"/>
-      <c r="G711" s="32"/>
-      <c r="H711" s="32"/>
-      <c r="I711" s="32"/>
-      <c r="J711" s="32"/>
-      <c r="K711" s="31"/>
+      <c r="Y710" s="33"/>
+      <c r="Z710" s="33"/>
+    </row>
+    <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A711" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B711" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C711" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D711" s="31" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E711" s="31" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F711" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G711" s="32" t="n">
+        <v>21</v>
+      </c>
+      <c r="H711" s="32" t="n">
+        <v>31</v>
+      </c>
+      <c r="I711" s="32" t="n">
+        <v>9</v>
+      </c>
+      <c r="J711" s="32" t="n">
+        <v>55</v>
+      </c>
+      <c r="K711" s="31" t="s">
+        <v>54</v>
+      </c>
       <c r="L711" s="5"/>
       <c r="M711" s="5"/>
       <c r="N711" s="5"/>
       <c r="O711" s="5"/>
       <c r="P711" s="5"/>
       <c r="Q711" s="5"/>
-      <c r="R711" s="5"/>
+      <c r="R711" s="33"/>
       <c r="S711" s="5"/>
       <c r="T711" s="5"/>
       <c r="U711" s="5"/>
       <c r="V711" s="5"/>
       <c r="W711" s="5"/>
       <c r="X711" s="5"/>
-      <c r="Y711" s="5"/>
-      <c r="Z711" s="5"/>
-    </row>
-    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A712" s="31"/>
-      <c r="B712" s="31"/>
-      <c r="C712" s="31"/>
-      <c r="D712" s="31"/>
-      <c r="E712" s="31"/>
-      <c r="F712" s="32"/>
+      <c r="Y711" s="33"/>
+      <c r="Z711" s="33"/>
+    </row>
+    <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A712" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B712" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C712" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D712" s="31" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E712" s="31" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F712" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G712" s="32"/>
       <c r="H712" s="32"/>
-      <c r="I712" s="32"/>
-      <c r="J712" s="32"/>
-      <c r="K712" s="31"/>
+      <c r="I712" s="32" t="n">
+        <v>11</v>
+      </c>
+      <c r="J712" s="32" t="n">
+        <v>44</v>
+      </c>
+      <c r="K712" s="31" t="s">
+        <v>497</v>
+      </c>
       <c r="L712" s="5"/>
       <c r="M712" s="5"/>
       <c r="N712" s="5"/>
@@ -39091,21 +39760,39 @@
       <c r="V712" s="5"/>
       <c r="W712" s="5"/>
       <c r="X712" s="5"/>
-      <c r="Y712" s="5"/>
-      <c r="Z712" s="5"/>
-    </row>
-    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A713" s="31"/>
-      <c r="B713" s="31"/>
-      <c r="C713" s="31"/>
-      <c r="D713" s="31"/>
-      <c r="E713" s="31"/>
-      <c r="F713" s="32"/>
+      <c r="Y712" s="33"/>
+      <c r="Z712" s="33"/>
+    </row>
+    <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A713" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B713" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C713" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D713" s="31" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E713" s="31" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F713" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G713" s="32"/>
       <c r="H713" s="32"/>
-      <c r="I713" s="32"/>
-      <c r="J713" s="32"/>
-      <c r="K713" s="31"/>
+      <c r="I713" s="32" t="n">
+        <v>12</v>
+      </c>
+      <c r="J713" s="32" t="n">
+        <v>43</v>
+      </c>
+      <c r="K713" s="31" t="s">
+        <v>719</v>
+      </c>
       <c r="L713" s="5"/>
       <c r="M713" s="5"/>
       <c r="N713" s="5"/>
@@ -39119,21 +39806,39 @@
       <c r="V713" s="5"/>
       <c r="W713" s="5"/>
       <c r="X713" s="5"/>
-      <c r="Y713" s="5"/>
-      <c r="Z713" s="5"/>
-    </row>
-    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A714" s="31"/>
-      <c r="B714" s="31"/>
-      <c r="C714" s="31"/>
-      <c r="D714" s="31"/>
-      <c r="E714" s="31"/>
-      <c r="F714" s="32"/>
+      <c r="Y713" s="33"/>
+      <c r="Z713" s="33"/>
+    </row>
+    <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A714" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B714" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C714" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D714" s="31" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E714" s="31" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F714" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G714" s="32"/>
       <c r="H714" s="32"/>
-      <c r="I714" s="32"/>
-      <c r="J714" s="32"/>
-      <c r="K714" s="31"/>
+      <c r="I714" s="32" t="n">
+        <v>13</v>
+      </c>
+      <c r="J714" s="32" t="n">
+        <v>40</v>
+      </c>
+      <c r="K714" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="L714" s="5"/>
       <c r="M714" s="5"/>
       <c r="N714" s="5"/>
@@ -39147,21 +39852,39 @@
       <c r="V714" s="5"/>
       <c r="W714" s="5"/>
       <c r="X714" s="5"/>
-      <c r="Y714" s="5"/>
-      <c r="Z714" s="5"/>
-    </row>
-    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A715" s="31"/>
-      <c r="B715" s="31"/>
-      <c r="C715" s="31"/>
-      <c r="D715" s="31"/>
-      <c r="E715" s="31"/>
-      <c r="F715" s="32"/>
+      <c r="Y714" s="33"/>
+      <c r="Z714" s="33"/>
+    </row>
+    <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A715" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B715" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C715" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D715" s="31" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E715" s="31" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F715" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G715" s="32"/>
       <c r="H715" s="32"/>
-      <c r="I715" s="32"/>
-      <c r="J715" s="32"/>
-      <c r="K715" s="31"/>
+      <c r="I715" s="32" t="n">
+        <v>14</v>
+      </c>
+      <c r="J715" s="32" t="n">
+        <v>28</v>
+      </c>
+      <c r="K715" s="31" t="s">
+        <v>784</v>
+      </c>
       <c r="L715" s="5"/>
       <c r="M715" s="5"/>
       <c r="N715" s="5"/>
@@ -39175,21 +39898,39 @@
       <c r="V715" s="5"/>
       <c r="W715" s="5"/>
       <c r="X715" s="5"/>
-      <c r="Y715" s="5"/>
-      <c r="Z715" s="5"/>
-    </row>
-    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A716" s="31"/>
-      <c r="B716" s="31"/>
-      <c r="C716" s="31"/>
-      <c r="D716" s="31"/>
-      <c r="E716" s="31"/>
-      <c r="F716" s="32"/>
+      <c r="Y715" s="33"/>
+      <c r="Z715" s="33"/>
+    </row>
+    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A716" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B716" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C716" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D716" s="31" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E716" s="31" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F716" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G716" s="32"/>
       <c r="H716" s="32"/>
-      <c r="I716" s="32"/>
-      <c r="J716" s="32"/>
-      <c r="K716" s="31"/>
+      <c r="I716" s="32" t="n">
+        <v>11</v>
+      </c>
+      <c r="J716" s="32" t="n">
+        <v>49</v>
+      </c>
+      <c r="K716" s="31" t="s">
+        <v>307</v>
+      </c>
       <c r="L716" s="5"/>
       <c r="M716" s="5"/>
       <c r="N716" s="5"/>
@@ -39203,21 +39944,39 @@
       <c r="V716" s="5"/>
       <c r="W716" s="5"/>
       <c r="X716" s="5"/>
-      <c r="Y716" s="5"/>
-      <c r="Z716" s="5"/>
-    </row>
-    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A717" s="31"/>
-      <c r="B717" s="31"/>
-      <c r="C717" s="31"/>
-      <c r="D717" s="31"/>
-      <c r="E717" s="31"/>
-      <c r="F717" s="32"/>
+      <c r="Y716" s="33"/>
+      <c r="Z716" s="33"/>
+    </row>
+    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A717" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B717" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C717" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D717" s="31" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E717" s="31" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F717" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G717" s="32"/>
       <c r="H717" s="32"/>
-      <c r="I717" s="32"/>
-      <c r="J717" s="32"/>
-      <c r="K717" s="31"/>
+      <c r="I717" s="32" t="n">
+        <v>12</v>
+      </c>
+      <c r="J717" s="32" t="n">
+        <v>47</v>
+      </c>
+      <c r="K717" s="31" t="s">
+        <v>1170</v>
+      </c>
       <c r="L717" s="5"/>
       <c r="M717" s="5"/>
       <c r="N717" s="5"/>
@@ -39231,21 +39990,39 @@
       <c r="V717" s="5"/>
       <c r="W717" s="5"/>
       <c r="X717" s="5"/>
-      <c r="Y717" s="5"/>
-      <c r="Z717" s="5"/>
-    </row>
-    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A718" s="31"/>
-      <c r="B718" s="31"/>
-      <c r="C718" s="31"/>
-      <c r="D718" s="31"/>
-      <c r="E718" s="31"/>
-      <c r="F718" s="32"/>
+      <c r="Y717" s="33"/>
+      <c r="Z717" s="33"/>
+    </row>
+    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A718" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B718" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C718" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D718" s="31" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E718" s="31" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F718" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G718" s="32"/>
       <c r="H718" s="32"/>
-      <c r="I718" s="32"/>
-      <c r="J718" s="32"/>
-      <c r="K718" s="31"/>
+      <c r="I718" s="32" t="n">
+        <v>13</v>
+      </c>
+      <c r="J718" s="32" t="n">
+        <v>34</v>
+      </c>
+      <c r="K718" s="31" t="s">
+        <v>1193</v>
+      </c>
       <c r="L718" s="5"/>
       <c r="M718" s="5"/>
       <c r="N718" s="5"/>
@@ -39259,21 +40036,39 @@
       <c r="V718" s="5"/>
       <c r="W718" s="5"/>
       <c r="X718" s="5"/>
-      <c r="Y718" s="5"/>
-      <c r="Z718" s="5"/>
-    </row>
-    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A719" s="31"/>
-      <c r="B719" s="31"/>
-      <c r="C719" s="31"/>
-      <c r="D719" s="31"/>
-      <c r="E719" s="31"/>
-      <c r="F719" s="32"/>
+      <c r="Y718" s="33"/>
+      <c r="Z718" s="33"/>
+    </row>
+    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A719" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B719" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C719" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="D719" s="31" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E719" s="31" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F719" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G719" s="32"/>
       <c r="H719" s="32"/>
-      <c r="I719" s="32"/>
-      <c r="J719" s="32"/>
-      <c r="K719" s="31"/>
+      <c r="I719" s="32" t="n">
+        <v>14</v>
+      </c>
+      <c r="J719" s="32" t="n">
+        <v>15</v>
+      </c>
+      <c r="K719" s="31" t="s">
+        <v>1232</v>
+      </c>
       <c r="L719" s="5"/>
       <c r="M719" s="5"/>
       <c r="N719" s="5"/>
@@ -39287,10 +40082,10 @@
       <c r="V719" s="5"/>
       <c r="W719" s="5"/>
       <c r="X719" s="5"/>
-      <c r="Y719" s="5"/>
-      <c r="Z719" s="5"/>
-    </row>
-    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y719" s="33"/>
+      <c r="Z719" s="33"/>
+    </row>
+    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="31"/>
       <c r="B720" s="31"/>
       <c r="C720" s="31"/>
@@ -39318,7 +40113,7 @@
       <c r="Y720" s="5"/>
       <c r="Z720" s="5"/>
     </row>
-    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="31"/>
       <c r="B721" s="31"/>
       <c r="C721" s="31"/>
@@ -39346,7 +40141,7 @@
       <c r="Y721" s="5"/>
       <c r="Z721" s="5"/>
     </row>
-    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="31"/>
       <c r="B722" s="31"/>
       <c r="C722" s="31"/>
@@ -39374,7 +40169,7 @@
       <c r="Y722" s="5"/>
       <c r="Z722" s="5"/>
     </row>
-    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="31"/>
       <c r="B723" s="31"/>
       <c r="C723" s="31"/>
@@ -39402,7 +40197,7 @@
       <c r="Y723" s="5"/>
       <c r="Z723" s="5"/>
     </row>
-    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="31"/>
       <c r="B724" s="31"/>
       <c r="C724" s="31"/>
@@ -39430,7 +40225,7 @@
       <c r="Y724" s="5"/>
       <c r="Z724" s="5"/>
     </row>
-    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="31"/>
       <c r="B725" s="31"/>
       <c r="C725" s="31"/>
@@ -39458,7 +40253,7 @@
       <c r="Y725" s="5"/>
       <c r="Z725" s="5"/>
     </row>
-    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="31"/>
       <c r="B726" s="31"/>
       <c r="C726" s="31"/>
@@ -39486,7 +40281,7 @@
       <c r="Y726" s="5"/>
       <c r="Z726" s="5"/>
     </row>
-    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="31"/>
       <c r="B727" s="31"/>
       <c r="C727" s="31"/>
@@ -39514,7 +40309,7 @@
       <c r="Y727" s="5"/>
       <c r="Z727" s="5"/>
     </row>
-    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="31"/>
       <c r="B728" s="31"/>
       <c r="C728" s="31"/>
@@ -39542,7 +40337,7 @@
       <c r="Y728" s="5"/>
       <c r="Z728" s="5"/>
     </row>
-    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="31"/>
       <c r="B729" s="31"/>
       <c r="C729" s="31"/>
@@ -39570,7 +40365,7 @@
       <c r="Y729" s="5"/>
       <c r="Z729" s="5"/>
     </row>
-    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="31"/>
       <c r="B730" s="31"/>
       <c r="C730" s="31"/>
@@ -39598,7 +40393,7 @@
       <c r="Y730" s="5"/>
       <c r="Z730" s="5"/>
     </row>
-    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="31"/>
       <c r="B731" s="31"/>
       <c r="C731" s="31"/>
@@ -39626,7 +40421,7 @@
       <c r="Y731" s="5"/>
       <c r="Z731" s="5"/>
     </row>
-    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="31"/>
       <c r="B732" s="31"/>
       <c r="C732" s="31"/>
@@ -39654,7 +40449,7 @@
       <c r="Y732" s="5"/>
       <c r="Z732" s="5"/>
     </row>
-    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="31"/>
       <c r="B733" s="31"/>
       <c r="C733" s="31"/>
@@ -39682,7 +40477,7 @@
       <c r="Y733" s="5"/>
       <c r="Z733" s="5"/>
     </row>
-    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="31"/>
       <c r="B734" s="31"/>
       <c r="C734" s="31"/>
@@ -39710,7 +40505,7 @@
       <c r="Y734" s="5"/>
       <c r="Z734" s="5"/>
     </row>
-    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="31"/>
       <c r="B735" s="31"/>
       <c r="C735" s="31"/>
@@ -39738,7 +40533,7 @@
       <c r="Y735" s="5"/>
       <c r="Z735" s="5"/>
     </row>
-    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="31"/>
       <c r="B736" s="31"/>
       <c r="C736" s="31"/>
@@ -39766,7 +40561,7 @@
       <c r="Y736" s="5"/>
       <c r="Z736" s="5"/>
     </row>
-    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="31"/>
       <c r="B737" s="31"/>
       <c r="C737" s="31"/>
@@ -39794,7 +40589,7 @@
       <c r="Y737" s="5"/>
       <c r="Z737" s="5"/>
     </row>
-    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="31"/>
       <c r="B738" s="31"/>
       <c r="C738" s="31"/>
@@ -39822,7 +40617,7 @@
       <c r="Y738" s="5"/>
       <c r="Z738" s="5"/>
     </row>
-    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="31"/>
       <c r="B739" s="31"/>
       <c r="C739" s="31"/>
@@ -39850,7 +40645,7 @@
       <c r="Y739" s="5"/>
       <c r="Z739" s="5"/>
     </row>
-    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="31"/>
       <c r="B740" s="31"/>
       <c r="C740" s="31"/>
@@ -39878,7 +40673,7 @@
       <c r="Y740" s="5"/>
       <c r="Z740" s="5"/>
     </row>
-    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="31"/>
       <c r="B741" s="31"/>
       <c r="C741" s="31"/>
@@ -39906,7 +40701,7 @@
       <c r="Y741" s="5"/>
       <c r="Z741" s="5"/>
     </row>
-    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="31"/>
       <c r="B742" s="31"/>
       <c r="C742" s="31"/>
@@ -39934,7 +40729,7 @@
       <c r="Y742" s="5"/>
       <c r="Z742" s="5"/>
     </row>
-    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="31"/>
       <c r="B743" s="31"/>
       <c r="C743" s="31"/>
@@ -39962,7 +40757,7 @@
       <c r="Y743" s="5"/>
       <c r="Z743" s="5"/>
     </row>
-    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="31"/>
       <c r="B744" s="31"/>
       <c r="C744" s="31"/>
@@ -39990,7 +40785,7 @@
       <c r="Y744" s="5"/>
       <c r="Z744" s="5"/>
     </row>
-    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="31"/>
       <c r="B745" s="31"/>
       <c r="C745" s="31"/>
@@ -40018,7 +40813,7 @@
       <c r="Y745" s="5"/>
       <c r="Z745" s="5"/>
     </row>
-    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="31"/>
       <c r="B746" s="31"/>
       <c r="C746" s="31"/>
@@ -40046,7 +40841,7 @@
       <c r="Y746" s="5"/>
       <c r="Z746" s="5"/>
     </row>
-    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="31"/>
       <c r="B747" s="31"/>
       <c r="C747" s="31"/>
@@ -40074,7 +40869,7 @@
       <c r="Y747" s="5"/>
       <c r="Z747" s="5"/>
     </row>
-    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="31"/>
       <c r="B748" s="31"/>
       <c r="C748" s="31"/>
@@ -40102,7 +40897,7 @@
       <c r="Y748" s="5"/>
       <c r="Z748" s="5"/>
     </row>
-    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="31"/>
       <c r="B749" s="31"/>
       <c r="C749" s="31"/>
@@ -40130,7 +40925,7 @@
       <c r="Y749" s="5"/>
       <c r="Z749" s="5"/>
     </row>
-    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="31"/>
       <c r="B750" s="31"/>
       <c r="C750" s="31"/>
@@ -40158,7 +40953,7 @@
       <c r="Y750" s="5"/>
       <c r="Z750" s="5"/>
     </row>
-    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="31"/>
       <c r="B751" s="31"/>
       <c r="C751" s="31"/>
@@ -40186,7 +40981,7 @@
       <c r="Y751" s="5"/>
       <c r="Z751" s="5"/>
     </row>
-    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="31"/>
       <c r="B752" s="31"/>
       <c r="C752" s="31"/>
@@ -40214,7 +41009,7 @@
       <c r="Y752" s="5"/>
       <c r="Z752" s="5"/>
     </row>
-    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="31"/>
       <c r="B753" s="31"/>
       <c r="C753" s="31"/>
@@ -40242,7 +41037,7 @@
       <c r="Y753" s="5"/>
       <c r="Z753" s="5"/>
     </row>
-    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="31"/>
       <c r="B754" s="31"/>
       <c r="C754" s="31"/>
@@ -40270,7 +41065,7 @@
       <c r="Y754" s="5"/>
       <c r="Z754" s="5"/>
     </row>
-    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="31"/>
       <c r="B755" s="31"/>
       <c r="C755" s="31"/>
@@ -40298,7 +41093,7 @@
       <c r="Y755" s="5"/>
       <c r="Z755" s="5"/>
     </row>
-    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="31"/>
       <c r="B756" s="31"/>
       <c r="C756" s="31"/>
@@ -40326,7 +41121,7 @@
       <c r="Y756" s="5"/>
       <c r="Z756" s="5"/>
     </row>
-    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="31"/>
       <c r="B757" s="31"/>
       <c r="C757" s="31"/>
@@ -40354,7 +41149,7 @@
       <c r="Y757" s="5"/>
       <c r="Z757" s="5"/>
     </row>
-    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="31"/>
       <c r="B758" s="31"/>
       <c r="C758" s="31"/>
@@ -40382,7 +41177,7 @@
       <c r="Y758" s="5"/>
       <c r="Z758" s="5"/>
     </row>
-    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="31"/>
       <c r="B759" s="31"/>
       <c r="C759" s="31"/>
@@ -40410,7 +41205,7 @@
       <c r="Y759" s="5"/>
       <c r="Z759" s="5"/>
     </row>
-    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="31"/>
       <c r="B760" s="31"/>
       <c r="C760" s="31"/>
@@ -40438,7 +41233,7 @@
       <c r="Y760" s="5"/>
       <c r="Z760" s="5"/>
     </row>
-    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="31"/>
       <c r="B761" s="31"/>
       <c r="C761" s="31"/>
@@ -40466,7 +41261,7 @@
       <c r="Y761" s="5"/>
       <c r="Z761" s="5"/>
     </row>
-    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="31"/>
       <c r="B762" s="31"/>
       <c r="C762" s="31"/>
@@ -40494,7 +41289,7 @@
       <c r="Y762" s="5"/>
       <c r="Z762" s="5"/>
     </row>
-    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="31"/>
       <c r="B763" s="31"/>
       <c r="C763" s="31"/>
@@ -40522,7 +41317,7 @@
       <c r="Y763" s="5"/>
       <c r="Z763" s="5"/>
     </row>
-    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="31"/>
       <c r="B764" s="31"/>
       <c r="C764" s="31"/>
@@ -40550,7 +41345,7 @@
       <c r="Y764" s="5"/>
       <c r="Z764" s="5"/>
     </row>
-    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="31"/>
       <c r="B765" s="31"/>
       <c r="C765" s="31"/>
@@ -40578,7 +41373,7 @@
       <c r="Y765" s="5"/>
       <c r="Z765" s="5"/>
     </row>
-    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="31"/>
       <c r="B766" s="31"/>
       <c r="C766" s="31"/>
@@ -40606,7 +41401,7 @@
       <c r="Y766" s="5"/>
       <c r="Z766" s="5"/>
     </row>
-    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="31"/>
       <c r="B767" s="31"/>
       <c r="C767" s="31"/>
@@ -40634,7 +41429,7 @@
       <c r="Y767" s="5"/>
       <c r="Z767" s="5"/>
     </row>
-    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="31"/>
       <c r="B768" s="31"/>
       <c r="C768" s="31"/>
@@ -40662,7 +41457,7 @@
       <c r="Y768" s="5"/>
       <c r="Z768" s="5"/>
     </row>
-    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="31"/>
       <c r="B769" s="31"/>
       <c r="C769" s="31"/>
@@ -40690,7 +41485,7 @@
       <c r="Y769" s="5"/>
       <c r="Z769" s="5"/>
     </row>
-    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="31"/>
       <c r="B770" s="31"/>
       <c r="C770" s="31"/>
@@ -40718,7 +41513,7 @@
       <c r="Y770" s="5"/>
       <c r="Z770" s="5"/>
     </row>
-    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="31"/>
       <c r="B771" s="31"/>
       <c r="C771" s="31"/>
@@ -40746,7 +41541,7 @@
       <c r="Y771" s="5"/>
       <c r="Z771" s="5"/>
     </row>
-    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="31"/>
       <c r="B772" s="31"/>
       <c r="C772" s="31"/>
@@ -40774,7 +41569,7 @@
       <c r="Y772" s="5"/>
       <c r="Z772" s="5"/>
     </row>
-    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="31"/>
       <c r="B773" s="31"/>
       <c r="C773" s="31"/>
@@ -40802,7 +41597,7 @@
       <c r="Y773" s="5"/>
       <c r="Z773" s="5"/>
     </row>
-    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="31"/>
       <c r="B774" s="31"/>
       <c r="C774" s="31"/>
@@ -40830,7 +41625,7 @@
       <c r="Y774" s="5"/>
       <c r="Z774" s="5"/>
     </row>
-    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="31"/>
       <c r="B775" s="31"/>
       <c r="C775" s="31"/>
@@ -40858,7 +41653,7 @@
       <c r="Y775" s="5"/>
       <c r="Z775" s="5"/>
     </row>
-    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="31"/>
       <c r="B776" s="31"/>
       <c r="C776" s="31"/>
@@ -40886,7 +41681,7 @@
       <c r="Y776" s="5"/>
       <c r="Z776" s="5"/>
     </row>
-    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="31"/>
       <c r="B777" s="31"/>
       <c r="C777" s="31"/>
@@ -40914,7 +41709,7 @@
       <c r="Y777" s="5"/>
       <c r="Z777" s="5"/>
     </row>
-    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="31"/>
       <c r="B778" s="31"/>
       <c r="C778" s="31"/>
@@ -40942,7 +41737,7 @@
       <c r="Y778" s="5"/>
       <c r="Z778" s="5"/>
     </row>
-    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="31"/>
       <c r="B779" s="31"/>
       <c r="C779" s="31"/>
@@ -40970,7 +41765,7 @@
       <c r="Y779" s="5"/>
       <c r="Z779" s="5"/>
     </row>
-    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="31"/>
       <c r="B780" s="31"/>
       <c r="C780" s="31"/>
@@ -40998,7 +41793,7 @@
       <c r="Y780" s="5"/>
       <c r="Z780" s="5"/>
     </row>
-    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="31"/>
       <c r="B781" s="31"/>
       <c r="C781" s="31"/>
@@ -41026,7 +41821,7 @@
       <c r="Y781" s="5"/>
       <c r="Z781" s="5"/>
     </row>
-    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="31"/>
       <c r="B782" s="31"/>
       <c r="C782" s="31"/>
@@ -41054,7 +41849,7 @@
       <c r="Y782" s="5"/>
       <c r="Z782" s="5"/>
     </row>
-    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="31"/>
       <c r="B783" s="31"/>
       <c r="C783" s="31"/>
@@ -41082,7 +41877,7 @@
       <c r="Y783" s="5"/>
       <c r="Z783" s="5"/>
     </row>
-    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="31"/>
       <c r="B784" s="31"/>
       <c r="C784" s="31"/>
@@ -41110,7 +41905,7 @@
       <c r="Y784" s="5"/>
       <c r="Z784" s="5"/>
     </row>
-    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="31"/>
       <c r="B785" s="31"/>
       <c r="C785" s="31"/>
@@ -41138,7 +41933,7 @@
       <c r="Y785" s="5"/>
       <c r="Z785" s="5"/>
     </row>
-    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="31"/>
       <c r="B786" s="31"/>
       <c r="C786" s="31"/>
@@ -41166,7 +41961,7 @@
       <c r="Y786" s="5"/>
       <c r="Z786" s="5"/>
     </row>
-    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="31"/>
       <c r="B787" s="31"/>
       <c r="C787" s="31"/>
@@ -41194,7 +41989,7 @@
       <c r="Y787" s="5"/>
       <c r="Z787" s="5"/>
     </row>
-    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="31"/>
       <c r="B788" s="31"/>
       <c r="C788" s="31"/>
@@ -41222,7 +42017,7 @@
       <c r="Y788" s="5"/>
       <c r="Z788" s="5"/>
     </row>
-    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="31"/>
       <c r="B789" s="31"/>
       <c r="C789" s="31"/>
@@ -41250,7 +42045,7 @@
       <c r="Y789" s="5"/>
       <c r="Z789" s="5"/>
     </row>
-    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="31"/>
       <c r="B790" s="31"/>
       <c r="C790" s="31"/>
@@ -41278,7 +42073,7 @@
       <c r="Y790" s="5"/>
       <c r="Z790" s="5"/>
     </row>
-    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="31"/>
       <c r="B791" s="31"/>
       <c r="C791" s="31"/>
@@ -41306,7 +42101,7 @@
       <c r="Y791" s="5"/>
       <c r="Z791" s="5"/>
     </row>
-    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="31"/>
       <c r="B792" s="31"/>
       <c r="C792" s="31"/>
@@ -41334,7 +42129,7 @@
       <c r="Y792" s="5"/>
       <c r="Z792" s="5"/>
     </row>
-    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="31"/>
       <c r="B793" s="31"/>
       <c r="C793" s="31"/>
@@ -41362,7 +42157,7 @@
       <c r="Y793" s="5"/>
       <c r="Z793" s="5"/>
     </row>
-    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="31"/>
       <c r="B794" s="31"/>
       <c r="C794" s="31"/>
@@ -41390,7 +42185,7 @@
       <c r="Y794" s="5"/>
       <c r="Z794" s="5"/>
     </row>
-    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="31"/>
       <c r="B795" s="31"/>
       <c r="C795" s="31"/>
@@ -41418,7 +42213,7 @@
       <c r="Y795" s="5"/>
       <c r="Z795" s="5"/>
     </row>
-    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="31"/>
       <c r="B796" s="31"/>
       <c r="C796" s="31"/>
@@ -41446,7 +42241,7 @@
       <c r="Y796" s="5"/>
       <c r="Z796" s="5"/>
     </row>
-    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="31"/>
       <c r="B797" s="31"/>
       <c r="C797" s="31"/>
@@ -41474,7 +42269,7 @@
       <c r="Y797" s="5"/>
       <c r="Z797" s="5"/>
     </row>
-    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="31"/>
       <c r="B798" s="31"/>
       <c r="C798" s="31"/>
@@ -41502,7 +42297,7 @@
       <c r="Y798" s="5"/>
       <c r="Z798" s="5"/>
     </row>
-    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="31"/>
       <c r="B799" s="31"/>
       <c r="C799" s="31"/>
@@ -41530,7 +42325,7 @@
       <c r="Y799" s="5"/>
       <c r="Z799" s="5"/>
     </row>
-    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="31"/>
       <c r="B800" s="31"/>
       <c r="C800" s="31"/>
@@ -41558,7 +42353,7 @@
       <c r="Y800" s="5"/>
       <c r="Z800" s="5"/>
     </row>
-    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="31"/>
       <c r="B801" s="31"/>
       <c r="C801" s="31"/>
@@ -41586,7 +42381,7 @@
       <c r="Y801" s="5"/>
       <c r="Z801" s="5"/>
     </row>
-    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="31"/>
       <c r="B802" s="31"/>
       <c r="C802" s="31"/>
@@ -41614,7 +42409,7 @@
       <c r="Y802" s="5"/>
       <c r="Z802" s="5"/>
     </row>
-    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="31"/>
       <c r="B803" s="31"/>
       <c r="C803" s="31"/>
@@ -41642,7 +42437,7 @@
       <c r="Y803" s="5"/>
       <c r="Z803" s="5"/>
     </row>
-    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="31"/>
       <c r="B804" s="31"/>
       <c r="C804" s="31"/>
@@ -41670,7 +42465,7 @@
       <c r="Y804" s="5"/>
       <c r="Z804" s="5"/>
     </row>
-    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="31"/>
       <c r="B805" s="31"/>
       <c r="C805" s="31"/>
@@ -41698,7 +42493,7 @@
       <c r="Y805" s="5"/>
       <c r="Z805" s="5"/>
     </row>
-    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="31"/>
       <c r="B806" s="31"/>
       <c r="C806" s="31"/>
@@ -41726,7 +42521,7 @@
       <c r="Y806" s="5"/>
       <c r="Z806" s="5"/>
     </row>
-    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="31"/>
       <c r="B807" s="31"/>
       <c r="C807" s="31"/>
@@ -41754,7 +42549,7 @@
       <c r="Y807" s="5"/>
       <c r="Z807" s="5"/>
     </row>
-    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="31"/>
       <c r="B808" s="31"/>
       <c r="C808" s="31"/>
@@ -41782,7 +42577,7 @@
       <c r="Y808" s="5"/>
       <c r="Z808" s="5"/>
     </row>
-    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="31"/>
       <c r="B809" s="31"/>
       <c r="C809" s="31"/>
@@ -41810,7 +42605,7 @@
       <c r="Y809" s="5"/>
       <c r="Z809" s="5"/>
     </row>
-    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="31"/>
       <c r="B810" s="31"/>
       <c r="C810" s="31"/>
@@ -41838,7 +42633,7 @@
       <c r="Y810" s="5"/>
       <c r="Z810" s="5"/>
     </row>
-    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="31"/>
       <c r="B811" s="31"/>
       <c r="C811" s="31"/>
@@ -41866,7 +42661,7 @@
       <c r="Y811" s="5"/>
       <c r="Z811" s="5"/>
     </row>
-    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="31"/>
       <c r="B812" s="31"/>
       <c r="C812" s="31"/>
@@ -41894,7 +42689,7 @@
       <c r="Y812" s="5"/>
       <c r="Z812" s="5"/>
     </row>
-    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="31"/>
       <c r="B813" s="31"/>
       <c r="C813" s="31"/>
@@ -41922,7 +42717,7 @@
       <c r="Y813" s="5"/>
       <c r="Z813" s="5"/>
     </row>
-    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="31"/>
       <c r="B814" s="31"/>
       <c r="C814" s="31"/>
@@ -41950,7 +42745,7 @@
       <c r="Y814" s="5"/>
       <c r="Z814" s="5"/>
     </row>
-    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="31"/>
       <c r="B815" s="31"/>
       <c r="C815" s="31"/>
@@ -41978,7 +42773,7 @@
       <c r="Y815" s="5"/>
       <c r="Z815" s="5"/>
     </row>
-    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="31"/>
       <c r="B816" s="31"/>
       <c r="C816" s="31"/>
@@ -42006,7 +42801,7 @@
       <c r="Y816" s="5"/>
       <c r="Z816" s="5"/>
     </row>
-    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="31"/>
       <c r="B817" s="31"/>
       <c r="C817" s="31"/>
@@ -42034,7 +42829,7 @@
       <c r="Y817" s="5"/>
       <c r="Z817" s="5"/>
     </row>
-    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="31"/>
       <c r="B818" s="31"/>
       <c r="C818" s="31"/>
@@ -42062,7 +42857,7 @@
       <c r="Y818" s="5"/>
       <c r="Z818" s="5"/>
     </row>
-    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="31"/>
       <c r="B819" s="31"/>
       <c r="C819" s="31"/>
@@ -42090,7 +42885,7 @@
       <c r="Y819" s="5"/>
       <c r="Z819" s="5"/>
     </row>
-    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="31"/>
       <c r="B820" s="31"/>
       <c r="C820" s="31"/>
@@ -42118,7 +42913,7 @@
       <c r="Y820" s="5"/>
       <c r="Z820" s="5"/>
     </row>
-    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="31"/>
       <c r="B821" s="31"/>
       <c r="C821" s="31"/>
@@ -42146,7 +42941,7 @@
       <c r="Y821" s="5"/>
       <c r="Z821" s="5"/>
     </row>
-    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="31"/>
       <c r="B822" s="31"/>
       <c r="C822" s="31"/>
@@ -42174,7 +42969,7 @@
       <c r="Y822" s="5"/>
       <c r="Z822" s="5"/>
     </row>
-    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="31"/>
       <c r="B823" s="31"/>
       <c r="C823" s="31"/>
@@ -42202,7 +42997,7 @@
       <c r="Y823" s="5"/>
       <c r="Z823" s="5"/>
     </row>
-    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="31"/>
       <c r="B824" s="31"/>
       <c r="C824" s="31"/>
@@ -42230,7 +43025,7 @@
       <c r="Y824" s="5"/>
       <c r="Z824" s="5"/>
     </row>
-    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="31"/>
       <c r="B825" s="31"/>
       <c r="C825" s="31"/>
@@ -42258,7 +43053,7 @@
       <c r="Y825" s="5"/>
       <c r="Z825" s="5"/>
     </row>
-    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="31"/>
       <c r="B826" s="31"/>
       <c r="C826" s="31"/>
@@ -42286,7 +43081,7 @@
       <c r="Y826" s="5"/>
       <c r="Z826" s="5"/>
     </row>
-    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="31"/>
       <c r="B827" s="31"/>
       <c r="C827" s="31"/>
@@ -42314,7 +43109,7 @@
       <c r="Y827" s="5"/>
       <c r="Z827" s="5"/>
     </row>
-    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="31"/>
       <c r="B828" s="31"/>
       <c r="C828" s="31"/>
@@ -42342,7 +43137,7 @@
       <c r="Y828" s="5"/>
       <c r="Z828" s="5"/>
     </row>
-    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="31"/>
       <c r="B829" s="31"/>
       <c r="C829" s="31"/>
@@ -46598,34 +47393,7 @@
       <c r="Y980" s="5"/>
       <c r="Z980" s="5"/>
     </row>
-    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A981" s="31"/>
-      <c r="B981" s="31"/>
-      <c r="C981" s="31"/>
-      <c r="D981" s="31"/>
-      <c r="E981" s="31"/>
-      <c r="F981" s="32"/>
-      <c r="G981" s="32"/>
-      <c r="H981" s="32"/>
-      <c r="I981" s="32"/>
-      <c r="J981" s="32"/>
-      <c r="K981" s="31"/>
-      <c r="L981" s="5"/>
-      <c r="M981" s="5"/>
-      <c r="N981" s="5"/>
-      <c r="O981" s="5"/>
-      <c r="P981" s="5"/>
-      <c r="Q981" s="5"/>
-      <c r="R981" s="5"/>
-      <c r="S981" s="5"/>
-      <c r="T981" s="5"/>
-      <c r="U981" s="5"/>
-      <c r="V981" s="5"/>
-      <c r="W981" s="5"/>
-      <c r="X981" s="5"/>
-      <c r="Y981" s="5"/>
-      <c r="Z981" s="5"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:K548"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/EMSC STATISTICS UPDATED.xlsx
+++ b/EMSC STATISTICS UPDATED.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3626" uniqueCount="1532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4141" uniqueCount="1729">
   <si>
     <t xml:space="preserve">Edition</t>
   </si>
@@ -4621,6 +4621,597 @@
   </si>
   <si>
     <t xml:space="preserve">Retrograd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMSC 2501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artem Pivovarov х Klavdia Petrivna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baraban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karetus, Vitorino &amp; iolanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laurinda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martti Immonen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azure Ryder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some Kind Of Love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llunr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocketship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fel!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wish I Never Met You</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inevitable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jovani x Petunija</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perkūnas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilma Karahmet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kraj je</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cry for You</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benedek Major</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Lasagna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biggie Boom Boom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claire Laffut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiroshima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smash Into Pieces &amp; LIAMOO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dillo Solo Al Buio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aygün Kazımova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.O.S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olly, Angelina Mango, JVLI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per due come noi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna Vissi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se Periptosi Pou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sini Sabotage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuori mua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NICKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MELISSES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monaxiki Kardia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuit Incolore feat. Loïc Nottet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On s'écrira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merilin Mälk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tallinn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glen Hansard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's No Mountain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN-S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galisko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game Overdose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebastian Biernat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luka Basi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zick Zack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samanta Tīna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DZENOS SEV LĪDZI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARWAN PABLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DÉJÀ VU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sylwia Grzeszczak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prawda o nas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Markus Schulz &amp; Paula Seling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endless Story</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edgar Alacran Colotl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rachel Chinouriri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Never Need Me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fyr Og Flamme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kærlighed Og Krig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMSC 2502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calema, Sara Correia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respirar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giorgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA CURA PER ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nej'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAL LUNÉE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virginio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amarene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIRGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stormchaser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Know That I'm Here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Vibrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria Loba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bumerang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebastián Contarino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With You</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAYE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love Of Your Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benjamin Ingrosso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look Who's Laughing Now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matushka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As Far As We Go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ani Lorak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labirint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINNEAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What They'll Say About Us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myon feat. Nikol Apatini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghost Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lola Indigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA REINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebels of The Rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iglė</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pašauk mane vardu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHRIS HARMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Love You</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mun kulta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanda Onica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numai în Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evridiki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aeriko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZETAK &amp; Bomba Estéreo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoriontasuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shake My Pain Away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gucci Balenciaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andromache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Flitzani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hayden Cotton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayah i Mery Spolsky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Królestwo Kobiet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piotr Niedźwiedź</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dequine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">До утра (Do utra)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pocket palma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ne mogu biti kao oni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALIZADE &amp; BEGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24\/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMSC 2503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DÁNIELFY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orgonafa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOMA X DANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimitris Vedouras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'avoue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SVEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dead Man Walking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steven Procter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maschio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goldielocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made Of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leire Martínez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi Nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angel Of My Dreams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misha Miller x Sasha Lopez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Hate That It's True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giorgos Alkaios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kimata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAX BARSKIH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zamalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oostende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toby Romeo, YouNotUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What It Feels Like</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maléna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flashing Lights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sivilian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICEGUYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemmér Gemmér</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Patrick Kelly ft. Rakim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duemilaminuti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Won't Let Go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">najlepszy dzien w moim zyciu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAVSEGDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nena, Luís Trigacheiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À Espera do Fim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Bilbilov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koj Otrov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getter Jaani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vajan hingata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'Algérino, Josas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Au soleil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eden Golan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You &amp; I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BERMUDU DIVSTURIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlo Gerada, Kevin Paul, Matthew James </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out of This World</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthew Chricop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAUSA x JAZEEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WENN DER HIMMEL WEINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sa nu uiti cât te-am iubit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexandru Buraga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No quiero flores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drifting Away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mihaela Marinova x Lubo Kirov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vselena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GJan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaip Man Atmylet Tave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murad Arif x Aygün Kazimova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÇALXALA</t>
   </si>
 </sst>
 </file>
@@ -5053,10 +5644,10 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A680" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C693" activeCellId="14" sqref="C19 C54 C100 C109 C156 C205 C237 C279 C319 C360 C391 C435 C449 C497 C693"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A791" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="N769" activeCellId="0" sqref="N769"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5069,7 +5660,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="23"/>
   </cols>
@@ -38550,7 +39141,7 @@
       <c r="Y688" s="5"/>
       <c r="Z688" s="5"/>
     </row>
-    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="31" t="n">
         <v>19</v>
       </c>
@@ -38678,48 +39269,19 @@
       </c>
       <c r="L691" s="5"/>
       <c r="M691" s="5"/>
-      <c r="N691" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="O691" s="5" t="n">
-        <v>111</v>
-      </c>
-      <c r="P691" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q691" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="R691" s="33" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="S691" s="5" t="n">
-        <v>22</v>
-      </c>
-      <c r="T691" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="U691" s="5" t="n">
-        <v>39</v>
-      </c>
-      <c r="V691" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W691" s="5" t="n">
-        <v>102</v>
-      </c>
-      <c r="X691" s="5" t="n">
-        <v>108</v>
-      </c>
-      <c r="Y691" s="33" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Z691" s="33" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
+      <c r="N691" s="5"/>
+      <c r="O691" s="5"/>
+      <c r="P691" s="5"/>
+      <c r="Q691" s="5"/>
+      <c r="R691" s="33"/>
+      <c r="S691" s="5"/>
+      <c r="T691" s="5"/>
+      <c r="U691" s="5"/>
+      <c r="V691" s="5"/>
+      <c r="W691" s="5"/>
+      <c r="X691" s="5"/>
+      <c r="Y691" s="33"/>
+      <c r="Z691" s="33"/>
     </row>
     <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="31" t="n">
@@ -40086,17 +40648,39 @@
       <c r="Z719" s="33"/>
     </row>
     <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A720" s="31"/>
-      <c r="B720" s="31"/>
-      <c r="C720" s="31"/>
-      <c r="D720" s="31"/>
-      <c r="E720" s="31"/>
-      <c r="F720" s="32"/>
-      <c r="G720" s="32"/>
-      <c r="H720" s="32"/>
-      <c r="I720" s="32"/>
-      <c r="J720" s="32"/>
-      <c r="K720" s="31"/>
+      <c r="A720" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B720" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C720" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D720" s="31" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E720" s="31" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F720" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G720" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H720" s="32" t="n">
+        <v>156</v>
+      </c>
+      <c r="I720" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J720" s="32" t="n">
+        <v>125</v>
+      </c>
+      <c r="K720" s="31" t="s">
+        <v>436</v>
+      </c>
       <c r="L720" s="5"/>
       <c r="M720" s="5"/>
       <c r="N720" s="5"/>
@@ -40110,21 +40694,43 @@
       <c r="V720" s="5"/>
       <c r="W720" s="5"/>
       <c r="X720" s="5"/>
-      <c r="Y720" s="5"/>
-      <c r="Z720" s="5"/>
+      <c r="Y720" s="33"/>
+      <c r="Z720" s="33"/>
     </row>
     <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A721" s="31"/>
-      <c r="B721" s="31"/>
-      <c r="C721" s="31"/>
-      <c r="D721" s="31"/>
-      <c r="E721" s="31"/>
-      <c r="F721" s="32"/>
-      <c r="G721" s="32"/>
-      <c r="H721" s="32"/>
-      <c r="I721" s="32"/>
-      <c r="J721" s="32"/>
-      <c r="K721" s="31"/>
+      <c r="A721" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B721" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C721" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D721" s="31" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E721" s="31" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F721" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G721" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H721" s="32" t="n">
+        <v>122</v>
+      </c>
+      <c r="I721" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J721" s="32" t="n">
+        <v>93</v>
+      </c>
+      <c r="K721" s="31" t="s">
+        <v>1537</v>
+      </c>
       <c r="L721" s="5"/>
       <c r="M721" s="5"/>
       <c r="N721" s="5"/>
@@ -40138,21 +40744,43 @@
       <c r="V721" s="5"/>
       <c r="W721" s="5"/>
       <c r="X721" s="5"/>
-      <c r="Y721" s="5"/>
-      <c r="Z721" s="5"/>
+      <c r="Y721" s="33"/>
+      <c r="Z721" s="33"/>
     </row>
     <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="31"/>
-      <c r="B722" s="31"/>
-      <c r="C722" s="31"/>
-      <c r="D722" s="31"/>
-      <c r="E722" s="31"/>
-      <c r="F722" s="32"/>
-      <c r="G722" s="32"/>
-      <c r="H722" s="32"/>
-      <c r="I722" s="32"/>
-      <c r="J722" s="32"/>
-      <c r="K722" s="31"/>
+      <c r="A722" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B722" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C722" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D722" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="E722" s="31" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F722" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G722" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="H722" s="32" t="n">
+        <v>121</v>
+      </c>
+      <c r="I722" s="32" t="n">
+        <v>9</v>
+      </c>
+      <c r="J722" s="32" t="n">
+        <v>49</v>
+      </c>
+      <c r="K722" s="31" t="s">
+        <v>95</v>
+      </c>
       <c r="L722" s="5"/>
       <c r="M722" s="5"/>
       <c r="N722" s="5"/>
@@ -40166,21 +40794,43 @@
       <c r="V722" s="5"/>
       <c r="W722" s="5"/>
       <c r="X722" s="5"/>
-      <c r="Y722" s="5"/>
-      <c r="Z722" s="5"/>
+      <c r="Y722" s="33"/>
+      <c r="Z722" s="33"/>
     </row>
     <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A723" s="31"/>
-      <c r="B723" s="31"/>
-      <c r="C723" s="31"/>
-      <c r="D723" s="31"/>
-      <c r="E723" s="31"/>
-      <c r="F723" s="32"/>
-      <c r="G723" s="32"/>
-      <c r="H723" s="32"/>
-      <c r="I723" s="32"/>
-      <c r="J723" s="32"/>
-      <c r="K723" s="31"/>
+      <c r="A723" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B723" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C723" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D723" s="31" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E723" s="31" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F723" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G723" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="H723" s="32" t="n">
+        <v>117</v>
+      </c>
+      <c r="I723" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="J723" s="32" t="n">
+        <v>70</v>
+      </c>
+      <c r="K723" s="31" t="s">
+        <v>19</v>
+      </c>
       <c r="L723" s="5"/>
       <c r="M723" s="5"/>
       <c r="N723" s="5"/>
@@ -40194,21 +40844,43 @@
       <c r="V723" s="5"/>
       <c r="W723" s="5"/>
       <c r="X723" s="5"/>
-      <c r="Y723" s="5"/>
-      <c r="Z723" s="5"/>
+      <c r="Y723" s="33"/>
+      <c r="Z723" s="33"/>
     </row>
     <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A724" s="31"/>
-      <c r="B724" s="31"/>
-      <c r="C724" s="31"/>
-      <c r="D724" s="31"/>
-      <c r="E724" s="31"/>
-      <c r="F724" s="32"/>
-      <c r="G724" s="32"/>
-      <c r="H724" s="32"/>
-      <c r="I724" s="32"/>
-      <c r="J724" s="32"/>
-      <c r="K724" s="31"/>
+      <c r="A724" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B724" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C724" s="31" t="s">
+        <v>642</v>
+      </c>
+      <c r="D724" s="31" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E724" s="31" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F724" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G724" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="H724" s="32" t="n">
+        <v>89</v>
+      </c>
+      <c r="I724" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J724" s="32" t="n">
+        <v>85</v>
+      </c>
+      <c r="K724" s="31" t="s">
+        <v>1288</v>
+      </c>
       <c r="L724" s="5"/>
       <c r="M724" s="5"/>
       <c r="N724" s="5"/>
@@ -40222,21 +40894,43 @@
       <c r="V724" s="5"/>
       <c r="W724" s="5"/>
       <c r="X724" s="5"/>
-      <c r="Y724" s="5"/>
-      <c r="Z724" s="5"/>
+      <c r="Y724" s="33"/>
+      <c r="Z724" s="33"/>
     </row>
     <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A725" s="31"/>
-      <c r="B725" s="31"/>
-      <c r="C725" s="31"/>
-      <c r="D725" s="31"/>
-      <c r="E725" s="31"/>
-      <c r="F725" s="32"/>
-      <c r="G725" s="32"/>
-      <c r="H725" s="32"/>
-      <c r="I725" s="32"/>
-      <c r="J725" s="32"/>
-      <c r="K725" s="31"/>
+      <c r="A725" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B725" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C725" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="D725" s="31" t="s">
+        <v>955</v>
+      </c>
+      <c r="E725" s="31" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F725" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G725" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="H725" s="32" t="n">
+        <v>84</v>
+      </c>
+      <c r="I725" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J725" s="32" t="n">
+        <v>92</v>
+      </c>
+      <c r="K725" s="31" t="s">
+        <v>1193</v>
+      </c>
       <c r="L725" s="5"/>
       <c r="M725" s="5"/>
       <c r="N725" s="5"/>
@@ -40250,21 +40944,43 @@
       <c r="V725" s="5"/>
       <c r="W725" s="5"/>
       <c r="X725" s="5"/>
-      <c r="Y725" s="5"/>
-      <c r="Z725" s="5"/>
+      <c r="Y725" s="33"/>
+      <c r="Z725" s="33"/>
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A726" s="31"/>
-      <c r="B726" s="31"/>
-      <c r="C726" s="31"/>
-      <c r="D726" s="31"/>
-      <c r="E726" s="31"/>
-      <c r="F726" s="32"/>
-      <c r="G726" s="32"/>
-      <c r="H726" s="32"/>
-      <c r="I726" s="32"/>
-      <c r="J726" s="32"/>
-      <c r="K726" s="31"/>
+      <c r="A726" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B726" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C726" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D726" s="31" t="s">
+        <v>836</v>
+      </c>
+      <c r="E726" s="31" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F726" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G726" s="32" t="n">
+        <v>7</v>
+      </c>
+      <c r="H726" s="32" t="n">
+        <v>84</v>
+      </c>
+      <c r="I726" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="J726" s="32" t="n">
+        <v>86</v>
+      </c>
+      <c r="K726" s="31" t="s">
+        <v>661</v>
+      </c>
       <c r="L726" s="5"/>
       <c r="M726" s="5"/>
       <c r="N726" s="5"/>
@@ -40278,21 +40994,43 @@
       <c r="V726" s="5"/>
       <c r="W726" s="5"/>
       <c r="X726" s="5"/>
-      <c r="Y726" s="5"/>
-      <c r="Z726" s="5"/>
+      <c r="Y726" s="33"/>
+      <c r="Z726" s="33"/>
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A727" s="31"/>
-      <c r="B727" s="31"/>
-      <c r="C727" s="31"/>
-      <c r="D727" s="31"/>
-      <c r="E727" s="31"/>
-      <c r="F727" s="32"/>
-      <c r="G727" s="32"/>
-      <c r="H727" s="32"/>
-      <c r="I727" s="32"/>
-      <c r="J727" s="32"/>
-      <c r="K727" s="31"/>
+      <c r="A727" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B727" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C727" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D727" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="E727" s="31" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F727" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G727" s="32" t="n">
+        <v>8</v>
+      </c>
+      <c r="H727" s="32" t="n">
+        <v>84</v>
+      </c>
+      <c r="I727" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="J727" s="32" t="n">
+        <v>74</v>
+      </c>
+      <c r="K727" s="31" t="s">
+        <v>62</v>
+      </c>
       <c r="L727" s="5"/>
       <c r="M727" s="5"/>
       <c r="N727" s="5"/>
@@ -40306,21 +41044,43 @@
       <c r="V727" s="5"/>
       <c r="W727" s="5"/>
       <c r="X727" s="5"/>
-      <c r="Y727" s="5"/>
-      <c r="Z727" s="5"/>
+      <c r="Y727" s="33"/>
+      <c r="Z727" s="33"/>
     </row>
     <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A728" s="31"/>
-      <c r="B728" s="31"/>
-      <c r="C728" s="31"/>
-      <c r="D728" s="31"/>
-      <c r="E728" s="31"/>
-      <c r="F728" s="32"/>
-      <c r="G728" s="32"/>
-      <c r="H728" s="32"/>
-      <c r="I728" s="32"/>
-      <c r="J728" s="32"/>
-      <c r="K728" s="31"/>
+      <c r="A728" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B728" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C728" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D728" s="31" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E728" s="31" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F728" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G728" s="32" t="n">
+        <v>9</v>
+      </c>
+      <c r="H728" s="32" t="n">
+        <v>82</v>
+      </c>
+      <c r="I728" s="32" t="n">
+        <v>7</v>
+      </c>
+      <c r="J728" s="32" t="n">
+        <v>60</v>
+      </c>
+      <c r="K728" s="31" t="s">
+        <v>497</v>
+      </c>
       <c r="L728" s="5"/>
       <c r="M728" s="5"/>
       <c r="N728" s="5"/>
@@ -40334,21 +41094,43 @@
       <c r="V728" s="5"/>
       <c r="W728" s="5"/>
       <c r="X728" s="5"/>
-      <c r="Y728" s="5"/>
-      <c r="Z728" s="5"/>
+      <c r="Y728" s="33"/>
+      <c r="Z728" s="33"/>
     </row>
     <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A729" s="31"/>
-      <c r="B729" s="31"/>
-      <c r="C729" s="31"/>
-      <c r="D729" s="31"/>
-      <c r="E729" s="31"/>
-      <c r="F729" s="32"/>
-      <c r="G729" s="32"/>
-      <c r="H729" s="32"/>
-      <c r="I729" s="32"/>
-      <c r="J729" s="32"/>
-      <c r="K729" s="31"/>
+      <c r="A729" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B729" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C729" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="D729" s="31" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E729" s="31" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F729" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G729" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="H729" s="32" t="n">
+        <v>81</v>
+      </c>
+      <c r="I729" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J729" s="32" t="n">
+        <v>91</v>
+      </c>
+      <c r="K729" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="L729" s="5"/>
       <c r="M729" s="5"/>
       <c r="N729" s="5"/>
@@ -40362,21 +41144,43 @@
       <c r="V729" s="5"/>
       <c r="W729" s="5"/>
       <c r="X729" s="5"/>
-      <c r="Y729" s="5"/>
-      <c r="Z729" s="5"/>
+      <c r="Y729" s="33"/>
+      <c r="Z729" s="33"/>
     </row>
     <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A730" s="31"/>
-      <c r="B730" s="31"/>
-      <c r="C730" s="31"/>
-      <c r="D730" s="31"/>
-      <c r="E730" s="31"/>
-      <c r="F730" s="32"/>
-      <c r="G730" s="32"/>
-      <c r="H730" s="32"/>
-      <c r="I730" s="32"/>
-      <c r="J730" s="32"/>
-      <c r="K730" s="31"/>
+      <c r="A730" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B730" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C730" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D730" s="31" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E730" s="31" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F730" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G730" s="32" t="n">
+        <v>11</v>
+      </c>
+      <c r="H730" s="32" t="n">
+        <v>79</v>
+      </c>
+      <c r="I730" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J730" s="32" t="n">
+        <v>80</v>
+      </c>
+      <c r="K730" s="31" t="s">
+        <v>1552</v>
+      </c>
       <c r="L730" s="5"/>
       <c r="M730" s="5"/>
       <c r="N730" s="5"/>
@@ -40390,21 +41194,43 @@
       <c r="V730" s="5"/>
       <c r="W730" s="5"/>
       <c r="X730" s="5"/>
-      <c r="Y730" s="5"/>
-      <c r="Z730" s="5"/>
+      <c r="Y730" s="33"/>
+      <c r="Z730" s="33"/>
     </row>
     <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A731" s="31"/>
-      <c r="B731" s="31"/>
-      <c r="C731" s="31"/>
-      <c r="D731" s="31"/>
-      <c r="E731" s="31"/>
-      <c r="F731" s="32"/>
-      <c r="G731" s="32"/>
-      <c r="H731" s="32"/>
-      <c r="I731" s="32"/>
-      <c r="J731" s="32"/>
-      <c r="K731" s="31"/>
+      <c r="A731" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B731" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C731" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D731" s="31" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E731" s="31" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F731" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G731" s="32" t="n">
+        <v>12</v>
+      </c>
+      <c r="H731" s="32" t="n">
+        <v>75</v>
+      </c>
+      <c r="I731" s="32" t="n">
+        <v>11</v>
+      </c>
+      <c r="J731" s="32" t="n">
+        <v>44</v>
+      </c>
+      <c r="K731" s="31" t="s">
+        <v>1141</v>
+      </c>
       <c r="L731" s="5"/>
       <c r="M731" s="5"/>
       <c r="N731" s="5"/>
@@ -40418,21 +41244,43 @@
       <c r="V731" s="5"/>
       <c r="W731" s="5"/>
       <c r="X731" s="5"/>
-      <c r="Y731" s="5"/>
-      <c r="Z731" s="5"/>
+      <c r="Y731" s="33"/>
+      <c r="Z731" s="33"/>
     </row>
     <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A732" s="31"/>
-      <c r="B732" s="31"/>
-      <c r="C732" s="31"/>
-      <c r="D732" s="31"/>
-      <c r="E732" s="31"/>
-      <c r="F732" s="32"/>
-      <c r="G732" s="32"/>
-      <c r="H732" s="32"/>
-      <c r="I732" s="32"/>
-      <c r="J732" s="32"/>
-      <c r="K732" s="31"/>
+      <c r="A732" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B732" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C732" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="D732" s="31" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E732" s="31" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F732" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G732" s="32" t="n">
+        <v>13</v>
+      </c>
+      <c r="H732" s="32" t="n">
+        <v>70</v>
+      </c>
+      <c r="I732" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="J732" s="32" t="n">
+        <v>78</v>
+      </c>
+      <c r="K732" s="31" t="s">
+        <v>904</v>
+      </c>
       <c r="L732" s="5"/>
       <c r="M732" s="5"/>
       <c r="N732" s="5"/>
@@ -40446,21 +41294,43 @@
       <c r="V732" s="5"/>
       <c r="W732" s="5"/>
       <c r="X732" s="5"/>
-      <c r="Y732" s="5"/>
-      <c r="Z732" s="5"/>
+      <c r="Y732" s="33"/>
+      <c r="Z732" s="33"/>
     </row>
     <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A733" s="31"/>
-      <c r="B733" s="31"/>
-      <c r="C733" s="31"/>
-      <c r="D733" s="31"/>
-      <c r="E733" s="31"/>
-      <c r="F733" s="32"/>
-      <c r="G733" s="32"/>
-      <c r="H733" s="32"/>
-      <c r="I733" s="32"/>
-      <c r="J733" s="32"/>
-      <c r="K733" s="31"/>
+      <c r="A733" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B733" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C733" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D733" s="31" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E733" s="31" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F733" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G733" s="32" t="n">
+        <v>14</v>
+      </c>
+      <c r="H733" s="32" t="n">
+        <v>66</v>
+      </c>
+      <c r="I733" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="J733" s="32" t="n">
+        <v>74</v>
+      </c>
+      <c r="K733" s="31" t="s">
+        <v>320</v>
+      </c>
       <c r="L733" s="5"/>
       <c r="M733" s="5"/>
       <c r="N733" s="5"/>
@@ -40474,21 +41344,39 @@
       <c r="V733" s="5"/>
       <c r="W733" s="5"/>
       <c r="X733" s="5"/>
-      <c r="Y733" s="5"/>
-      <c r="Z733" s="5"/>
+      <c r="Y733" s="33"/>
+      <c r="Z733" s="33"/>
     </row>
     <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A734" s="31"/>
-      <c r="B734" s="31"/>
-      <c r="C734" s="31"/>
-      <c r="D734" s="31"/>
-      <c r="E734" s="31"/>
-      <c r="F734" s="32"/>
-      <c r="G734" s="32"/>
-      <c r="H734" s="32"/>
+      <c r="A734" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B734" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C734" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D734" s="31" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E734" s="31" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F734" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G734" s="32" t="n">
+        <v>15</v>
+      </c>
+      <c r="H734" s="32" t="n">
+        <v>65</v>
+      </c>
       <c r="I734" s="32"/>
       <c r="J734" s="32"/>
-      <c r="K734" s="31"/>
+      <c r="K734" s="31" t="s">
+        <v>43</v>
+      </c>
       <c r="L734" s="5"/>
       <c r="M734" s="5"/>
       <c r="N734" s="5"/>
@@ -40502,21 +41390,43 @@
       <c r="V734" s="5"/>
       <c r="W734" s="5"/>
       <c r="X734" s="5"/>
-      <c r="Y734" s="5"/>
-      <c r="Z734" s="5"/>
+      <c r="Y734" s="33"/>
+      <c r="Z734" s="33"/>
     </row>
     <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A735" s="31"/>
-      <c r="B735" s="31"/>
-      <c r="C735" s="31"/>
-      <c r="D735" s="31"/>
-      <c r="E735" s="31"/>
-      <c r="F735" s="32"/>
-      <c r="G735" s="32"/>
-      <c r="H735" s="32"/>
-      <c r="I735" s="32"/>
-      <c r="J735" s="32"/>
-      <c r="K735" s="31"/>
+      <c r="A735" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B735" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C735" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D735" s="31" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E735" s="31" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F735" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G735" s="32" t="n">
+        <v>16</v>
+      </c>
+      <c r="H735" s="32" t="n">
+        <v>64</v>
+      </c>
+      <c r="I735" s="32" t="n">
+        <v>12</v>
+      </c>
+      <c r="J735" s="32" t="n">
+        <v>51</v>
+      </c>
+      <c r="K735" s="31" t="s">
+        <v>233</v>
+      </c>
       <c r="L735" s="5"/>
       <c r="M735" s="5"/>
       <c r="N735" s="5"/>
@@ -40530,21 +41440,43 @@
       <c r="V735" s="5"/>
       <c r="W735" s="5"/>
       <c r="X735" s="5"/>
-      <c r="Y735" s="5"/>
-      <c r="Z735" s="5"/>
+      <c r="Y735" s="33"/>
+      <c r="Z735" s="33"/>
     </row>
     <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A736" s="31"/>
-      <c r="B736" s="31"/>
-      <c r="C736" s="31"/>
-      <c r="D736" s="31"/>
-      <c r="E736" s="31"/>
-      <c r="F736" s="32"/>
-      <c r="G736" s="32"/>
-      <c r="H736" s="32"/>
-      <c r="I736" s="32"/>
-      <c r="J736" s="32"/>
-      <c r="K736" s="31"/>
+      <c r="A736" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B736" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C736" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D736" s="31" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E736" s="31" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F736" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G736" s="32" t="n">
+        <v>17</v>
+      </c>
+      <c r="H736" s="32" t="n">
+        <v>61</v>
+      </c>
+      <c r="I736" s="32" t="n">
+        <v>7</v>
+      </c>
+      <c r="J736" s="32" t="n">
+        <v>67</v>
+      </c>
+      <c r="K736" s="31" t="s">
+        <v>27</v>
+      </c>
       <c r="L736" s="5"/>
       <c r="M736" s="5"/>
       <c r="N736" s="5"/>
@@ -40558,21 +41490,43 @@
       <c r="V736" s="5"/>
       <c r="W736" s="5"/>
       <c r="X736" s="5"/>
-      <c r="Y736" s="5"/>
-      <c r="Z736" s="5"/>
+      <c r="Y736" s="33"/>
+      <c r="Z736" s="33"/>
     </row>
     <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A737" s="31"/>
-      <c r="B737" s="31"/>
-      <c r="C737" s="31"/>
-      <c r="D737" s="31"/>
-      <c r="E737" s="31"/>
-      <c r="F737" s="32"/>
-      <c r="G737" s="32"/>
-      <c r="H737" s="32"/>
-      <c r="I737" s="32"/>
-      <c r="J737" s="32"/>
-      <c r="K737" s="31"/>
+      <c r="A737" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B737" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C737" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="D737" s="31" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E737" s="31" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F737" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G737" s="32" t="n">
+        <v>18</v>
+      </c>
+      <c r="H737" s="32" t="n">
+        <v>60</v>
+      </c>
+      <c r="I737" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="J737" s="32" t="n">
+        <v>83</v>
+      </c>
+      <c r="K737" s="31" t="s">
+        <v>83</v>
+      </c>
       <c r="L737" s="5"/>
       <c r="M737" s="5"/>
       <c r="N737" s="5"/>
@@ -40586,21 +41540,43 @@
       <c r="V737" s="5"/>
       <c r="W737" s="5"/>
       <c r="X737" s="5"/>
-      <c r="Y737" s="5"/>
-      <c r="Z737" s="5"/>
+      <c r="Y737" s="33"/>
+      <c r="Z737" s="33"/>
     </row>
     <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A738" s="31"/>
-      <c r="B738" s="31"/>
-      <c r="C738" s="31"/>
-      <c r="D738" s="31"/>
-      <c r="E738" s="31"/>
-      <c r="F738" s="32"/>
-      <c r="G738" s="32"/>
-      <c r="H738" s="32"/>
-      <c r="I738" s="32"/>
-      <c r="J738" s="32"/>
-      <c r="K738" s="31"/>
+      <c r="A738" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B738" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C738" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="D738" s="31" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E738" s="31" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F738" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G738" s="32" t="n">
+        <v>19</v>
+      </c>
+      <c r="H738" s="32" t="n">
+        <v>49</v>
+      </c>
+      <c r="I738" s="32" t="n">
+        <v>8</v>
+      </c>
+      <c r="J738" s="32" t="n">
+        <v>60</v>
+      </c>
+      <c r="K738" s="31" t="s">
+        <v>147</v>
+      </c>
       <c r="L738" s="5"/>
       <c r="M738" s="5"/>
       <c r="N738" s="5"/>
@@ -40614,21 +41590,43 @@
       <c r="V738" s="5"/>
       <c r="W738" s="5"/>
       <c r="X738" s="5"/>
-      <c r="Y738" s="5"/>
-      <c r="Z738" s="5"/>
+      <c r="Y738" s="33"/>
+      <c r="Z738" s="33"/>
     </row>
     <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A739" s="31"/>
-      <c r="B739" s="31"/>
-      <c r="C739" s="31"/>
-      <c r="D739" s="31"/>
-      <c r="E739" s="31"/>
-      <c r="F739" s="32"/>
-      <c r="G739" s="32"/>
-      <c r="H739" s="32"/>
-      <c r="I739" s="32"/>
-      <c r="J739" s="32"/>
-      <c r="K739" s="31"/>
+      <c r="A739" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B739" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C739" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D739" s="31" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E739" s="31" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F739" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G739" s="32" t="n">
+        <v>20</v>
+      </c>
+      <c r="H739" s="32" t="n">
+        <v>47</v>
+      </c>
+      <c r="I739" s="32" t="n">
+        <v>11</v>
+      </c>
+      <c r="J739" s="32" t="n">
+        <v>54</v>
+      </c>
+      <c r="K739" s="31" t="s">
+        <v>915</v>
+      </c>
       <c r="L739" s="5"/>
       <c r="M739" s="5"/>
       <c r="N739" s="5"/>
@@ -40642,21 +41640,43 @@
       <c r="V739" s="5"/>
       <c r="W739" s="5"/>
       <c r="X739" s="5"/>
-      <c r="Y739" s="5"/>
-      <c r="Z739" s="5"/>
+      <c r="Y739" s="33"/>
+      <c r="Z739" s="33"/>
     </row>
     <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A740" s="31"/>
-      <c r="B740" s="31"/>
-      <c r="C740" s="31"/>
-      <c r="D740" s="31"/>
-      <c r="E740" s="31"/>
-      <c r="F740" s="32"/>
-      <c r="G740" s="32"/>
-      <c r="H740" s="32"/>
-      <c r="I740" s="32"/>
-      <c r="J740" s="32"/>
-      <c r="K740" s="31"/>
+      <c r="A740" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B740" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C740" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D740" s="31" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E740" s="31" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F740" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G740" s="32" t="n">
+        <v>21</v>
+      </c>
+      <c r="H740" s="32" t="n">
+        <v>45</v>
+      </c>
+      <c r="I740" s="32" t="n">
+        <v>8</v>
+      </c>
+      <c r="J740" s="32" t="n">
+        <v>57</v>
+      </c>
+      <c r="K740" s="31" t="s">
+        <v>333</v>
+      </c>
       <c r="L740" s="5"/>
       <c r="M740" s="5"/>
       <c r="N740" s="5"/>
@@ -40670,21 +41690,43 @@
       <c r="V740" s="5"/>
       <c r="W740" s="5"/>
       <c r="X740" s="5"/>
-      <c r="Y740" s="5"/>
-      <c r="Z740" s="5"/>
+      <c r="Y740" s="33"/>
+      <c r="Z740" s="33"/>
     </row>
     <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A741" s="31"/>
-      <c r="B741" s="31"/>
-      <c r="C741" s="31"/>
-      <c r="D741" s="31"/>
-      <c r="E741" s="31"/>
-      <c r="F741" s="32"/>
-      <c r="G741" s="32"/>
-      <c r="H741" s="32"/>
-      <c r="I741" s="32"/>
-      <c r="J741" s="32"/>
-      <c r="K741" s="31"/>
+      <c r="A741" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B741" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C741" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D741" s="31" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E741" s="31" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F741" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G741" s="32" t="n">
+        <v>22</v>
+      </c>
+      <c r="H741" s="32" t="n">
+        <v>43</v>
+      </c>
+      <c r="I741" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="J741" s="32" t="n">
+        <v>55</v>
+      </c>
+      <c r="K741" s="31" t="s">
+        <v>719</v>
+      </c>
       <c r="L741" s="5"/>
       <c r="M741" s="5"/>
       <c r="N741" s="5"/>
@@ -40698,21 +41740,43 @@
       <c r="V741" s="5"/>
       <c r="W741" s="5"/>
       <c r="X741" s="5"/>
-      <c r="Y741" s="5"/>
-      <c r="Z741" s="5"/>
+      <c r="Y741" s="33"/>
+      <c r="Z741" s="33"/>
     </row>
     <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A742" s="31"/>
-      <c r="B742" s="31"/>
-      <c r="C742" s="31"/>
-      <c r="D742" s="31"/>
-      <c r="E742" s="31"/>
-      <c r="F742" s="32"/>
-      <c r="G742" s="32"/>
-      <c r="H742" s="32"/>
-      <c r="I742" s="32"/>
-      <c r="J742" s="32"/>
-      <c r="K742" s="31"/>
+      <c r="A742" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B742" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C742" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="D742" s="31" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E742" s="31" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F742" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G742" s="32" t="n">
+        <v>23</v>
+      </c>
+      <c r="H742" s="32" t="n">
+        <v>42</v>
+      </c>
+      <c r="I742" s="32" t="n">
+        <v>9</v>
+      </c>
+      <c r="J742" s="32" t="n">
+        <v>57</v>
+      </c>
+      <c r="K742" s="31" t="s">
+        <v>54</v>
+      </c>
       <c r="L742" s="5"/>
       <c r="M742" s="5"/>
       <c r="N742" s="5"/>
@@ -40726,21 +41790,43 @@
       <c r="V742" s="5"/>
       <c r="W742" s="5"/>
       <c r="X742" s="5"/>
-      <c r="Y742" s="5"/>
-      <c r="Z742" s="5"/>
+      <c r="Y742" s="33"/>
+      <c r="Z742" s="33"/>
     </row>
     <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A743" s="31"/>
-      <c r="B743" s="31"/>
-      <c r="C743" s="31"/>
-      <c r="D743" s="31"/>
-      <c r="E743" s="31"/>
-      <c r="F743" s="32"/>
-      <c r="G743" s="32"/>
-      <c r="H743" s="32"/>
-      <c r="I743" s="32"/>
-      <c r="J743" s="32"/>
-      <c r="K743" s="31"/>
+      <c r="A743" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B743" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C743" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D743" s="31" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E743" s="31" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F743" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G743" s="32" t="n">
+        <v>24</v>
+      </c>
+      <c r="H743" s="32" t="n">
+        <v>40</v>
+      </c>
+      <c r="I743" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="J743" s="32" t="n">
+        <v>48</v>
+      </c>
+      <c r="K743" s="31" t="s">
+        <v>171</v>
+      </c>
       <c r="L743" s="5"/>
       <c r="M743" s="5"/>
       <c r="N743" s="5"/>
@@ -40754,21 +41840,43 @@
       <c r="V743" s="5"/>
       <c r="W743" s="5"/>
       <c r="X743" s="5"/>
-      <c r="Y743" s="5"/>
-      <c r="Z743" s="5"/>
+      <c r="Y743" s="33"/>
+      <c r="Z743" s="33"/>
     </row>
     <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A744" s="31"/>
-      <c r="B744" s="31"/>
-      <c r="C744" s="31"/>
-      <c r="D744" s="31"/>
-      <c r="E744" s="31"/>
-      <c r="F744" s="32"/>
-      <c r="G744" s="32"/>
-      <c r="H744" s="32"/>
-      <c r="I744" s="32"/>
-      <c r="J744" s="32"/>
-      <c r="K744" s="31"/>
+      <c r="A744" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B744" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C744" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D744" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="E744" s="31" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F744" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G744" s="32" t="n">
+        <v>25</v>
+      </c>
+      <c r="H744" s="32" t="n">
+        <v>30</v>
+      </c>
+      <c r="I744" s="32" t="n">
+        <v>12</v>
+      </c>
+      <c r="J744" s="32" t="n">
+        <v>43</v>
+      </c>
+      <c r="K744" s="31" t="s">
+        <v>422</v>
+      </c>
       <c r="L744" s="5"/>
       <c r="M744" s="5"/>
       <c r="N744" s="5"/>
@@ -40782,21 +41890,39 @@
       <c r="V744" s="5"/>
       <c r="W744" s="5"/>
       <c r="X744" s="5"/>
-      <c r="Y744" s="5"/>
-      <c r="Z744" s="5"/>
+      <c r="Y744" s="33"/>
+      <c r="Z744" s="33"/>
     </row>
     <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A745" s="31"/>
-      <c r="B745" s="31"/>
-      <c r="C745" s="31"/>
-      <c r="D745" s="31"/>
-      <c r="E745" s="31"/>
-      <c r="F745" s="32"/>
+      <c r="A745" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B745" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C745" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="D745" s="31" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E745" s="31" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F745" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G745" s="32"/>
       <c r="H745" s="32"/>
-      <c r="I745" s="32"/>
-      <c r="J745" s="32"/>
-      <c r="K745" s="31"/>
+      <c r="I745" s="32" t="n">
+        <v>13</v>
+      </c>
+      <c r="J745" s="32" t="n">
+        <v>39</v>
+      </c>
+      <c r="K745" s="31" t="s">
+        <v>71</v>
+      </c>
       <c r="L745" s="5"/>
       <c r="M745" s="5"/>
       <c r="N745" s="5"/>
@@ -40810,21 +41936,39 @@
       <c r="V745" s="5"/>
       <c r="W745" s="5"/>
       <c r="X745" s="5"/>
-      <c r="Y745" s="5"/>
-      <c r="Z745" s="5"/>
-    </row>
-    <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A746" s="31"/>
-      <c r="B746" s="31"/>
-      <c r="C746" s="31"/>
-      <c r="D746" s="31"/>
-      <c r="E746" s="31"/>
-      <c r="F746" s="32"/>
+      <c r="Y745" s="33"/>
+      <c r="Z745" s="33"/>
+    </row>
+    <row r="746" customFormat="false" ht="24.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A746" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B746" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C746" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D746" s="31" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E746" s="31" t="s">
+        <v>1583</v>
+      </c>
+      <c r="F746" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G746" s="32"/>
       <c r="H746" s="32"/>
-      <c r="I746" s="32"/>
-      <c r="J746" s="32"/>
-      <c r="K746" s="31"/>
+      <c r="I746" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="J746" s="32" t="n">
+        <v>38</v>
+      </c>
+      <c r="K746" s="31" t="s">
+        <v>1584</v>
+      </c>
       <c r="L746" s="5"/>
       <c r="M746" s="5"/>
       <c r="N746" s="5"/>
@@ -40838,21 +41982,39 @@
       <c r="V746" s="5"/>
       <c r="W746" s="5"/>
       <c r="X746" s="5"/>
-      <c r="Y746" s="5"/>
-      <c r="Z746" s="5"/>
+      <c r="Y746" s="33"/>
+      <c r="Z746" s="33"/>
     </row>
     <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A747" s="31"/>
-      <c r="B747" s="31"/>
-      <c r="C747" s="31"/>
-      <c r="D747" s="31"/>
-      <c r="E747" s="31"/>
-      <c r="F747" s="32"/>
+      <c r="A747" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B747" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C747" s="31" t="s">
+        <v>536</v>
+      </c>
+      <c r="D747" s="31" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E747" s="31" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F747" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G747" s="32"/>
       <c r="H747" s="32"/>
-      <c r="I747" s="32"/>
-      <c r="J747" s="32"/>
-      <c r="K747" s="31"/>
+      <c r="I747" s="32" t="n">
+        <v>14</v>
+      </c>
+      <c r="J747" s="32" t="n">
+        <v>36</v>
+      </c>
+      <c r="K747" s="31" t="s">
+        <v>75</v>
+      </c>
       <c r="L747" s="5"/>
       <c r="M747" s="5"/>
       <c r="N747" s="5"/>
@@ -40866,21 +42028,39 @@
       <c r="V747" s="5"/>
       <c r="W747" s="5"/>
       <c r="X747" s="5"/>
-      <c r="Y747" s="5"/>
-      <c r="Z747" s="5"/>
+      <c r="Y747" s="33"/>
+      <c r="Z747" s="33"/>
     </row>
     <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A748" s="31"/>
-      <c r="B748" s="31"/>
-      <c r="C748" s="31"/>
-      <c r="D748" s="31"/>
-      <c r="E748" s="31"/>
-      <c r="F748" s="32"/>
+      <c r="A748" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B748" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C748" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D748" s="31" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E748" s="31" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F748" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G748" s="32"/>
       <c r="H748" s="32"/>
-      <c r="I748" s="32"/>
-      <c r="J748" s="32"/>
-      <c r="K748" s="31"/>
+      <c r="I748" s="32" t="n">
+        <v>15</v>
+      </c>
+      <c r="J748" s="32" t="n">
+        <v>34</v>
+      </c>
+      <c r="K748" s="31" t="s">
+        <v>516</v>
+      </c>
       <c r="L748" s="5"/>
       <c r="M748" s="5"/>
       <c r="N748" s="5"/>
@@ -40894,21 +42074,39 @@
       <c r="V748" s="5"/>
       <c r="W748" s="5"/>
       <c r="X748" s="5"/>
-      <c r="Y748" s="5"/>
-      <c r="Z748" s="5"/>
+      <c r="Y748" s="33"/>
+      <c r="Z748" s="33"/>
     </row>
     <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A749" s="31"/>
-      <c r="B749" s="31"/>
-      <c r="C749" s="31"/>
-      <c r="D749" s="31"/>
-      <c r="E749" s="31"/>
-      <c r="F749" s="32"/>
+      <c r="A749" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B749" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C749" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="D749" s="31" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E749" s="31" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F749" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G749" s="32"/>
       <c r="H749" s="32"/>
-      <c r="I749" s="32"/>
-      <c r="J749" s="32"/>
-      <c r="K749" s="31"/>
+      <c r="I749" s="32" t="n">
+        <v>16</v>
+      </c>
+      <c r="J749" s="32" t="n">
+        <v>19</v>
+      </c>
+      <c r="K749" s="31" t="s">
+        <v>135</v>
+      </c>
       <c r="L749" s="5"/>
       <c r="M749" s="5"/>
       <c r="N749" s="5"/>
@@ -40922,21 +42120,39 @@
       <c r="V749" s="5"/>
       <c r="W749" s="5"/>
       <c r="X749" s="5"/>
-      <c r="Y749" s="5"/>
-      <c r="Z749" s="5"/>
+      <c r="Y749" s="33"/>
+      <c r="Z749" s="33"/>
     </row>
     <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A750" s="31"/>
-      <c r="B750" s="31"/>
-      <c r="C750" s="31"/>
-      <c r="D750" s="31"/>
-      <c r="E750" s="31"/>
-      <c r="F750" s="32"/>
+      <c r="A750" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B750" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C750" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D750" s="31" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E750" s="31" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F750" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G750" s="32"/>
       <c r="H750" s="32"/>
-      <c r="I750" s="32"/>
-      <c r="J750" s="32"/>
-      <c r="K750" s="31"/>
+      <c r="I750" s="32" t="n">
+        <v>13</v>
+      </c>
+      <c r="J750" s="32" t="n">
+        <v>44</v>
+      </c>
+      <c r="K750" s="31" t="s">
+        <v>115</v>
+      </c>
       <c r="L750" s="5"/>
       <c r="M750" s="5"/>
       <c r="N750" s="5"/>
@@ -40950,21 +42166,39 @@
       <c r="V750" s="5"/>
       <c r="W750" s="5"/>
       <c r="X750" s="5"/>
-      <c r="Y750" s="5"/>
-      <c r="Z750" s="5"/>
+      <c r="Y750" s="33"/>
+      <c r="Z750" s="33"/>
     </row>
     <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A751" s="31"/>
-      <c r="B751" s="31"/>
-      <c r="C751" s="31"/>
-      <c r="D751" s="31"/>
-      <c r="E751" s="31"/>
-      <c r="F751" s="32"/>
+      <c r="A751" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B751" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C751" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="D751" s="31" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E751" s="31" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F751" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G751" s="32"/>
       <c r="H751" s="32"/>
-      <c r="I751" s="32"/>
-      <c r="J751" s="32"/>
-      <c r="K751" s="31"/>
+      <c r="I751" s="32" t="n">
+        <v>14</v>
+      </c>
+      <c r="J751" s="32" t="n">
+        <v>37</v>
+      </c>
+      <c r="K751" s="31" t="s">
+        <v>1595</v>
+      </c>
       <c r="L751" s="5"/>
       <c r="M751" s="5"/>
       <c r="N751" s="5"/>
@@ -40978,21 +42212,39 @@
       <c r="V751" s="5"/>
       <c r="W751" s="5"/>
       <c r="X751" s="5"/>
-      <c r="Y751" s="5"/>
-      <c r="Z751" s="5"/>
+      <c r="Y751" s="33"/>
+      <c r="Z751" s="33"/>
     </row>
     <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A752" s="31"/>
-      <c r="B752" s="31"/>
-      <c r="C752" s="31"/>
-      <c r="D752" s="31"/>
-      <c r="E752" s="31"/>
-      <c r="F752" s="32"/>
+      <c r="A752" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B752" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C752" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D752" s="31" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E752" s="31" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F752" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G752" s="32"/>
       <c r="H752" s="32"/>
-      <c r="I752" s="32"/>
-      <c r="J752" s="32"/>
-      <c r="K752" s="31"/>
+      <c r="I752" s="32" t="n">
+        <v>15</v>
+      </c>
+      <c r="J752" s="32" t="n">
+        <v>35</v>
+      </c>
+      <c r="K752" s="31" t="s">
+        <v>1170</v>
+      </c>
       <c r="L752" s="5"/>
       <c r="M752" s="5"/>
       <c r="N752" s="5"/>
@@ -41006,21 +42258,39 @@
       <c r="V752" s="5"/>
       <c r="W752" s="5"/>
       <c r="X752" s="5"/>
-      <c r="Y752" s="5"/>
-      <c r="Z752" s="5"/>
-    </row>
-    <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A753" s="31"/>
-      <c r="B753" s="31"/>
-      <c r="C753" s="31"/>
-      <c r="D753" s="31"/>
-      <c r="E753" s="31"/>
-      <c r="F753" s="32"/>
+      <c r="Y752" s="33"/>
+      <c r="Z752" s="33"/>
+    </row>
+    <row r="753" customFormat="false" ht="24.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A753" s="31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B753" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C753" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D753" s="31" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E753" s="31" t="s">
+        <v>1599</v>
+      </c>
+      <c r="F753" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G753" s="32"/>
       <c r="H753" s="32"/>
-      <c r="I753" s="32"/>
-      <c r="J753" s="32"/>
-      <c r="K753" s="31"/>
+      <c r="I753" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="J753" s="32" t="n">
+        <v>14</v>
+      </c>
+      <c r="K753" s="31" t="s">
+        <v>15</v>
+      </c>
       <c r="L753" s="5"/>
       <c r="M753" s="5"/>
       <c r="N753" s="5"/>
@@ -41034,21 +42304,43 @@
       <c r="V753" s="5"/>
       <c r="W753" s="5"/>
       <c r="X753" s="5"/>
-      <c r="Y753" s="5"/>
-      <c r="Z753" s="5"/>
+      <c r="Y753" s="33"/>
+      <c r="Z753" s="33"/>
     </row>
     <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A754" s="31"/>
-      <c r="B754" s="31"/>
-      <c r="C754" s="31"/>
-      <c r="D754" s="31"/>
-      <c r="E754" s="31"/>
-      <c r="F754" s="32"/>
-      <c r="G754" s="32"/>
-      <c r="H754" s="32"/>
-      <c r="I754" s="32"/>
-      <c r="J754" s="32"/>
-      <c r="K754" s="31"/>
+      <c r="A754" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B754" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C754" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D754" s="31" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E754" s="31" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F754" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G754" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H754" s="32" t="n">
+        <v>133</v>
+      </c>
+      <c r="I754" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="J754" s="32" t="n">
+        <v>81</v>
+      </c>
+      <c r="K754" s="31" t="s">
+        <v>171</v>
+      </c>
       <c r="L754" s="5"/>
       <c r="M754" s="5"/>
       <c r="N754" s="5"/>
@@ -41066,17 +42358,39 @@
       <c r="Z754" s="5"/>
     </row>
     <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A755" s="31"/>
-      <c r="B755" s="31"/>
-      <c r="C755" s="31"/>
-      <c r="D755" s="31"/>
-      <c r="E755" s="31"/>
-      <c r="F755" s="32"/>
-      <c r="G755" s="32"/>
-      <c r="H755" s="32"/>
-      <c r="I755" s="32"/>
-      <c r="J755" s="32"/>
-      <c r="K755" s="31"/>
+      <c r="A755" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B755" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C755" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D755" s="31" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E755" s="31" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F755" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G755" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H755" s="32" t="n">
+        <v>132</v>
+      </c>
+      <c r="I755" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J755" s="32" t="n">
+        <v>104</v>
+      </c>
+      <c r="K755" s="31" t="s">
+        <v>1175</v>
+      </c>
       <c r="L755" s="5"/>
       <c r="M755" s="5"/>
       <c r="N755" s="5"/>
@@ -41094,17 +42408,39 @@
       <c r="Z755" s="5"/>
     </row>
     <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A756" s="31"/>
-      <c r="B756" s="31"/>
-      <c r="C756" s="31"/>
-      <c r="D756" s="31"/>
-      <c r="E756" s="31"/>
-      <c r="F756" s="32"/>
-      <c r="G756" s="32"/>
-      <c r="H756" s="32"/>
-      <c r="I756" s="32"/>
-      <c r="J756" s="32"/>
-      <c r="K756" s="31"/>
+      <c r="A756" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B756" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C756" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D756" s="31" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E756" s="31" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F756" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G756" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="H756" s="32" t="n">
+        <v>121</v>
+      </c>
+      <c r="I756" s="32" t="n">
+        <v>8</v>
+      </c>
+      <c r="J756" s="32" t="n">
+        <v>70</v>
+      </c>
+      <c r="K756" s="31" t="s">
+        <v>1537</v>
+      </c>
       <c r="L756" s="5"/>
       <c r="M756" s="5"/>
       <c r="N756" s="5"/>
@@ -41122,17 +42458,39 @@
       <c r="Z756" s="5"/>
     </row>
     <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A757" s="31"/>
-      <c r="B757" s="31"/>
-      <c r="C757" s="31"/>
-      <c r="D757" s="31"/>
-      <c r="E757" s="31"/>
-      <c r="F757" s="32"/>
-      <c r="G757" s="32"/>
-      <c r="H757" s="32"/>
-      <c r="I757" s="32"/>
-      <c r="J757" s="32"/>
-      <c r="K757" s="31"/>
+      <c r="A757" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B757" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C757" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D757" s="31" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E757" s="31" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F757" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G757" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="H757" s="32" t="n">
+        <v>120</v>
+      </c>
+      <c r="I757" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J757" s="32" t="n">
+        <v>82</v>
+      </c>
+      <c r="K757" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="L757" s="5"/>
       <c r="M757" s="5"/>
       <c r="N757" s="5"/>
@@ -41150,17 +42508,39 @@
       <c r="Z757" s="5"/>
     </row>
     <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A758" s="31"/>
-      <c r="B758" s="31"/>
-      <c r="C758" s="31"/>
-      <c r="D758" s="31"/>
-      <c r="E758" s="31"/>
-      <c r="F758" s="32"/>
-      <c r="G758" s="32"/>
-      <c r="H758" s="32"/>
-      <c r="I758" s="32"/>
-      <c r="J758" s="32"/>
-      <c r="K758" s="31"/>
+      <c r="A758" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B758" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C758" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D758" s="31" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E758" s="31" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F758" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G758" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="H758" s="32" t="n">
+        <v>108</v>
+      </c>
+      <c r="I758" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J758" s="32" t="n">
+        <v>103</v>
+      </c>
+      <c r="K758" s="31" t="s">
+        <v>62</v>
+      </c>
       <c r="L758" s="5"/>
       <c r="M758" s="5"/>
       <c r="N758" s="5"/>
@@ -41178,17 +42558,39 @@
       <c r="Z758" s="5"/>
     </row>
     <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A759" s="31"/>
-      <c r="B759" s="31"/>
-      <c r="C759" s="31"/>
-      <c r="D759" s="31"/>
-      <c r="E759" s="31"/>
-      <c r="F759" s="32"/>
-      <c r="G759" s="32"/>
-      <c r="H759" s="32"/>
-      <c r="I759" s="32"/>
-      <c r="J759" s="32"/>
-      <c r="K759" s="31"/>
+      <c r="A759" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B759" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C759" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D759" s="31" t="s">
+        <v>526</v>
+      </c>
+      <c r="E759" s="31" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F759" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G759" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="H759" s="32" t="n">
+        <v>99</v>
+      </c>
+      <c r="I759" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="J759" s="32" t="n">
+        <v>76</v>
+      </c>
+      <c r="K759" s="31" t="s">
+        <v>1193</v>
+      </c>
       <c r="L759" s="5"/>
       <c r="M759" s="5"/>
       <c r="N759" s="5"/>
@@ -41206,17 +42608,39 @@
       <c r="Z759" s="5"/>
     </row>
     <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A760" s="31"/>
-      <c r="B760" s="31"/>
-      <c r="C760" s="31"/>
-      <c r="D760" s="31"/>
-      <c r="E760" s="31"/>
-      <c r="F760" s="32"/>
-      <c r="G760" s="32"/>
-      <c r="H760" s="32"/>
-      <c r="I760" s="32"/>
-      <c r="J760" s="32"/>
-      <c r="K760" s="31"/>
+      <c r="A760" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B760" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C760" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D760" s="31" t="s">
+        <v>752</v>
+      </c>
+      <c r="E760" s="31" t="s">
+        <v>1612</v>
+      </c>
+      <c r="F760" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G760" s="32" t="n">
+        <v>7</v>
+      </c>
+      <c r="H760" s="32" t="n">
+        <v>94</v>
+      </c>
+      <c r="I760" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J760" s="32" t="n">
+        <v>88</v>
+      </c>
+      <c r="K760" s="31" t="s">
+        <v>661</v>
+      </c>
       <c r="L760" s="5"/>
       <c r="M760" s="5"/>
       <c r="N760" s="5"/>
@@ -41234,17 +42658,39 @@
       <c r="Z760" s="5"/>
     </row>
     <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A761" s="31"/>
-      <c r="B761" s="31"/>
-      <c r="C761" s="31"/>
-      <c r="D761" s="31"/>
-      <c r="E761" s="31"/>
-      <c r="F761" s="32"/>
-      <c r="G761" s="32"/>
-      <c r="H761" s="32"/>
-      <c r="I761" s="32"/>
-      <c r="J761" s="32"/>
-      <c r="K761" s="31"/>
+      <c r="A761" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B761" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C761" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="D761" s="31" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E761" s="31" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F761" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G761" s="32" t="n">
+        <v>8</v>
+      </c>
+      <c r="H761" s="32" t="n">
+        <v>92</v>
+      </c>
+      <c r="I761" s="32" t="n">
+        <v>7</v>
+      </c>
+      <c r="J761" s="32" t="n">
+        <v>66</v>
+      </c>
+      <c r="K761" s="31" t="s">
+        <v>1615</v>
+      </c>
       <c r="L761" s="5"/>
       <c r="M761" s="5"/>
       <c r="N761" s="5"/>
@@ -41262,17 +42708,39 @@
       <c r="Z761" s="5"/>
     </row>
     <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A762" s="31"/>
-      <c r="B762" s="31"/>
-      <c r="C762" s="31"/>
-      <c r="D762" s="31"/>
-      <c r="E762" s="31"/>
-      <c r="F762" s="32"/>
-      <c r="G762" s="32"/>
-      <c r="H762" s="32"/>
-      <c r="I762" s="32"/>
-      <c r="J762" s="32"/>
-      <c r="K762" s="31"/>
+      <c r="A762" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B762" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C762" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D762" s="31" t="s">
+        <v>894</v>
+      </c>
+      <c r="E762" s="31" t="s">
+        <v>1616</v>
+      </c>
+      <c r="F762" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G762" s="32" t="n">
+        <v>9</v>
+      </c>
+      <c r="H762" s="32" t="n">
+        <v>91</v>
+      </c>
+      <c r="I762" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J762" s="32" t="n">
+        <v>95</v>
+      </c>
+      <c r="K762" s="31" t="s">
+        <v>320</v>
+      </c>
       <c r="L762" s="5"/>
       <c r="M762" s="5"/>
       <c r="N762" s="5"/>
@@ -41290,17 +42758,39 @@
       <c r="Z762" s="5"/>
     </row>
     <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A763" s="31"/>
-      <c r="B763" s="31"/>
-      <c r="C763" s="31"/>
-      <c r="D763" s="31"/>
-      <c r="E763" s="31"/>
-      <c r="F763" s="32"/>
-      <c r="G763" s="32"/>
-      <c r="H763" s="32"/>
-      <c r="I763" s="32"/>
-      <c r="J763" s="32"/>
-      <c r="K763" s="31"/>
+      <c r="A763" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B763" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C763" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D763" s="31" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E763" s="31" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F763" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G763" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="H763" s="32" t="n">
+        <v>87</v>
+      </c>
+      <c r="I763" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="J763" s="32" t="n">
+        <v>79</v>
+      </c>
+      <c r="K763" s="31" t="s">
+        <v>1141</v>
+      </c>
       <c r="L763" s="5"/>
       <c r="M763" s="5"/>
       <c r="N763" s="5"/>
@@ -41318,17 +42808,39 @@
       <c r="Z763" s="5"/>
     </row>
     <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A764" s="31"/>
-      <c r="B764" s="31"/>
-      <c r="C764" s="31"/>
-      <c r="D764" s="31"/>
-      <c r="E764" s="31"/>
-      <c r="F764" s="32"/>
-      <c r="G764" s="32"/>
-      <c r="H764" s="32"/>
-      <c r="I764" s="32"/>
-      <c r="J764" s="32"/>
-      <c r="K764" s="31"/>
+      <c r="A764" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B764" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C764" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D764" s="31" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E764" s="31" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F764" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G764" s="32" t="n">
+        <v>11</v>
+      </c>
+      <c r="H764" s="32" t="n">
+        <v>86</v>
+      </c>
+      <c r="I764" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J764" s="32" t="n">
+        <v>96</v>
+      </c>
+      <c r="K764" s="31" t="s">
+        <v>307</v>
+      </c>
       <c r="L764" s="5"/>
       <c r="M764" s="5"/>
       <c r="N764" s="5"/>
@@ -41346,17 +42858,39 @@
       <c r="Z764" s="5"/>
     </row>
     <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A765" s="31"/>
-      <c r="B765" s="31"/>
-      <c r="C765" s="31"/>
-      <c r="D765" s="31"/>
-      <c r="E765" s="31"/>
-      <c r="F765" s="32"/>
-      <c r="G765" s="32"/>
-      <c r="H765" s="32"/>
-      <c r="I765" s="32"/>
-      <c r="J765" s="32"/>
-      <c r="K765" s="31"/>
+      <c r="A765" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B765" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C765" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D765" s="31" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E765" s="31" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F765" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G765" s="32" t="n">
+        <v>12</v>
+      </c>
+      <c r="H765" s="32" t="n">
+        <v>80</v>
+      </c>
+      <c r="I765" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="J765" s="32" t="n">
+        <v>75</v>
+      </c>
+      <c r="K765" s="31" t="s">
+        <v>571</v>
+      </c>
       <c r="L765" s="5"/>
       <c r="M765" s="5"/>
       <c r="N765" s="5"/>
@@ -41374,17 +42908,39 @@
       <c r="Z765" s="5"/>
     </row>
     <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A766" s="31"/>
-      <c r="B766" s="31"/>
-      <c r="C766" s="31"/>
-      <c r="D766" s="31"/>
-      <c r="E766" s="31"/>
-      <c r="F766" s="32"/>
-      <c r="G766" s="32"/>
-      <c r="H766" s="32"/>
-      <c r="I766" s="32"/>
-      <c r="J766" s="32"/>
-      <c r="K766" s="31"/>
+      <c r="A766" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B766" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C766" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D766" s="31" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E766" s="31" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F766" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G766" s="32" t="n">
+        <v>13</v>
+      </c>
+      <c r="H766" s="32" t="n">
+        <v>74</v>
+      </c>
+      <c r="I766" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="J766" s="32" t="n">
+        <v>48</v>
+      </c>
+      <c r="K766" s="31" t="s">
+        <v>1232</v>
+      </c>
       <c r="L766" s="5"/>
       <c r="M766" s="5"/>
       <c r="N766" s="5"/>
@@ -41402,17 +42958,35 @@
       <c r="Z766" s="5"/>
     </row>
     <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A767" s="31"/>
-      <c r="B767" s="31"/>
-      <c r="C767" s="31"/>
-      <c r="D767" s="31"/>
-      <c r="E767" s="31"/>
-      <c r="F767" s="32"/>
-      <c r="G767" s="32"/>
-      <c r="H767" s="32"/>
+      <c r="A767" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B767" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C767" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D767" s="31" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E767" s="31" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F767" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G767" s="32" t="n">
+        <v>14</v>
+      </c>
+      <c r="H767" s="32" t="n">
+        <v>68</v>
+      </c>
       <c r="I767" s="32"/>
       <c r="J767" s="32"/>
-      <c r="K767" s="31"/>
+      <c r="K767" s="31" t="s">
+        <v>436</v>
+      </c>
       <c r="L767" s="5"/>
       <c r="M767" s="5"/>
       <c r="N767" s="5"/>
@@ -41430,17 +43004,39 @@
       <c r="Z767" s="5"/>
     </row>
     <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A768" s="31"/>
-      <c r="B768" s="31"/>
-      <c r="C768" s="31"/>
-      <c r="D768" s="31"/>
-      <c r="E768" s="31"/>
-      <c r="F768" s="32"/>
-      <c r="G768" s="32"/>
-      <c r="H768" s="32"/>
-      <c r="I768" s="32"/>
-      <c r="J768" s="32"/>
-      <c r="K768" s="31"/>
+      <c r="A768" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B768" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C768" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D768" s="31" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E768" s="31" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F768" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G768" s="32" t="n">
+        <v>15</v>
+      </c>
+      <c r="H768" s="32" t="n">
+        <v>62</v>
+      </c>
+      <c r="I768" s="32" t="n">
+        <v>7</v>
+      </c>
+      <c r="J768" s="32" t="n">
+        <v>76</v>
+      </c>
+      <c r="K768" s="31" t="s">
+        <v>1552</v>
+      </c>
       <c r="L768" s="5"/>
       <c r="M768" s="5"/>
       <c r="N768" s="5"/>
@@ -41458,17 +43054,39 @@
       <c r="Z768" s="5"/>
     </row>
     <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A769" s="31"/>
-      <c r="B769" s="31"/>
-      <c r="C769" s="31"/>
-      <c r="D769" s="31"/>
-      <c r="E769" s="31"/>
-      <c r="F769" s="32"/>
-      <c r="G769" s="32"/>
-      <c r="H769" s="32"/>
-      <c r="I769" s="32"/>
-      <c r="J769" s="32"/>
-      <c r="K769" s="31"/>
+      <c r="A769" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B769" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C769" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="D769" s="31" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E769" s="31" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F769" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G769" s="32" t="n">
+        <v>16</v>
+      </c>
+      <c r="H769" s="32" t="n">
+        <v>59</v>
+      </c>
+      <c r="I769" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="J769" s="32" t="n">
+        <v>72</v>
+      </c>
+      <c r="K769" s="31" t="s">
+        <v>1595</v>
+      </c>
       <c r="L769" s="5"/>
       <c r="M769" s="5"/>
       <c r="N769" s="5"/>
@@ -41486,17 +43104,39 @@
       <c r="Z769" s="5"/>
     </row>
     <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A770" s="31"/>
-      <c r="B770" s="31"/>
-      <c r="C770" s="31"/>
-      <c r="D770" s="31"/>
-      <c r="E770" s="31"/>
-      <c r="F770" s="32"/>
-      <c r="G770" s="32"/>
-      <c r="H770" s="32"/>
-      <c r="I770" s="32"/>
-      <c r="J770" s="32"/>
-      <c r="K770" s="31"/>
+      <c r="A770" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B770" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C770" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D770" s="31" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E770" s="31" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F770" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G770" s="32" t="n">
+        <v>17</v>
+      </c>
+      <c r="H770" s="32" t="n">
+        <v>56</v>
+      </c>
+      <c r="I770" s="32" t="n">
+        <v>9</v>
+      </c>
+      <c r="J770" s="32" t="n">
+        <v>58</v>
+      </c>
+      <c r="K770" s="31" t="s">
+        <v>27</v>
+      </c>
       <c r="L770" s="5"/>
       <c r="M770" s="5"/>
       <c r="N770" s="5"/>
@@ -41514,17 +43154,39 @@
       <c r="Z770" s="5"/>
     </row>
     <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A771" s="31"/>
-      <c r="B771" s="31"/>
-      <c r="C771" s="31"/>
-      <c r="D771" s="31"/>
-      <c r="E771" s="31"/>
-      <c r="F771" s="32"/>
-      <c r="G771" s="32"/>
-      <c r="H771" s="32"/>
-      <c r="I771" s="32"/>
-      <c r="J771" s="32"/>
-      <c r="K771" s="31"/>
+      <c r="A771" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B771" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C771" s="31" t="s">
+        <v>642</v>
+      </c>
+      <c r="D771" s="31" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E771" s="31" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F771" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G771" s="32" t="n">
+        <v>18</v>
+      </c>
+      <c r="H771" s="32" t="n">
+        <v>54</v>
+      </c>
+      <c r="I771" s="32" t="n">
+        <v>11</v>
+      </c>
+      <c r="J771" s="32" t="n">
+        <v>47</v>
+      </c>
+      <c r="K771" s="31" t="s">
+        <v>422</v>
+      </c>
       <c r="L771" s="5"/>
       <c r="M771" s="5"/>
       <c r="N771" s="5"/>
@@ -41542,17 +43204,39 @@
       <c r="Z771" s="5"/>
     </row>
     <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A772" s="31"/>
-      <c r="B772" s="31"/>
-      <c r="C772" s="31"/>
-      <c r="D772" s="31"/>
-      <c r="E772" s="31"/>
-      <c r="F772" s="32"/>
-      <c r="G772" s="32"/>
-      <c r="H772" s="32"/>
-      <c r="I772" s="32"/>
-      <c r="J772" s="32"/>
-      <c r="K772" s="31"/>
+      <c r="A772" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B772" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C772" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D772" s="31" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E772" s="31" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F772" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G772" s="32" t="n">
+        <v>19</v>
+      </c>
+      <c r="H772" s="32" t="n">
+        <v>49</v>
+      </c>
+      <c r="I772" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="J772" s="32" t="n">
+        <v>70</v>
+      </c>
+      <c r="K772" s="31" t="s">
+        <v>497</v>
+      </c>
       <c r="L772" s="5"/>
       <c r="M772" s="5"/>
       <c r="N772" s="5"/>
@@ -41570,17 +43254,39 @@
       <c r="Z772" s="5"/>
     </row>
     <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A773" s="31"/>
-      <c r="B773" s="31"/>
-      <c r="C773" s="31"/>
-      <c r="D773" s="31"/>
-      <c r="E773" s="31"/>
-      <c r="F773" s="32"/>
-      <c r="G773" s="32"/>
-      <c r="H773" s="32"/>
-      <c r="I773" s="32"/>
-      <c r="J773" s="32"/>
-      <c r="K773" s="31"/>
+      <c r="A773" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B773" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C773" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D773" s="31" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E773" s="31" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F773" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G773" s="32" t="n">
+        <v>20</v>
+      </c>
+      <c r="H773" s="32" t="n">
+        <v>44</v>
+      </c>
+      <c r="I773" s="32" t="n">
+        <v>11</v>
+      </c>
+      <c r="J773" s="32" t="n">
+        <v>53</v>
+      </c>
+      <c r="K773" s="31" t="s">
+        <v>95</v>
+      </c>
       <c r="L773" s="5"/>
       <c r="M773" s="5"/>
       <c r="N773" s="5"/>
@@ -41598,17 +43304,39 @@
       <c r="Z773" s="5"/>
     </row>
     <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A774" s="31"/>
-      <c r="B774" s="31"/>
-      <c r="C774" s="31"/>
-      <c r="D774" s="31"/>
-      <c r="E774" s="31"/>
-      <c r="F774" s="32"/>
-      <c r="G774" s="32"/>
-      <c r="H774" s="32"/>
-      <c r="I774" s="32"/>
-      <c r="J774" s="32"/>
-      <c r="K774" s="31"/>
+      <c r="A774" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B774" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C774" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="D774" s="31" t="s">
+        <v>828</v>
+      </c>
+      <c r="E774" s="31" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F774" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G774" s="32" t="n">
+        <v>21</v>
+      </c>
+      <c r="H774" s="32" t="n">
+        <v>39</v>
+      </c>
+      <c r="I774" s="32" t="n">
+        <v>9</v>
+      </c>
+      <c r="J774" s="32" t="n">
+        <v>59</v>
+      </c>
+      <c r="K774" s="31" t="s">
+        <v>54</v>
+      </c>
       <c r="L774" s="5"/>
       <c r="M774" s="5"/>
       <c r="N774" s="5"/>
@@ -41626,17 +43354,39 @@
       <c r="Z774" s="5"/>
     </row>
     <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A775" s="31"/>
-      <c r="B775" s="31"/>
-      <c r="C775" s="31"/>
-      <c r="D775" s="31"/>
-      <c r="E775" s="31"/>
-      <c r="F775" s="32"/>
-      <c r="G775" s="32"/>
-      <c r="H775" s="32"/>
-      <c r="I775" s="32"/>
-      <c r="J775" s="32"/>
-      <c r="K775" s="31"/>
+      <c r="A775" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B775" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C775" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="D775" s="31" t="s">
+        <v>963</v>
+      </c>
+      <c r="E775" s="31" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F775" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G775" s="32" t="n">
+        <v>22</v>
+      </c>
+      <c r="H775" s="32" t="n">
+        <v>38</v>
+      </c>
+      <c r="I775" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="J775" s="32" t="n">
+        <v>54</v>
+      </c>
+      <c r="K775" s="31" t="s">
+        <v>1288</v>
+      </c>
       <c r="L775" s="5"/>
       <c r="M775" s="5"/>
       <c r="N775" s="5"/>
@@ -41654,17 +43404,39 @@
       <c r="Z775" s="5"/>
     </row>
     <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A776" s="31"/>
-      <c r="B776" s="31"/>
-      <c r="C776" s="31"/>
-      <c r="D776" s="31"/>
-      <c r="E776" s="31"/>
-      <c r="F776" s="32"/>
-      <c r="G776" s="32"/>
-      <c r="H776" s="32"/>
-      <c r="I776" s="32"/>
-      <c r="J776" s="32"/>
-      <c r="K776" s="31"/>
+      <c r="A776" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B776" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C776" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="D776" s="31" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E776" s="31" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F776" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G776" s="32" t="n">
+        <v>23</v>
+      </c>
+      <c r="H776" s="32" t="n">
+        <v>28</v>
+      </c>
+      <c r="I776" s="32" t="n">
+        <v>12</v>
+      </c>
+      <c r="J776" s="32" t="n">
+        <v>47</v>
+      </c>
+      <c r="K776" s="31" t="s">
+        <v>43</v>
+      </c>
       <c r="L776" s="5"/>
       <c r="M776" s="5"/>
       <c r="N776" s="5"/>
@@ -41682,17 +43454,39 @@
       <c r="Z776" s="5"/>
     </row>
     <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A777" s="31"/>
-      <c r="B777" s="31"/>
-      <c r="C777" s="31"/>
-      <c r="D777" s="31"/>
-      <c r="E777" s="31"/>
-      <c r="F777" s="32"/>
-      <c r="G777" s="32"/>
-      <c r="H777" s="32"/>
-      <c r="I777" s="32"/>
-      <c r="J777" s="32"/>
-      <c r="K777" s="31"/>
+      <c r="A777" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B777" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C777" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="D777" s="31" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E777" s="31" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F777" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G777" s="32" t="n">
+        <v>24</v>
+      </c>
+      <c r="H777" s="32" t="n">
+        <v>26</v>
+      </c>
+      <c r="I777" s="32" t="n">
+        <v>8</v>
+      </c>
+      <c r="J777" s="32" t="n">
+        <v>63</v>
+      </c>
+      <c r="K777" s="31" t="s">
+        <v>83</v>
+      </c>
       <c r="L777" s="5"/>
       <c r="M777" s="5"/>
       <c r="N777" s="5"/>
@@ -41710,17 +43504,39 @@
       <c r="Z777" s="5"/>
     </row>
     <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A778" s="31"/>
-      <c r="B778" s="31"/>
-      <c r="C778" s="31"/>
-      <c r="D778" s="31"/>
-      <c r="E778" s="31"/>
-      <c r="F778" s="32"/>
-      <c r="G778" s="32"/>
-      <c r="H778" s="32"/>
-      <c r="I778" s="32"/>
-      <c r="J778" s="32"/>
-      <c r="K778" s="31"/>
+      <c r="A778" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B778" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C778" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D778" s="31" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E778" s="31" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F778" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G778" s="32" t="n">
+        <v>25</v>
+      </c>
+      <c r="H778" s="32" t="n">
+        <v>16</v>
+      </c>
+      <c r="I778" s="32" t="n">
+        <v>12</v>
+      </c>
+      <c r="J778" s="32" t="n">
+        <v>36</v>
+      </c>
+      <c r="K778" s="31" t="s">
+        <v>915</v>
+      </c>
       <c r="L778" s="5"/>
       <c r="M778" s="5"/>
       <c r="N778" s="5"/>
@@ -41738,17 +43554,35 @@
       <c r="Z778" s="5"/>
     </row>
     <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A779" s="31"/>
-      <c r="B779" s="31"/>
-      <c r="C779" s="31"/>
-      <c r="D779" s="31"/>
-      <c r="E779" s="31"/>
-      <c r="F779" s="32"/>
+      <c r="A779" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B779" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C779" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="D779" s="31" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E779" s="31" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F779" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G779" s="32"/>
       <c r="H779" s="32"/>
-      <c r="I779" s="32"/>
-      <c r="J779" s="32"/>
-      <c r="K779" s="31"/>
+      <c r="I779" s="32" t="n">
+        <v>13</v>
+      </c>
+      <c r="J779" s="32" t="n">
+        <v>41</v>
+      </c>
+      <c r="K779" s="31" t="s">
+        <v>719</v>
+      </c>
       <c r="L779" s="5"/>
       <c r="M779" s="5"/>
       <c r="N779" s="5"/>
@@ -41766,17 +43600,35 @@
       <c r="Z779" s="5"/>
     </row>
     <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A780" s="31"/>
-      <c r="B780" s="31"/>
-      <c r="C780" s="31"/>
-      <c r="D780" s="31"/>
-      <c r="E780" s="31"/>
-      <c r="F780" s="32"/>
+      <c r="A780" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B780" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C780" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="D780" s="31" t="s">
+        <v>558</v>
+      </c>
+      <c r="E780" s="31" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F780" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G780" s="32"/>
       <c r="H780" s="32"/>
-      <c r="I780" s="32"/>
-      <c r="J780" s="32"/>
-      <c r="K780" s="31"/>
+      <c r="I780" s="32" t="n">
+        <v>14</v>
+      </c>
+      <c r="J780" s="32" t="n">
+        <v>21</v>
+      </c>
+      <c r="K780" s="31" t="s">
+        <v>71</v>
+      </c>
       <c r="L780" s="5"/>
       <c r="M780" s="5"/>
       <c r="N780" s="5"/>
@@ -41794,17 +43646,35 @@
       <c r="Z780" s="5"/>
     </row>
     <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A781" s="31"/>
-      <c r="B781" s="31"/>
-      <c r="C781" s="31"/>
-      <c r="D781" s="31"/>
-      <c r="E781" s="31"/>
-      <c r="F781" s="32"/>
+      <c r="A781" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B781" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C781" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D781" s="31" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E781" s="31" t="s">
+        <v>1648</v>
+      </c>
+      <c r="F781" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G781" s="32"/>
       <c r="H781" s="32"/>
-      <c r="I781" s="32"/>
-      <c r="J781" s="32"/>
-      <c r="K781" s="31"/>
+      <c r="I781" s="32" t="n">
+        <v>15</v>
+      </c>
+      <c r="J781" s="32" t="n">
+        <v>13</v>
+      </c>
+      <c r="K781" s="31" t="s">
+        <v>1649</v>
+      </c>
       <c r="L781" s="5"/>
       <c r="M781" s="5"/>
       <c r="N781" s="5"/>
@@ -41822,17 +43692,35 @@
       <c r="Z781" s="5"/>
     </row>
     <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A782" s="31"/>
-      <c r="B782" s="31"/>
-      <c r="C782" s="31"/>
-      <c r="D782" s="31"/>
-      <c r="E782" s="31"/>
-      <c r="F782" s="32"/>
+      <c r="A782" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B782" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C782" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D782" s="31" t="s">
+        <v>1650</v>
+      </c>
+      <c r="E782" s="31" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F782" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G782" s="32"/>
       <c r="H782" s="32"/>
-      <c r="I782" s="32"/>
-      <c r="J782" s="32"/>
-      <c r="K782" s="31"/>
+      <c r="I782" s="32" t="n">
+        <v>13</v>
+      </c>
+      <c r="J782" s="32" t="n">
+        <v>27</v>
+      </c>
+      <c r="K782" s="31" t="s">
+        <v>1652</v>
+      </c>
       <c r="L782" s="5"/>
       <c r="M782" s="5"/>
       <c r="N782" s="5"/>
@@ -41850,17 +43738,35 @@
       <c r="Z782" s="5"/>
     </row>
     <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A783" s="31"/>
-      <c r="B783" s="31"/>
-      <c r="C783" s="31"/>
-      <c r="D783" s="31"/>
-      <c r="E783" s="31"/>
-      <c r="F783" s="32"/>
+      <c r="A783" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B783" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C783" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D783" s="31" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E783" s="31" t="s">
+        <v>1654</v>
+      </c>
+      <c r="F783" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G783" s="32"/>
       <c r="H783" s="32"/>
-      <c r="I783" s="32"/>
-      <c r="J783" s="32"/>
-      <c r="K783" s="31"/>
+      <c r="I783" s="32" t="n">
+        <v>14</v>
+      </c>
+      <c r="J783" s="32" t="n">
+        <v>26</v>
+      </c>
+      <c r="K783" s="31" t="s">
+        <v>147</v>
+      </c>
       <c r="L783" s="5"/>
       <c r="M783" s="5"/>
       <c r="N783" s="5"/>
@@ -41878,17 +43784,35 @@
       <c r="Z783" s="5"/>
     </row>
     <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A784" s="31"/>
-      <c r="B784" s="31"/>
-      <c r="C784" s="31"/>
-      <c r="D784" s="31"/>
-      <c r="E784" s="31"/>
-      <c r="F784" s="32"/>
+      <c r="A784" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B784" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C784" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D784" s="31" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E784" s="31" t="s">
+        <v>1656</v>
+      </c>
+      <c r="F784" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G784" s="32"/>
       <c r="H784" s="32"/>
-      <c r="I784" s="32"/>
-      <c r="J784" s="32"/>
-      <c r="K784" s="31"/>
+      <c r="I784" s="32" t="n">
+        <v>15</v>
+      </c>
+      <c r="J784" s="32" t="n">
+        <v>24</v>
+      </c>
+      <c r="K784" s="31" t="s">
+        <v>135</v>
+      </c>
       <c r="L784" s="5"/>
       <c r="M784" s="5"/>
       <c r="N784" s="5"/>
@@ -41906,17 +43830,35 @@
       <c r="Z784" s="5"/>
     </row>
     <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A785" s="31"/>
-      <c r="B785" s="31"/>
-      <c r="C785" s="31"/>
-      <c r="D785" s="31"/>
-      <c r="E785" s="31"/>
-      <c r="F785" s="32"/>
+      <c r="A785" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B785" s="31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C785" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D785" s="31" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E785" s="31" t="s">
+        <v>1658</v>
+      </c>
+      <c r="F785" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G785" s="32"/>
       <c r="H785" s="32"/>
-      <c r="I785" s="32"/>
-      <c r="J785" s="32"/>
-      <c r="K785" s="31"/>
+      <c r="I785" s="32" t="n">
+        <v>16</v>
+      </c>
+      <c r="J785" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="K785" s="31" t="s">
+        <v>233</v>
+      </c>
       <c r="L785" s="5"/>
       <c r="M785" s="5"/>
       <c r="N785" s="5"/>
@@ -41934,1012 +43876,2448 @@
       <c r="Z785" s="5"/>
     </row>
     <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A786" s="31"/>
-      <c r="B786" s="31"/>
-      <c r="C786" s="31"/>
-      <c r="D786" s="31"/>
-      <c r="E786" s="31"/>
-      <c r="F786" s="32"/>
-      <c r="G786" s="32"/>
-      <c r="H786" s="32"/>
-      <c r="I786" s="32"/>
-      <c r="J786" s="32"/>
-      <c r="K786" s="31"/>
+      <c r="A786" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B786" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C786" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="D786" s="31" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E786" s="31" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F786" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G786" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H786" s="32" t="n">
+        <v>152</v>
+      </c>
+      <c r="I786" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J786" s="32" t="n">
+        <v>118</v>
+      </c>
+      <c r="K786" s="31" t="s">
+        <v>497</v>
+      </c>
       <c r="L786" s="5"/>
       <c r="M786" s="5"/>
       <c r="N786" s="5"/>
       <c r="O786" s="5"/>
-      <c r="P786" s="5"/>
-      <c r="Q786" s="5"/>
-      <c r="R786" s="5"/>
-      <c r="S786" s="5"/>
-      <c r="T786" s="5"/>
-      <c r="U786" s="5"/>
-      <c r="V786" s="5"/>
-      <c r="W786" s="5"/>
-      <c r="X786" s="5"/>
-      <c r="Y786" s="5"/>
-      <c r="Z786" s="5"/>
+      <c r="P786" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q786" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R786" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S786" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="T786" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="U786" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="V786" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W786" s="5" t="n">
+        <v>82</v>
+      </c>
+      <c r="X786" s="5" t="n">
+        <v>101</v>
+      </c>
+      <c r="Y786" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z786" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A787" s="31"/>
-      <c r="B787" s="31"/>
-      <c r="C787" s="31"/>
-      <c r="D787" s="31"/>
-      <c r="E787" s="31"/>
-      <c r="F787" s="32"/>
-      <c r="G787" s="32"/>
-      <c r="H787" s="32"/>
-      <c r="I787" s="32"/>
-      <c r="J787" s="32"/>
-      <c r="K787" s="31"/>
+      <c r="A787" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B787" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C787" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D787" s="31" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E787" s="31" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F787" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G787" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H787" s="32" t="n">
+        <v>142</v>
+      </c>
+      <c r="I787" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="J787" s="32" t="n">
+        <v>85</v>
+      </c>
+      <c r="K787" s="31" t="s">
+        <v>1664</v>
+      </c>
       <c r="L787" s="5"/>
       <c r="M787" s="5"/>
       <c r="N787" s="5"/>
       <c r="O787" s="5"/>
-      <c r="P787" s="5"/>
-      <c r="Q787" s="5"/>
-      <c r="R787" s="5"/>
-      <c r="S787" s="5"/>
-      <c r="T787" s="5"/>
-      <c r="U787" s="5"/>
-      <c r="V787" s="5"/>
-      <c r="W787" s="5"/>
-      <c r="X787" s="5"/>
-      <c r="Y787" s="5"/>
-      <c r="Z787" s="5"/>
+      <c r="P787" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q787" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R787" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S787" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="T787" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="U787" s="5" t="n">
+        <v>57</v>
+      </c>
+      <c r="V787" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="W787" s="5" t="n">
+        <v>58</v>
+      </c>
+      <c r="X787" s="5" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y787" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z787" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A788" s="31"/>
-      <c r="B788" s="31"/>
-      <c r="C788" s="31"/>
-      <c r="D788" s="31"/>
-      <c r="E788" s="31"/>
-      <c r="F788" s="32"/>
-      <c r="G788" s="32"/>
-      <c r="H788" s="32"/>
-      <c r="I788" s="32"/>
-      <c r="J788" s="32"/>
-      <c r="K788" s="31"/>
+      <c r="A788" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B788" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C788" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D788" s="31" t="s">
+        <v>907</v>
+      </c>
+      <c r="E788" s="31" t="s">
+        <v>1665</v>
+      </c>
+      <c r="F788" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G788" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="H788" s="32" t="n">
+        <v>137</v>
+      </c>
+      <c r="I788" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J788" s="32" t="n">
+        <v>81</v>
+      </c>
+      <c r="K788" s="31" t="s">
+        <v>1537</v>
+      </c>
       <c r="L788" s="5"/>
       <c r="M788" s="5"/>
       <c r="N788" s="5"/>
       <c r="O788" s="5"/>
-      <c r="P788" s="5"/>
-      <c r="Q788" s="5"/>
-      <c r="R788" s="5"/>
-      <c r="S788" s="5"/>
-      <c r="T788" s="5"/>
-      <c r="U788" s="5"/>
-      <c r="V788" s="5"/>
-      <c r="W788" s="5"/>
-      <c r="X788" s="5"/>
-      <c r="Y788" s="5"/>
-      <c r="Z788" s="5"/>
+      <c r="P788" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q788" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="R788" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S788" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="T788" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="U788" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="V788" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W788" s="5" t="n">
+        <v>70</v>
+      </c>
+      <c r="X788" s="5" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y788" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z788" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A789" s="31"/>
-      <c r="B789" s="31"/>
-      <c r="C789" s="31"/>
-      <c r="D789" s="31"/>
-      <c r="E789" s="31"/>
-      <c r="F789" s="32"/>
-      <c r="G789" s="32"/>
-      <c r="H789" s="32"/>
-      <c r="I789" s="32"/>
-      <c r="J789" s="32"/>
-      <c r="K789" s="31"/>
+      <c r="A789" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B789" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C789" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D789" s="31" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E789" s="31" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F789" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G789" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="H789" s="32" t="n">
+        <v>136</v>
+      </c>
+      <c r="I789" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J789" s="32" t="n">
+        <v>81</v>
+      </c>
+      <c r="K789" s="31" t="s">
+        <v>1668</v>
+      </c>
       <c r="L789" s="5"/>
       <c r="M789" s="5"/>
       <c r="N789" s="5"/>
       <c r="O789" s="5"/>
-      <c r="P789" s="5"/>
-      <c r="Q789" s="5"/>
-      <c r="R789" s="5"/>
-      <c r="S789" s="5"/>
-      <c r="T789" s="5"/>
-      <c r="U789" s="5"/>
-      <c r="V789" s="5"/>
-      <c r="W789" s="5"/>
-      <c r="X789" s="5"/>
-      <c r="Y789" s="5"/>
-      <c r="Z789" s="5"/>
+      <c r="P789" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q789" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R789" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S789" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="T789" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="U789" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="V789" s="5" t="n">
+        <v>-2</v>
+      </c>
+      <c r="W789" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="X789" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="Y789" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z789" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A790" s="31"/>
-      <c r="B790" s="31"/>
-      <c r="C790" s="31"/>
-      <c r="D790" s="31"/>
-      <c r="E790" s="31"/>
-      <c r="F790" s="32"/>
-      <c r="G790" s="32"/>
-      <c r="H790" s="32"/>
-      <c r="I790" s="32"/>
-      <c r="J790" s="32"/>
-      <c r="K790" s="31"/>
+      <c r="A790" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B790" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C790" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D790" s="31" t="s">
+        <v>806</v>
+      </c>
+      <c r="E790" s="31" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F790" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G790" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="H790" s="32" t="n">
+        <v>133</v>
+      </c>
+      <c r="I790" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J790" s="32" t="n">
+        <v>89</v>
+      </c>
+      <c r="K790" s="31" t="s">
+        <v>1175</v>
+      </c>
       <c r="L790" s="5"/>
       <c r="M790" s="5"/>
       <c r="N790" s="5"/>
       <c r="O790" s="5"/>
-      <c r="P790" s="5"/>
-      <c r="Q790" s="5"/>
-      <c r="R790" s="5"/>
-      <c r="S790" s="5"/>
-      <c r="T790" s="5"/>
-      <c r="U790" s="5"/>
-      <c r="V790" s="5"/>
-      <c r="W790" s="5"/>
-      <c r="X790" s="5"/>
-      <c r="Y790" s="5"/>
-      <c r="Z790" s="5"/>
+      <c r="P790" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q790" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="R790" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S790" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="T790" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="U790" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="V790" s="5" t="n">
+        <v>-2</v>
+      </c>
+      <c r="W790" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="X790" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="Y790" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z790" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A791" s="31"/>
-      <c r="B791" s="31"/>
-      <c r="C791" s="31"/>
-      <c r="D791" s="31"/>
-      <c r="E791" s="31"/>
-      <c r="F791" s="32"/>
-      <c r="G791" s="32"/>
-      <c r="H791" s="32"/>
-      <c r="I791" s="32"/>
-      <c r="J791" s="32"/>
-      <c r="K791" s="31"/>
+      <c r="A791" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B791" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C791" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="D791" s="31" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E791" s="31" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F791" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G791" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="H791" s="32" t="n">
+        <v>113</v>
+      </c>
+      <c r="I791" s="32" t="n">
+        <v>8</v>
+      </c>
+      <c r="J791" s="32" t="n">
+        <v>62</v>
+      </c>
+      <c r="K791" s="31" t="s">
+        <v>147</v>
+      </c>
       <c r="L791" s="5"/>
       <c r="M791" s="5"/>
       <c r="N791" s="5"/>
       <c r="O791" s="5"/>
-      <c r="P791" s="5"/>
-      <c r="Q791" s="5"/>
-      <c r="R791" s="5"/>
-      <c r="S791" s="5"/>
-      <c r="T791" s="5"/>
-      <c r="U791" s="5"/>
-      <c r="V791" s="5"/>
-      <c r="W791" s="5"/>
-      <c r="X791" s="5"/>
-      <c r="Y791" s="5"/>
-      <c r="Z791" s="5"/>
+      <c r="P791" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q791" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="R791" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S791" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="T791" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="U791" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="V791" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="W791" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="X791" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y791" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z791" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A792" s="31"/>
-      <c r="B792" s="31"/>
-      <c r="C792" s="31"/>
-      <c r="D792" s="31"/>
-      <c r="E792" s="31"/>
-      <c r="F792" s="32"/>
-      <c r="G792" s="32"/>
-      <c r="H792" s="32"/>
-      <c r="I792" s="32"/>
-      <c r="J792" s="32"/>
-      <c r="K792" s="31"/>
+      <c r="A792" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B792" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C792" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D792" s="31" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E792" s="31" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F792" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G792" s="32" t="n">
+        <v>7</v>
+      </c>
+      <c r="H792" s="32" t="n">
+        <v>109</v>
+      </c>
+      <c r="I792" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="J792" s="32" t="n">
+        <v>75</v>
+      </c>
+      <c r="K792" s="31" t="s">
+        <v>320</v>
+      </c>
       <c r="L792" s="5"/>
       <c r="M792" s="5"/>
       <c r="N792" s="5"/>
       <c r="O792" s="5"/>
-      <c r="P792" s="5"/>
-      <c r="Q792" s="5"/>
-      <c r="R792" s="5"/>
-      <c r="S792" s="5"/>
-      <c r="T792" s="5"/>
-      <c r="U792" s="5"/>
-      <c r="V792" s="5"/>
-      <c r="W792" s="5"/>
-      <c r="X792" s="5"/>
-      <c r="Y792" s="5"/>
-      <c r="Z792" s="5"/>
+      <c r="P792" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q792" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="R792" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S792" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="T792" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="U792" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="V792" s="5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="W792" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="X792" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="Y792" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z792" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A793" s="31"/>
-      <c r="B793" s="31"/>
-      <c r="C793" s="31"/>
-      <c r="D793" s="31"/>
-      <c r="E793" s="31"/>
-      <c r="F793" s="32"/>
-      <c r="G793" s="32"/>
-      <c r="H793" s="32"/>
-      <c r="I793" s="32"/>
-      <c r="J793" s="32"/>
-      <c r="K793" s="31"/>
+      <c r="A793" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B793" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C793" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D793" s="31" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E793" s="31" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F793" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G793" s="32" t="n">
+        <v>8</v>
+      </c>
+      <c r="H793" s="32" t="n">
+        <v>104</v>
+      </c>
+      <c r="I793" s="32" t="n">
+        <v>7</v>
+      </c>
+      <c r="J793" s="32" t="n">
+        <v>72</v>
+      </c>
+      <c r="K793" s="31" t="s">
+        <v>62</v>
+      </c>
       <c r="L793" s="5"/>
       <c r="M793" s="5"/>
       <c r="N793" s="5"/>
       <c r="O793" s="5"/>
-      <c r="P793" s="5"/>
-      <c r="Q793" s="5"/>
-      <c r="R793" s="5"/>
-      <c r="S793" s="5"/>
-      <c r="T793" s="5"/>
-      <c r="U793" s="5"/>
-      <c r="V793" s="5"/>
-      <c r="W793" s="5"/>
-      <c r="X793" s="5"/>
-      <c r="Y793" s="5"/>
-      <c r="Z793" s="5"/>
+      <c r="P793" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q793" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="R793" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S793" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="T793" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="U793" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="V793" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W793" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="X793" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="Y793" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z793" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A794" s="31"/>
-      <c r="B794" s="31"/>
-      <c r="C794" s="31"/>
-      <c r="D794" s="31"/>
-      <c r="E794" s="31"/>
-      <c r="F794" s="32"/>
-      <c r="G794" s="32"/>
-      <c r="H794" s="32"/>
-      <c r="I794" s="32"/>
-      <c r="J794" s="32"/>
-      <c r="K794" s="31"/>
+      <c r="A794" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B794" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C794" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="D794" s="31" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E794" s="31" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F794" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G794" s="32" t="n">
+        <v>9</v>
+      </c>
+      <c r="H794" s="32" t="n">
+        <v>94</v>
+      </c>
+      <c r="I794" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="J794" s="32" t="n">
+        <v>85</v>
+      </c>
+      <c r="K794" s="31" t="s">
+        <v>904</v>
+      </c>
       <c r="L794" s="5"/>
       <c r="M794" s="5"/>
       <c r="N794" s="5"/>
       <c r="O794" s="5"/>
-      <c r="P794" s="5"/>
-      <c r="Q794" s="5"/>
-      <c r="R794" s="5"/>
-      <c r="S794" s="5"/>
-      <c r="T794" s="5"/>
-      <c r="U794" s="5"/>
-      <c r="V794" s="5"/>
-      <c r="W794" s="5"/>
-      <c r="X794" s="5"/>
-      <c r="Y794" s="5"/>
-      <c r="Z794" s="5"/>
+      <c r="P794" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q794" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="R794" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S794" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="T794" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="U794" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="V794" s="5" t="n">
+        <v>-4</v>
+      </c>
+      <c r="W794" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="X794" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y794" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z794" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A795" s="31"/>
-      <c r="B795" s="31"/>
-      <c r="C795" s="31"/>
-      <c r="D795" s="31"/>
-      <c r="E795" s="31"/>
-      <c r="F795" s="32"/>
-      <c r="G795" s="32"/>
-      <c r="H795" s="32"/>
-      <c r="I795" s="32"/>
-      <c r="J795" s="32"/>
-      <c r="K795" s="31"/>
+      <c r="A795" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B795" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C795" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D795" s="31" t="s">
+        <v>894</v>
+      </c>
+      <c r="E795" s="31" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F795" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G795" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="H795" s="32" t="n">
+        <v>86</v>
+      </c>
+      <c r="I795" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J795" s="32" t="n">
+        <v>124</v>
+      </c>
+      <c r="K795" s="31" t="s">
+        <v>307</v>
+      </c>
       <c r="L795" s="5"/>
       <c r="M795" s="5"/>
       <c r="N795" s="5"/>
       <c r="O795" s="5"/>
-      <c r="P795" s="5"/>
-      <c r="Q795" s="5"/>
-      <c r="R795" s="5"/>
-      <c r="S795" s="5"/>
-      <c r="T795" s="5"/>
-      <c r="U795" s="5"/>
-      <c r="V795" s="5"/>
-      <c r="W795" s="5"/>
-      <c r="X795" s="5"/>
-      <c r="Y795" s="5"/>
-      <c r="Z795" s="5"/>
+      <c r="P795" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q795" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R795" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S795" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="T795" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="U795" s="5" t="n">
+        <v>-38</v>
+      </c>
+      <c r="V795" s="5" t="n">
+        <v>-9</v>
+      </c>
+      <c r="W795" s="5" t="n">
+        <v>86</v>
+      </c>
+      <c r="X795" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="Y795" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z795" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A796" s="31"/>
-      <c r="B796" s="31"/>
-      <c r="C796" s="31"/>
-      <c r="D796" s="31"/>
-      <c r="E796" s="31"/>
-      <c r="F796" s="32"/>
-      <c r="G796" s="32"/>
-      <c r="H796" s="32"/>
-      <c r="I796" s="32"/>
-      <c r="J796" s="32"/>
-      <c r="K796" s="31"/>
+      <c r="A796" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B796" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C796" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D796" s="31" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E796" s="31" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F796" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G796" s="32" t="n">
+        <v>11</v>
+      </c>
+      <c r="H796" s="32" t="n">
+        <v>84</v>
+      </c>
+      <c r="I796" s="32" t="n">
+        <v>8</v>
+      </c>
+      <c r="J796" s="32" t="n">
+        <v>64</v>
+      </c>
+      <c r="K796" s="31" t="s">
+        <v>95</v>
+      </c>
       <c r="L796" s="5"/>
       <c r="M796" s="5"/>
       <c r="N796" s="5"/>
       <c r="O796" s="5"/>
-      <c r="P796" s="5"/>
-      <c r="Q796" s="5"/>
-      <c r="R796" s="5"/>
-      <c r="S796" s="5"/>
-      <c r="T796" s="5"/>
-      <c r="U796" s="5"/>
-      <c r="V796" s="5"/>
-      <c r="W796" s="5"/>
-      <c r="X796" s="5"/>
-      <c r="Y796" s="5"/>
-      <c r="Z796" s="5"/>
+      <c r="P796" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q796" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="R796" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S796" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="T796" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="U796" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="V796" s="5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="W796" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="X796" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y796" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z796" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A797" s="31"/>
-      <c r="B797" s="31"/>
-      <c r="C797" s="31"/>
-      <c r="D797" s="31"/>
-      <c r="E797" s="31"/>
-      <c r="F797" s="32"/>
-      <c r="G797" s="32"/>
-      <c r="H797" s="32"/>
-      <c r="I797" s="32"/>
-      <c r="J797" s="32"/>
-      <c r="K797" s="31"/>
+      <c r="A797" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B797" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C797" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D797" s="31" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E797" s="31" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F797" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G797" s="32" t="n">
+        <v>12</v>
+      </c>
+      <c r="H797" s="32" t="n">
+        <v>80</v>
+      </c>
+      <c r="I797" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J797" s="32" t="n">
+        <v>93</v>
+      </c>
+      <c r="K797" s="31" t="s">
+        <v>75</v>
+      </c>
       <c r="L797" s="5"/>
       <c r="M797" s="5"/>
       <c r="N797" s="5"/>
       <c r="O797" s="5"/>
-      <c r="P797" s="5"/>
-      <c r="Q797" s="5"/>
-      <c r="R797" s="5"/>
-      <c r="S797" s="5"/>
-      <c r="T797" s="5"/>
-      <c r="U797" s="5"/>
-      <c r="V797" s="5"/>
-      <c r="W797" s="5"/>
-      <c r="X797" s="5"/>
-      <c r="Y797" s="5"/>
-      <c r="Z797" s="5"/>
+      <c r="P797" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q797" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="R797" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S797" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="T797" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="U797" s="5" t="n">
+        <v>-13</v>
+      </c>
+      <c r="V797" s="5" t="n">
+        <v>-10</v>
+      </c>
+      <c r="W797" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="X797" s="5" t="n">
+        <v>65</v>
+      </c>
+      <c r="Y797" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z797" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A798" s="31"/>
-      <c r="B798" s="31"/>
-      <c r="C798" s="31"/>
-      <c r="D798" s="31"/>
-      <c r="E798" s="31"/>
-      <c r="F798" s="32"/>
-      <c r="G798" s="32"/>
-      <c r="H798" s="32"/>
-      <c r="I798" s="32"/>
-      <c r="J798" s="32"/>
-      <c r="K798" s="31"/>
+      <c r="A798" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B798" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C798" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="D798" s="31" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E798" s="31" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F798" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G798" s="32" t="n">
+        <v>13</v>
+      </c>
+      <c r="H798" s="32" t="n">
+        <v>74</v>
+      </c>
+      <c r="I798" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="J798" s="32" t="n">
+        <v>56</v>
+      </c>
+      <c r="K798" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="L798" s="5"/>
       <c r="M798" s="5"/>
       <c r="N798" s="5"/>
       <c r="O798" s="5"/>
-      <c r="P798" s="5"/>
-      <c r="Q798" s="5"/>
-      <c r="R798" s="5"/>
-      <c r="S798" s="5"/>
-      <c r="T798" s="5"/>
-      <c r="U798" s="5"/>
-      <c r="V798" s="5"/>
-      <c r="W798" s="5"/>
-      <c r="X798" s="5"/>
-      <c r="Y798" s="5"/>
-      <c r="Z798" s="5"/>
+      <c r="P798" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q798" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R798" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S798" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="T798" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="U798" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="V798" s="5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="W798" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="X798" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y798" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z798" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A799" s="31"/>
-      <c r="B799" s="31"/>
-      <c r="C799" s="31"/>
-      <c r="D799" s="31"/>
-      <c r="E799" s="31"/>
-      <c r="F799" s="32"/>
-      <c r="G799" s="32"/>
-      <c r="H799" s="32"/>
-      <c r="I799" s="32"/>
-      <c r="J799" s="32"/>
-      <c r="K799" s="31"/>
+      <c r="A799" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B799" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C799" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D799" s="31" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E799" s="31" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F799" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G799" s="32" t="n">
+        <v>14</v>
+      </c>
+      <c r="H799" s="32" t="n">
+        <v>71</v>
+      </c>
+      <c r="I799" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="J799" s="32" t="n">
+        <v>66</v>
+      </c>
+      <c r="K799" s="31" t="s">
+        <v>915</v>
+      </c>
       <c r="L799" s="5"/>
       <c r="M799" s="5"/>
       <c r="N799" s="5"/>
       <c r="O799" s="5"/>
-      <c r="P799" s="5"/>
-      <c r="Q799" s="5"/>
-      <c r="R799" s="5"/>
-      <c r="S799" s="5"/>
-      <c r="T799" s="5"/>
-      <c r="U799" s="5"/>
-      <c r="V799" s="5"/>
-      <c r="W799" s="5"/>
-      <c r="X799" s="5"/>
-      <c r="Y799" s="5"/>
-      <c r="Z799" s="5"/>
+      <c r="P799" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q799" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="R799" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S799" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="T799" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="U799" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V799" s="5" t="n">
+        <v>-8</v>
+      </c>
+      <c r="W799" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="X799" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="Y799" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z799" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A800" s="31"/>
-      <c r="B800" s="31"/>
-      <c r="C800" s="31"/>
-      <c r="D800" s="31"/>
-      <c r="E800" s="31"/>
-      <c r="F800" s="32"/>
-      <c r="G800" s="32"/>
-      <c r="H800" s="32"/>
-      <c r="I800" s="32"/>
-      <c r="J800" s="32"/>
-      <c r="K800" s="31"/>
+      <c r="A800" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B800" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C800" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D800" s="31" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E800" s="31" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F800" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G800" s="32" t="n">
+        <v>15</v>
+      </c>
+      <c r="H800" s="32" t="n">
+        <v>68</v>
+      </c>
+      <c r="I800" s="32" t="n">
+        <v>9</v>
+      </c>
+      <c r="J800" s="32" t="n">
+        <v>62</v>
+      </c>
+      <c r="K800" s="31" t="s">
+        <v>1615</v>
+      </c>
       <c r="L800" s="5"/>
       <c r="M800" s="5"/>
       <c r="N800" s="5"/>
       <c r="O800" s="5"/>
-      <c r="P800" s="5"/>
-      <c r="Q800" s="5"/>
-      <c r="R800" s="5"/>
-      <c r="S800" s="5"/>
-      <c r="T800" s="5"/>
-      <c r="U800" s="5"/>
-      <c r="V800" s="5"/>
-      <c r="W800" s="5"/>
-      <c r="X800" s="5"/>
-      <c r="Y800" s="5"/>
-      <c r="Z800" s="5"/>
+      <c r="P800" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q800" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="R800" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S800" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="T800" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="U800" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="V800" s="5" t="n">
+        <v>-6</v>
+      </c>
+      <c r="W800" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="X800" s="5" t="n">
+        <v>53</v>
+      </c>
+      <c r="Y800" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z800" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A801" s="31"/>
-      <c r="B801" s="31"/>
-      <c r="C801" s="31"/>
-      <c r="D801" s="31"/>
-      <c r="E801" s="31"/>
-      <c r="F801" s="32"/>
-      <c r="G801" s="32"/>
-      <c r="H801" s="32"/>
-      <c r="I801" s="32"/>
-      <c r="J801" s="32"/>
-      <c r="K801" s="31"/>
+      <c r="A801" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B801" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C801" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D801" s="31" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E801" s="31" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F801" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G801" s="32" t="n">
+        <v>16</v>
+      </c>
+      <c r="H801" s="32" t="n">
+        <v>68</v>
+      </c>
+      <c r="I801" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="J801" s="32" t="n">
+        <v>76</v>
+      </c>
+      <c r="K801" s="31" t="s">
+        <v>719</v>
+      </c>
       <c r="L801" s="5"/>
       <c r="M801" s="5"/>
       <c r="N801" s="5"/>
       <c r="O801" s="5"/>
-      <c r="P801" s="5"/>
-      <c r="Q801" s="5"/>
-      <c r="R801" s="5"/>
-      <c r="S801" s="5"/>
-      <c r="T801" s="5"/>
-      <c r="U801" s="5"/>
-      <c r="V801" s="5"/>
-      <c r="W801" s="5"/>
-      <c r="X801" s="5"/>
-      <c r="Y801" s="5"/>
-      <c r="Z801" s="5"/>
+      <c r="P801" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q801" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="R801" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S801" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="T801" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="U801" s="5" t="n">
+        <v>-8</v>
+      </c>
+      <c r="V801" s="5" t="n">
+        <v>-10</v>
+      </c>
+      <c r="W801" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="X801" s="5" t="n">
+        <v>53</v>
+      </c>
+      <c r="Y801" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z801" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A802" s="31"/>
-      <c r="B802" s="31"/>
-      <c r="C802" s="31"/>
-      <c r="D802" s="31"/>
-      <c r="E802" s="31"/>
-      <c r="F802" s="32"/>
-      <c r="G802" s="32"/>
-      <c r="H802" s="32"/>
-      <c r="I802" s="32"/>
-      <c r="J802" s="32"/>
-      <c r="K802" s="31"/>
+      <c r="A802" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B802" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C802" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D802" s="31" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E802" s="31" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F802" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G802" s="32" t="n">
+        <v>17</v>
+      </c>
+      <c r="H802" s="32" t="n">
+        <v>64</v>
+      </c>
+      <c r="I802" s="32" t="n">
+        <v>9</v>
+      </c>
+      <c r="J802" s="32" t="n">
+        <v>64</v>
+      </c>
+      <c r="K802" s="31" t="s">
+        <v>1693</v>
+      </c>
       <c r="L802" s="5"/>
       <c r="M802" s="5"/>
       <c r="N802" s="5"/>
       <c r="O802" s="5"/>
-      <c r="P802" s="5"/>
-      <c r="Q802" s="5"/>
-      <c r="R802" s="5"/>
-      <c r="S802" s="5"/>
-      <c r="T802" s="5"/>
-      <c r="U802" s="5"/>
-      <c r="V802" s="5"/>
-      <c r="W802" s="5"/>
-      <c r="X802" s="5"/>
-      <c r="Y802" s="5"/>
-      <c r="Z802" s="5"/>
+      <c r="P802" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q802" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="R802" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S802" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="T802" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="U802" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V802" s="5" t="n">
+        <v>-8</v>
+      </c>
+      <c r="W802" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="X802" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="Y802" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z802" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A803" s="31"/>
-      <c r="B803" s="31"/>
-      <c r="C803" s="31"/>
-      <c r="D803" s="31"/>
-      <c r="E803" s="31"/>
-      <c r="F803" s="32"/>
-      <c r="G803" s="32"/>
-      <c r="H803" s="32"/>
-      <c r="I803" s="32"/>
-      <c r="J803" s="32"/>
-      <c r="K803" s="31"/>
+      <c r="A803" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B803" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C803" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D803" s="31" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E803" s="31" t="s">
+        <v>1695</v>
+      </c>
+      <c r="F803" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G803" s="32" t="n">
+        <v>18</v>
+      </c>
+      <c r="H803" s="32" t="n">
+        <v>60</v>
+      </c>
+      <c r="I803" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="J803" s="32" t="n">
+        <v>58</v>
+      </c>
+      <c r="K803" s="31" t="s">
+        <v>43</v>
+      </c>
       <c r="L803" s="5"/>
       <c r="M803" s="5"/>
       <c r="N803" s="5"/>
       <c r="O803" s="5"/>
-      <c r="P803" s="5"/>
-      <c r="Q803" s="5"/>
-      <c r="R803" s="5"/>
-      <c r="S803" s="5"/>
-      <c r="T803" s="5"/>
-      <c r="U803" s="5"/>
-      <c r="V803" s="5"/>
-      <c r="W803" s="5"/>
-      <c r="X803" s="5"/>
-      <c r="Y803" s="5"/>
-      <c r="Z803" s="5"/>
+      <c r="P803" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q803" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R803" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S803" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="T803" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="U803" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V803" s="5" t="n">
+        <v>-8</v>
+      </c>
+      <c r="W803" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="X803" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="Y803" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z803" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A804" s="31"/>
-      <c r="B804" s="31"/>
-      <c r="C804" s="31"/>
-      <c r="D804" s="31"/>
-      <c r="E804" s="31"/>
-      <c r="F804" s="32"/>
-      <c r="G804" s="32"/>
-      <c r="H804" s="32"/>
-      <c r="I804" s="32"/>
-      <c r="J804" s="32"/>
-      <c r="K804" s="31"/>
+      <c r="A804" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B804" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C804" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D804" s="31" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E804" s="31" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F804" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G804" s="32" t="n">
+        <v>19</v>
+      </c>
+      <c r="H804" s="32" t="n">
+        <v>60</v>
+      </c>
+      <c r="I804" s="32" t="n">
+        <v>11</v>
+      </c>
+      <c r="J804" s="32" t="n">
+        <v>56</v>
+      </c>
+      <c r="K804" s="31" t="s">
+        <v>333</v>
+      </c>
       <c r="L804" s="5"/>
       <c r="M804" s="5"/>
       <c r="N804" s="5"/>
       <c r="O804" s="5"/>
-      <c r="P804" s="5"/>
-      <c r="Q804" s="5"/>
-      <c r="R804" s="5"/>
-      <c r="S804" s="5"/>
-      <c r="T804" s="5"/>
-      <c r="U804" s="5"/>
-      <c r="V804" s="5"/>
-      <c r="W804" s="5"/>
-      <c r="X804" s="5"/>
-      <c r="Y804" s="5"/>
-      <c r="Z804" s="5"/>
+      <c r="P804" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q804" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R804" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S804" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="T804" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="U804" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V804" s="5" t="n">
+        <v>-8</v>
+      </c>
+      <c r="W804" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="X804" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="Y804" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z804" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A805" s="31"/>
-      <c r="B805" s="31"/>
-      <c r="C805" s="31"/>
-      <c r="D805" s="31"/>
-      <c r="E805" s="31"/>
-      <c r="F805" s="32"/>
-      <c r="G805" s="32"/>
-      <c r="H805" s="32"/>
-      <c r="I805" s="32"/>
-      <c r="J805" s="32"/>
-      <c r="K805" s="31"/>
+      <c r="A805" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B805" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C805" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D805" s="31" t="s">
+        <v>840</v>
+      </c>
+      <c r="E805" s="31" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F805" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G805" s="32" t="n">
+        <v>20</v>
+      </c>
+      <c r="H805" s="32" t="n">
+        <v>55</v>
+      </c>
+      <c r="I805" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="J805" s="32" t="n">
+        <v>71</v>
+      </c>
+      <c r="K805" s="31" t="s">
+        <v>1288</v>
+      </c>
       <c r="L805" s="5"/>
       <c r="M805" s="5"/>
       <c r="N805" s="5"/>
       <c r="O805" s="5"/>
-      <c r="P805" s="5"/>
-      <c r="Q805" s="5"/>
-      <c r="R805" s="5"/>
-      <c r="S805" s="5"/>
-      <c r="T805" s="5"/>
-      <c r="U805" s="5"/>
-      <c r="V805" s="5"/>
-      <c r="W805" s="5"/>
-      <c r="X805" s="5"/>
-      <c r="Y805" s="5"/>
-      <c r="Z805" s="5"/>
+      <c r="P805" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q805" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="R805" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S805" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="T805" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="U805" s="5" t="n">
+        <v>-16</v>
+      </c>
+      <c r="V805" s="5" t="n">
+        <v>-15</v>
+      </c>
+      <c r="W805" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="X805" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="Y805" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z805" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A806" s="31"/>
-      <c r="B806" s="31"/>
-      <c r="C806" s="31"/>
-      <c r="D806" s="31"/>
-      <c r="E806" s="31"/>
-      <c r="F806" s="32"/>
-      <c r="G806" s="32"/>
-      <c r="H806" s="32"/>
-      <c r="I806" s="32"/>
-      <c r="J806" s="32"/>
-      <c r="K806" s="31"/>
+      <c r="A806" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B806" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C806" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D806" s="31" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E806" s="31" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F806" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G806" s="32" t="n">
+        <v>21</v>
+      </c>
+      <c r="H806" s="32" t="n">
+        <v>46</v>
+      </c>
+      <c r="I806" s="32" t="n">
+        <v>12</v>
+      </c>
+      <c r="J806" s="32" t="n">
+        <v>52</v>
+      </c>
+      <c r="K806" s="31" t="s">
+        <v>1652</v>
+      </c>
       <c r="L806" s="5"/>
       <c r="M806" s="5"/>
       <c r="N806" s="5"/>
       <c r="O806" s="5"/>
-      <c r="P806" s="5"/>
-      <c r="Q806" s="5"/>
-      <c r="R806" s="5"/>
-      <c r="S806" s="5"/>
-      <c r="T806" s="5"/>
-      <c r="U806" s="5"/>
-      <c r="V806" s="5"/>
-      <c r="W806" s="5"/>
-      <c r="X806" s="5"/>
-      <c r="Y806" s="5"/>
-      <c r="Z806" s="5"/>
+      <c r="P806" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q806" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="R806" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S806" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="T806" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="U806" s="5" t="n">
+        <v>-6</v>
+      </c>
+      <c r="V806" s="5" t="n">
+        <v>-9</v>
+      </c>
+      <c r="W806" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="X806" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y806" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z806" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A807" s="31"/>
-      <c r="B807" s="31"/>
-      <c r="C807" s="31"/>
-      <c r="D807" s="31"/>
-      <c r="E807" s="31"/>
-      <c r="F807" s="32"/>
-      <c r="G807" s="32"/>
-      <c r="H807" s="32"/>
-      <c r="I807" s="32"/>
-      <c r="J807" s="32"/>
-      <c r="K807" s="31"/>
+      <c r="A807" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B807" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C807" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D807" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="E807" s="31" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F807" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G807" s="32" t="n">
+        <v>22</v>
+      </c>
+      <c r="H807" s="32" t="n">
+        <v>44</v>
+      </c>
+      <c r="I807" s="32" t="n">
+        <v>12</v>
+      </c>
+      <c r="J807" s="32" t="n">
+        <v>44</v>
+      </c>
+      <c r="K807" s="31" t="s">
+        <v>1595</v>
+      </c>
       <c r="L807" s="5"/>
       <c r="M807" s="5"/>
       <c r="N807" s="5"/>
       <c r="O807" s="5"/>
-      <c r="P807" s="5"/>
-      <c r="Q807" s="5"/>
-      <c r="R807" s="5"/>
-      <c r="S807" s="5"/>
-      <c r="T807" s="5"/>
-      <c r="U807" s="5"/>
-      <c r="V807" s="5"/>
-      <c r="W807" s="5"/>
-      <c r="X807" s="5"/>
-      <c r="Y807" s="5"/>
-      <c r="Z807" s="5"/>
+      <c r="P807" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q807" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="R807" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S807" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="T807" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="U807" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V807" s="5" t="n">
+        <v>-10</v>
+      </c>
+      <c r="W807" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="X807" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="Y807" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z807" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A808" s="31"/>
-      <c r="B808" s="31"/>
-      <c r="C808" s="31"/>
-      <c r="D808" s="31"/>
-      <c r="E808" s="31"/>
-      <c r="F808" s="32"/>
-      <c r="G808" s="32"/>
-      <c r="H808" s="32"/>
+      <c r="A808" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B808" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C808" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D808" s="31" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E808" s="31" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F808" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G808" s="32" t="n">
+        <v>23</v>
+      </c>
+      <c r="H808" s="32" t="n">
+        <v>41</v>
+      </c>
       <c r="I808" s="32"/>
       <c r="J808" s="32"/>
-      <c r="K808" s="31"/>
+      <c r="K808" s="31" t="s">
+        <v>171</v>
+      </c>
       <c r="L808" s="5"/>
       <c r="M808" s="5"/>
       <c r="N808" s="5"/>
       <c r="O808" s="5"/>
       <c r="P808" s="5"/>
-      <c r="Q808" s="5"/>
-      <c r="R808" s="5"/>
-      <c r="S808" s="5"/>
+      <c r="Q808" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="R808" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S808" s="5" t="n">
+        <v>6</v>
+      </c>
       <c r="T808" s="5"/>
       <c r="U808" s="5"/>
       <c r="V808" s="5"/>
       <c r="W808" s="5"/>
       <c r="X808" s="5"/>
-      <c r="Y808" s="5"/>
-      <c r="Z808" s="5"/>
+      <c r="Y808" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z808" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A809" s="31"/>
-      <c r="B809" s="31"/>
-      <c r="C809" s="31"/>
-      <c r="D809" s="31"/>
-      <c r="E809" s="31"/>
-      <c r="F809" s="32"/>
-      <c r="G809" s="32"/>
-      <c r="H809" s="32"/>
-      <c r="I809" s="32"/>
-      <c r="J809" s="32"/>
-      <c r="K809" s="31"/>
+      <c r="A809" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B809" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C809" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="D809" s="31" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E809" s="31" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F809" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G809" s="32" t="n">
+        <v>24</v>
+      </c>
+      <c r="H809" s="32" t="n">
+        <v>39</v>
+      </c>
+      <c r="I809" s="32" t="n">
+        <v>11</v>
+      </c>
+      <c r="J809" s="32" t="n">
+        <v>49</v>
+      </c>
+      <c r="K809" s="31" t="s">
+        <v>549</v>
+      </c>
       <c r="L809" s="5"/>
       <c r="M809" s="5"/>
       <c r="N809" s="5"/>
       <c r="O809" s="5"/>
-      <c r="P809" s="5"/>
-      <c r="Q809" s="5"/>
-      <c r="R809" s="5"/>
-      <c r="S809" s="5"/>
-      <c r="T809" s="5"/>
-      <c r="U809" s="5"/>
-      <c r="V809" s="5"/>
-      <c r="W809" s="5"/>
-      <c r="X809" s="5"/>
-      <c r="Y809" s="5"/>
-      <c r="Z809" s="5"/>
+      <c r="P809" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q809" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="R809" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S809" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="T809" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="U809" s="5" t="n">
+        <v>-10</v>
+      </c>
+      <c r="V809" s="5" t="n">
+        <v>-13</v>
+      </c>
+      <c r="W809" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X809" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y809" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z809" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A810" s="31"/>
-      <c r="B810" s="31"/>
-      <c r="C810" s="31"/>
-      <c r="D810" s="31"/>
-      <c r="E810" s="31"/>
-      <c r="F810" s="32"/>
-      <c r="G810" s="32"/>
-      <c r="H810" s="32"/>
-      <c r="I810" s="32"/>
-      <c r="J810" s="32"/>
-      <c r="K810" s="31"/>
+      <c r="A810" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B810" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C810" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="D810" s="31" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E810" s="31" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F810" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G810" s="32" t="n">
+        <v>25</v>
+      </c>
+      <c r="H810" s="32" t="n">
+        <v>28</v>
+      </c>
+      <c r="I810" s="32" t="n">
+        <v>7</v>
+      </c>
+      <c r="J810" s="32" t="n">
+        <v>62</v>
+      </c>
+      <c r="K810" s="31" t="s">
+        <v>1178</v>
+      </c>
       <c r="L810" s="5"/>
       <c r="M810" s="5"/>
       <c r="N810" s="5"/>
       <c r="O810" s="5"/>
-      <c r="P810" s="5"/>
-      <c r="Q810" s="5"/>
-      <c r="R810" s="5"/>
-      <c r="S810" s="5"/>
-      <c r="T810" s="5"/>
-      <c r="U810" s="5"/>
-      <c r="V810" s="5"/>
-      <c r="W810" s="5"/>
-      <c r="X810" s="5"/>
-      <c r="Y810" s="5"/>
-      <c r="Z810" s="5"/>
+      <c r="P810" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q810" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="R810" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S810" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="T810" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="U810" s="5" t="n">
+        <v>-34</v>
+      </c>
+      <c r="V810" s="5" t="n">
+        <v>-18</v>
+      </c>
+      <c r="W810" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="X810" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y810" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z810" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A811" s="31"/>
-      <c r="B811" s="31"/>
-      <c r="C811" s="31"/>
-      <c r="D811" s="31"/>
-      <c r="E811" s="31"/>
-      <c r="F811" s="32"/>
+      <c r="A811" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B811" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C811" s="31" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D811" s="31" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E811" s="31" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F811" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G811" s="32"/>
       <c r="H811" s="32"/>
-      <c r="I811" s="32"/>
-      <c r="J811" s="32"/>
-      <c r="K811" s="31"/>
+      <c r="I811" s="32" t="n">
+        <v>13</v>
+      </c>
+      <c r="J811" s="32" t="n">
+        <v>43</v>
+      </c>
+      <c r="K811" s="31" t="s">
+        <v>1649</v>
+      </c>
       <c r="L811" s="5"/>
       <c r="M811" s="5"/>
       <c r="N811" s="5"/>
       <c r="O811" s="5"/>
-      <c r="P811" s="5"/>
+      <c r="P811" s="5" t="n">
+        <v>15</v>
+      </c>
       <c r="Q811" s="5"/>
-      <c r="R811" s="5"/>
+      <c r="R811" s="33" t="b">
+        <v>0</v>
+      </c>
       <c r="S811" s="5"/>
-      <c r="T811" s="5"/>
+      <c r="T811" s="5" t="n">
+        <v>8</v>
+      </c>
       <c r="U811" s="5"/>
       <c r="V811" s="5"/>
-      <c r="W811" s="5"/>
-      <c r="X811" s="5"/>
-      <c r="Y811" s="5"/>
-      <c r="Z811" s="5"/>
+      <c r="W811" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="X811" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y811" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z811" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A812" s="31"/>
-      <c r="B812" s="31"/>
-      <c r="C812" s="31"/>
-      <c r="D812" s="31"/>
-      <c r="E812" s="31"/>
-      <c r="F812" s="32"/>
+      <c r="A812" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B812" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C812" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D812" s="31" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E812" s="31" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F812" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G812" s="32"/>
       <c r="H812" s="32"/>
-      <c r="I812" s="32"/>
-      <c r="J812" s="32"/>
-      <c r="K812" s="31"/>
+      <c r="I812" s="32" t="n">
+        <v>14</v>
+      </c>
+      <c r="J812" s="32" t="n">
+        <v>43</v>
+      </c>
+      <c r="K812" s="31" t="s">
+        <v>135</v>
+      </c>
       <c r="L812" s="5"/>
       <c r="M812" s="5"/>
       <c r="N812" s="5"/>
       <c r="O812" s="5"/>
-      <c r="P812" s="5"/>
+      <c r="P812" s="5" t="n">
+        <v>9</v>
+      </c>
       <c r="Q812" s="5"/>
-      <c r="R812" s="5"/>
+      <c r="R812" s="33" t="b">
+        <v>0</v>
+      </c>
       <c r="S812" s="5"/>
-      <c r="T812" s="5"/>
+      <c r="T812" s="5" t="n">
+        <v>6</v>
+      </c>
       <c r="U812" s="5"/>
       <c r="V812" s="5"/>
-      <c r="W812" s="5"/>
-      <c r="X812" s="5"/>
-      <c r="Y812" s="5"/>
-      <c r="Z812" s="5"/>
+      <c r="W812" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="X812" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y812" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z812" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A813" s="31"/>
-      <c r="B813" s="31"/>
-      <c r="C813" s="31"/>
-      <c r="D813" s="31"/>
-      <c r="E813" s="31"/>
-      <c r="F813" s="32"/>
+      <c r="A813" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B813" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C813" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D813" s="31" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E813" s="31" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F813" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G813" s="32"/>
       <c r="H813" s="32"/>
-      <c r="I813" s="32"/>
-      <c r="J813" s="32"/>
-      <c r="K813" s="31"/>
+      <c r="I813" s="32" t="n">
+        <v>15</v>
+      </c>
+      <c r="J813" s="32" t="n">
+        <v>39</v>
+      </c>
+      <c r="K813" s="31" t="s">
+        <v>1193</v>
+      </c>
       <c r="L813" s="5"/>
       <c r="M813" s="5"/>
       <c r="N813" s="5"/>
       <c r="O813" s="5"/>
-      <c r="P813" s="5"/>
+      <c r="P813" s="5" t="n">
+        <v>11</v>
+      </c>
       <c r="Q813" s="5"/>
-      <c r="R813" s="5"/>
+      <c r="R813" s="33" t="b">
+        <v>0</v>
+      </c>
       <c r="S813" s="5"/>
-      <c r="T813" s="5"/>
+      <c r="T813" s="5" t="n">
+        <v>8</v>
+      </c>
       <c r="U813" s="5"/>
       <c r="V813" s="5"/>
-      <c r="W813" s="5"/>
-      <c r="X813" s="5"/>
-      <c r="Y813" s="5"/>
-      <c r="Z813" s="5"/>
+      <c r="W813" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="X813" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y813" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z813" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A814" s="31"/>
-      <c r="B814" s="31"/>
-      <c r="C814" s="31"/>
-      <c r="D814" s="31"/>
-      <c r="E814" s="31"/>
-      <c r="F814" s="32"/>
+      <c r="A814" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B814" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C814" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D814" s="31" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E814" s="31" t="s">
+        <v>1715</v>
+      </c>
+      <c r="F814" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G814" s="32"/>
       <c r="H814" s="32"/>
-      <c r="I814" s="32"/>
-      <c r="J814" s="32"/>
-      <c r="K814" s="31"/>
+      <c r="I814" s="32" t="n">
+        <v>16</v>
+      </c>
+      <c r="J814" s="32" t="n">
+        <v>19</v>
+      </c>
+      <c r="K814" s="31" t="s">
+        <v>1716</v>
+      </c>
       <c r="L814" s="5"/>
       <c r="M814" s="5"/>
       <c r="N814" s="5"/>
       <c r="O814" s="5"/>
-      <c r="P814" s="5"/>
+      <c r="P814" s="5" t="n">
+        <v>16</v>
+      </c>
       <c r="Q814" s="5"/>
-      <c r="R814" s="5"/>
+      <c r="R814" s="33" t="b">
+        <v>0</v>
+      </c>
       <c r="S814" s="5"/>
-      <c r="T814" s="5"/>
+      <c r="T814" s="5" t="n">
+        <v>8</v>
+      </c>
       <c r="U814" s="5"/>
       <c r="V814" s="5"/>
-      <c r="W814" s="5"/>
-      <c r="X814" s="5"/>
-      <c r="Y814" s="5"/>
-      <c r="Z814" s="5"/>
+      <c r="W814" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X814" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y814" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z814" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A815" s="31"/>
-      <c r="B815" s="31"/>
-      <c r="C815" s="31"/>
-      <c r="D815" s="31"/>
-      <c r="E815" s="31"/>
-      <c r="F815" s="32"/>
+      <c r="A815" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B815" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C815" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D815" s="31" t="s">
+        <v>1717</v>
+      </c>
+      <c r="E815" s="31" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F815" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G815" s="32"/>
       <c r="H815" s="32"/>
-      <c r="I815" s="32"/>
-      <c r="J815" s="32"/>
-      <c r="K815" s="31"/>
+      <c r="I815" s="32" t="n">
+        <v>17</v>
+      </c>
+      <c r="J815" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="K815" s="31" t="s">
+        <v>27</v>
+      </c>
       <c r="L815" s="5"/>
       <c r="M815" s="5"/>
       <c r="N815" s="5"/>
       <c r="O815" s="5"/>
-      <c r="P815" s="5"/>
+      <c r="P815" s="5" t="n">
+        <v>12</v>
+      </c>
       <c r="Q815" s="5"/>
-      <c r="R815" s="5"/>
+      <c r="R815" s="33" t="b">
+        <v>0</v>
+      </c>
       <c r="S815" s="5"/>
-      <c r="T815" s="5"/>
+      <c r="T815" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="U815" s="5"/>
       <c r="V815" s="5"/>
-      <c r="W815" s="5"/>
-      <c r="X815" s="5"/>
-      <c r="Y815" s="5"/>
-      <c r="Z815" s="5"/>
+      <c r="W815" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X815" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y815" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z815" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A816" s="31"/>
-      <c r="B816" s="31"/>
-      <c r="C816" s="31"/>
-      <c r="D816" s="31"/>
-      <c r="E816" s="31"/>
-      <c r="F816" s="32"/>
+      <c r="A816" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B816" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C816" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="D816" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="E816" s="31" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F816" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G816" s="32"/>
       <c r="H816" s="32"/>
-      <c r="I816" s="32"/>
-      <c r="J816" s="32"/>
-      <c r="K816" s="31"/>
+      <c r="I816" s="32" t="n">
+        <v>13</v>
+      </c>
+      <c r="J816" s="32" t="n">
+        <v>48</v>
+      </c>
+      <c r="K816" s="31" t="s">
+        <v>1720</v>
+      </c>
       <c r="L816" s="5"/>
       <c r="M816" s="5"/>
       <c r="N816" s="5"/>
       <c r="O816" s="5"/>
-      <c r="P816" s="5"/>
+      <c r="P816" s="5" t="n">
+        <v>8</v>
+      </c>
       <c r="Q816" s="5"/>
-      <c r="R816" s="5"/>
+      <c r="R816" s="33" t="b">
+        <v>0</v>
+      </c>
       <c r="S816" s="5"/>
-      <c r="T816" s="5"/>
+      <c r="T816" s="5" t="n">
+        <v>9</v>
+      </c>
       <c r="U816" s="5"/>
       <c r="V816" s="5"/>
-      <c r="W816" s="5"/>
-      <c r="X816" s="5"/>
-      <c r="Y816" s="5"/>
-      <c r="Z816" s="5"/>
+      <c r="W816" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="X816" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y816" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z816" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A817" s="31"/>
-      <c r="B817" s="31"/>
-      <c r="C817" s="31"/>
-      <c r="D817" s="31"/>
-      <c r="E817" s="31"/>
-      <c r="F817" s="32"/>
+      <c r="A817" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B817" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C817" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D817" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E817" s="31" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F817" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G817" s="32"/>
       <c r="H817" s="32"/>
-      <c r="I817" s="32"/>
-      <c r="J817" s="32"/>
-      <c r="K817" s="31"/>
+      <c r="I817" s="32" t="n">
+        <v>14</v>
+      </c>
+      <c r="J817" s="32" t="n">
+        <v>40</v>
+      </c>
+      <c r="K817" s="31" t="s">
+        <v>1141</v>
+      </c>
       <c r="L817" s="5"/>
       <c r="M817" s="5"/>
       <c r="N817" s="5"/>
       <c r="O817" s="5"/>
-      <c r="P817" s="5"/>
+      <c r="P817" s="5" t="n">
+        <v>17</v>
+      </c>
       <c r="Q817" s="5"/>
-      <c r="R817" s="5"/>
+      <c r="R817" s="33" t="b">
+        <v>0</v>
+      </c>
       <c r="S817" s="5"/>
-      <c r="T817" s="5"/>
+      <c r="T817" s="5" t="n">
+        <v>9</v>
+      </c>
       <c r="U817" s="5"/>
       <c r="V817" s="5"/>
-      <c r="W817" s="5"/>
-      <c r="X817" s="5"/>
-      <c r="Y817" s="5"/>
-      <c r="Z817" s="5"/>
+      <c r="W817" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="X817" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y817" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z817" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A818" s="31"/>
-      <c r="B818" s="31"/>
-      <c r="C818" s="31"/>
-      <c r="D818" s="31"/>
-      <c r="E818" s="31"/>
-      <c r="F818" s="32"/>
+      <c r="A818" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B818" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C818" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="D818" s="31" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E818" s="31" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F818" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G818" s="32"/>
       <c r="H818" s="32"/>
-      <c r="I818" s="32"/>
-      <c r="J818" s="32"/>
-      <c r="K818" s="31"/>
+      <c r="I818" s="32" t="n">
+        <v>15</v>
+      </c>
+      <c r="J818" s="32" t="n">
+        <v>37</v>
+      </c>
+      <c r="K818" s="31" t="s">
+        <v>54</v>
+      </c>
       <c r="L818" s="5"/>
       <c r="M818" s="5"/>
       <c r="N818" s="5"/>
       <c r="O818" s="5"/>
-      <c r="P818" s="5"/>
+      <c r="P818" s="5" t="n">
+        <v>9</v>
+      </c>
       <c r="Q818" s="5"/>
-      <c r="R818" s="5"/>
+      <c r="R818" s="33" t="b">
+        <v>0</v>
+      </c>
       <c r="S818" s="5"/>
-      <c r="T818" s="5"/>
+      <c r="T818" s="5" t="n">
+        <v>8</v>
+      </c>
       <c r="U818" s="5"/>
       <c r="V818" s="5"/>
-      <c r="W818" s="5"/>
-      <c r="X818" s="5"/>
-      <c r="Y818" s="5"/>
-      <c r="Z818" s="5"/>
+      <c r="W818" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X818" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y818" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z818" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A819" s="31"/>
-      <c r="B819" s="31"/>
-      <c r="C819" s="31"/>
-      <c r="D819" s="31"/>
-      <c r="E819" s="31"/>
-      <c r="F819" s="32"/>
+      <c r="A819" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B819" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C819" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D819" s="31" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E819" s="31" t="s">
+        <v>1724</v>
+      </c>
+      <c r="F819" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G819" s="32"/>
       <c r="H819" s="32"/>
-      <c r="I819" s="32"/>
-      <c r="J819" s="32"/>
-      <c r="K819" s="31"/>
+      <c r="I819" s="32" t="n">
+        <v>16</v>
+      </c>
+      <c r="J819" s="32" t="n">
+        <v>24</v>
+      </c>
+      <c r="K819" s="31" t="s">
+        <v>436</v>
+      </c>
       <c r="L819" s="5"/>
       <c r="M819" s="5"/>
       <c r="N819" s="5"/>
       <c r="O819" s="5"/>
-      <c r="P819" s="5"/>
+      <c r="P819" s="5" t="n">
+        <v>11</v>
+      </c>
       <c r="Q819" s="5"/>
-      <c r="R819" s="5"/>
+      <c r="R819" s="33" t="b">
+        <v>0</v>
+      </c>
       <c r="S819" s="5"/>
-      <c r="T819" s="5"/>
+      <c r="T819" s="5" t="n">
+        <v>4</v>
+      </c>
       <c r="U819" s="5"/>
       <c r="V819" s="5"/>
-      <c r="W819" s="5"/>
-      <c r="X819" s="5"/>
-      <c r="Y819" s="5"/>
-      <c r="Z819" s="5"/>
+      <c r="W819" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="X819" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y819" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z819" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A820" s="31"/>
-      <c r="B820" s="31"/>
-      <c r="C820" s="31"/>
-      <c r="D820" s="31"/>
-      <c r="E820" s="31"/>
-      <c r="F820" s="32"/>
+      <c r="A820" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B820" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C820" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D820" s="31" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E820" s="31" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F820" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G820" s="32"/>
       <c r="H820" s="32"/>
-      <c r="I820" s="32"/>
-      <c r="J820" s="32"/>
-      <c r="K820" s="31"/>
+      <c r="I820" s="32" t="n">
+        <v>17</v>
+      </c>
+      <c r="J820" s="32" t="n">
+        <v>23</v>
+      </c>
+      <c r="K820" s="31" t="s">
+        <v>1552</v>
+      </c>
       <c r="L820" s="5"/>
       <c r="M820" s="5"/>
       <c r="N820" s="5"/>
       <c r="O820" s="5"/>
-      <c r="P820" s="5"/>
+      <c r="P820" s="5" t="n">
+        <v>15</v>
+      </c>
       <c r="Q820" s="5"/>
-      <c r="R820" s="5"/>
+      <c r="R820" s="33" t="b">
+        <v>0</v>
+      </c>
       <c r="S820" s="5"/>
-      <c r="T820" s="5"/>
+      <c r="T820" s="5" t="n">
+        <v>7</v>
+      </c>
       <c r="U820" s="5"/>
       <c r="V820" s="5"/>
-      <c r="W820" s="5"/>
-      <c r="X820" s="5"/>
-      <c r="Y820" s="5"/>
-      <c r="Z820" s="5"/>
+      <c r="W820" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X820" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y820" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z820" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A821" s="31"/>
-      <c r="B821" s="31"/>
-      <c r="C821" s="31"/>
-      <c r="D821" s="31"/>
-      <c r="E821" s="31"/>
-      <c r="F821" s="32"/>
+      <c r="A821" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B821" s="31" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C821" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D821" s="31" t="s">
+        <v>1727</v>
+      </c>
+      <c r="E821" s="31" t="s">
+        <v>1728</v>
+      </c>
+      <c r="F821" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G821" s="32"/>
       <c r="H821" s="32"/>
-      <c r="I821" s="32"/>
-      <c r="J821" s="32"/>
-      <c r="K821" s="31"/>
+      <c r="I821" s="32" t="n">
+        <v>18</v>
+      </c>
+      <c r="J821" s="32" t="n">
+        <v>22</v>
+      </c>
+      <c r="K821" s="31" t="s">
+        <v>233</v>
+      </c>
       <c r="L821" s="5"/>
       <c r="M821" s="5"/>
       <c r="N821" s="5"/>
       <c r="O821" s="5"/>
-      <c r="P821" s="5"/>
+      <c r="P821" s="5" t="n">
+        <v>18</v>
+      </c>
       <c r="Q821" s="5"/>
-      <c r="R821" s="5"/>
+      <c r="R821" s="33" t="b">
+        <v>0</v>
+      </c>
       <c r="S821" s="5"/>
-      <c r="T821" s="5"/>
+      <c r="T821" s="5" t="n">
+        <v>4</v>
+      </c>
       <c r="U821" s="5"/>
       <c r="V821" s="5"/>
-      <c r="W821" s="5"/>
-      <c r="X821" s="5"/>
-      <c r="Y821" s="5"/>
-      <c r="Z821" s="5"/>
+      <c r="W821" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="X821" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y821" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z821" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="31"/>
@@ -43165,7 +46543,7 @@
       <c r="Y829" s="5"/>
       <c r="Z829" s="5"/>
     </row>
-    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="31"/>
       <c r="B830" s="31"/>
       <c r="C830" s="31"/>
@@ -43193,7 +46571,7 @@
       <c r="Y830" s="5"/>
       <c r="Z830" s="5"/>
     </row>
-    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="31"/>
       <c r="B831" s="31"/>
       <c r="C831" s="31"/>
@@ -43221,7 +46599,7 @@
       <c r="Y831" s="5"/>
       <c r="Z831" s="5"/>
     </row>
-    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="31"/>
       <c r="B832" s="31"/>
       <c r="C832" s="31"/>
@@ -43249,7 +46627,7 @@
       <c r="Y832" s="5"/>
       <c r="Z832" s="5"/>
     </row>
-    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="31"/>
       <c r="B833" s="31"/>
       <c r="C833" s="31"/>
@@ -43277,7 +46655,7 @@
       <c r="Y833" s="5"/>
       <c r="Z833" s="5"/>
     </row>
-    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="31"/>
       <c r="B834" s="31"/>
       <c r="C834" s="31"/>
@@ -43305,7 +46683,7 @@
       <c r="Y834" s="5"/>
       <c r="Z834" s="5"/>
     </row>
-    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="31"/>
       <c r="B835" s="31"/>
       <c r="C835" s="31"/>
@@ -43333,7 +46711,7 @@
       <c r="Y835" s="5"/>
       <c r="Z835" s="5"/>
     </row>
-    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="31"/>
       <c r="B836" s="31"/>
       <c r="C836" s="31"/>
@@ -43361,7 +46739,7 @@
       <c r="Y836" s="5"/>
       <c r="Z836" s="5"/>
     </row>
-    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="31"/>
       <c r="B837" s="31"/>
       <c r="C837" s="31"/>
@@ -43389,7 +46767,7 @@
       <c r="Y837" s="5"/>
       <c r="Z837" s="5"/>
     </row>
-    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="31"/>
       <c r="B838" s="31"/>
       <c r="C838" s="31"/>
@@ -43417,7 +46795,7 @@
       <c r="Y838" s="5"/>
       <c r="Z838" s="5"/>
     </row>
-    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="31"/>
       <c r="B839" s="31"/>
       <c r="C839" s="31"/>
@@ -43445,7 +46823,7 @@
       <c r="Y839" s="5"/>
       <c r="Z839" s="5"/>
     </row>
-    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="31"/>
       <c r="B840" s="31"/>
       <c r="C840" s="31"/>
@@ -43473,7 +46851,7 @@
       <c r="Y840" s="5"/>
       <c r="Z840" s="5"/>
     </row>
-    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="31"/>
       <c r="B841" s="31"/>
       <c r="C841" s="31"/>
@@ -43501,7 +46879,7 @@
       <c r="Y841" s="5"/>
       <c r="Z841" s="5"/>
     </row>
-    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="31"/>
       <c r="B842" s="31"/>
       <c r="C842" s="31"/>
@@ -43529,7 +46907,7 @@
       <c r="Y842" s="5"/>
       <c r="Z842" s="5"/>
     </row>
-    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="31"/>
       <c r="B843" s="31"/>
       <c r="C843" s="31"/>
@@ -43557,7 +46935,7 @@
       <c r="Y843" s="5"/>
       <c r="Z843" s="5"/>
     </row>
-    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="31"/>
       <c r="B844" s="31"/>
       <c r="C844" s="31"/>
@@ -43585,7 +46963,7 @@
       <c r="Y844" s="5"/>
       <c r="Z844" s="5"/>
     </row>
-    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="31"/>
       <c r="B845" s="31"/>
       <c r="C845" s="31"/>
@@ -43613,7 +46991,7 @@
       <c r="Y845" s="5"/>
       <c r="Z845" s="5"/>
     </row>
-    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="31"/>
       <c r="B846" s="31"/>
       <c r="C846" s="31"/>
@@ -43641,7 +47019,7 @@
       <c r="Y846" s="5"/>
       <c r="Z846" s="5"/>
     </row>
-    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="31"/>
       <c r="B847" s="31"/>
       <c r="C847" s="31"/>
@@ -43669,7 +47047,7 @@
       <c r="Y847" s="5"/>
       <c r="Z847" s="5"/>
     </row>
-    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="31"/>
       <c r="B848" s="31"/>
       <c r="C848" s="31"/>
@@ -43697,7 +47075,7 @@
       <c r="Y848" s="5"/>
       <c r="Z848" s="5"/>
     </row>
-    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="31"/>
       <c r="B849" s="31"/>
       <c r="C849" s="31"/>
@@ -43725,7 +47103,7 @@
       <c r="Y849" s="5"/>
       <c r="Z849" s="5"/>
     </row>
-    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="31"/>
       <c r="B850" s="31"/>
       <c r="C850" s="31"/>
@@ -43753,7 +47131,7 @@
       <c r="Y850" s="5"/>
       <c r="Z850" s="5"/>
     </row>
-    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="31"/>
       <c r="B851" s="31"/>
       <c r="C851" s="31"/>
@@ -43781,7 +47159,7 @@
       <c r="Y851" s="5"/>
       <c r="Z851" s="5"/>
     </row>
-    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="31"/>
       <c r="B852" s="31"/>
       <c r="C852" s="31"/>
@@ -43809,7 +47187,7 @@
       <c r="Y852" s="5"/>
       <c r="Z852" s="5"/>
     </row>
-    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="31"/>
       <c r="B853" s="31"/>
       <c r="C853" s="31"/>
@@ -43837,7 +47215,7 @@
       <c r="Y853" s="5"/>
       <c r="Z853" s="5"/>
     </row>
-    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="31"/>
       <c r="B854" s="31"/>
       <c r="C854" s="31"/>
@@ -43865,7 +47243,7 @@
       <c r="Y854" s="5"/>
       <c r="Z854" s="5"/>
     </row>
-    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="31"/>
       <c r="B855" s="31"/>
       <c r="C855" s="31"/>
@@ -43893,7 +47271,7 @@
       <c r="Y855" s="5"/>
       <c r="Z855" s="5"/>
     </row>
-    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="31"/>
       <c r="B856" s="31"/>
       <c r="C856" s="31"/>
@@ -43921,7 +47299,7 @@
       <c r="Y856" s="5"/>
       <c r="Z856" s="5"/>
     </row>
-    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="31"/>
       <c r="B857" s="31"/>
       <c r="C857" s="31"/>
@@ -43949,7 +47327,7 @@
       <c r="Y857" s="5"/>
       <c r="Z857" s="5"/>
     </row>
-    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="31"/>
       <c r="B858" s="31"/>
       <c r="C858" s="31"/>
@@ -43977,7 +47355,7 @@
       <c r="Y858" s="5"/>
       <c r="Z858" s="5"/>
     </row>
-    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="31"/>
       <c r="B859" s="31"/>
       <c r="C859" s="31"/>
@@ -44005,7 +47383,7 @@
       <c r="Y859" s="5"/>
       <c r="Z859" s="5"/>
     </row>
-    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="31"/>
       <c r="B860" s="31"/>
       <c r="C860" s="31"/>
@@ -44033,7 +47411,7 @@
       <c r="Y860" s="5"/>
       <c r="Z860" s="5"/>
     </row>
-    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="31"/>
       <c r="B861" s="31"/>
       <c r="C861" s="31"/>
@@ -44061,7 +47439,7 @@
       <c r="Y861" s="5"/>
       <c r="Z861" s="5"/>
     </row>
-    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="31"/>
       <c r="B862" s="31"/>
       <c r="C862" s="31"/>
@@ -44089,7 +47467,7 @@
       <c r="Y862" s="5"/>
       <c r="Z862" s="5"/>
     </row>
-    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="31"/>
       <c r="B863" s="31"/>
       <c r="C863" s="31"/>
@@ -44117,7 +47495,7 @@
       <c r="Y863" s="5"/>
       <c r="Z863" s="5"/>
     </row>
-    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="31"/>
       <c r="B864" s="31"/>
       <c r="C864" s="31"/>
@@ -44145,7 +47523,7 @@
       <c r="Y864" s="5"/>
       <c r="Z864" s="5"/>
     </row>
-    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="31"/>
       <c r="B865" s="31"/>
       <c r="C865" s="31"/>
@@ -44173,7 +47551,7 @@
       <c r="Y865" s="5"/>
       <c r="Z865" s="5"/>
     </row>
-    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="31"/>
       <c r="B866" s="31"/>
       <c r="C866" s="31"/>
@@ -44201,7 +47579,7 @@
       <c r="Y866" s="5"/>
       <c r="Z866" s="5"/>
     </row>
-    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="31"/>
       <c r="B867" s="31"/>
       <c r="C867" s="31"/>
@@ -44229,7 +47607,7 @@
       <c r="Y867" s="5"/>
       <c r="Z867" s="5"/>
     </row>
-    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="31"/>
       <c r="B868" s="31"/>
       <c r="C868" s="31"/>
@@ -44257,7 +47635,7 @@
       <c r="Y868" s="5"/>
       <c r="Z868" s="5"/>
     </row>
-    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="31"/>
       <c r="B869" s="31"/>
       <c r="C869" s="31"/>
@@ -44285,7 +47663,7 @@
       <c r="Y869" s="5"/>
       <c r="Z869" s="5"/>
     </row>
-    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="31"/>
       <c r="B870" s="31"/>
       <c r="C870" s="31"/>
@@ -44313,7 +47691,7 @@
       <c r="Y870" s="5"/>
       <c r="Z870" s="5"/>
     </row>
-    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="31"/>
       <c r="B871" s="31"/>
       <c r="C871" s="31"/>
@@ -44341,7 +47719,7 @@
       <c r="Y871" s="5"/>
       <c r="Z871" s="5"/>
     </row>
-    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="31"/>
       <c r="B872" s="31"/>
       <c r="C872" s="31"/>
@@ -44369,7 +47747,7 @@
       <c r="Y872" s="5"/>
       <c r="Z872" s="5"/>
     </row>
-    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="31"/>
       <c r="B873" s="31"/>
       <c r="C873" s="31"/>
@@ -44397,7 +47775,7 @@
       <c r="Y873" s="5"/>
       <c r="Z873" s="5"/>
     </row>
-    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="31"/>
       <c r="B874" s="31"/>
       <c r="C874" s="31"/>
@@ -44425,7 +47803,7 @@
       <c r="Y874" s="5"/>
       <c r="Z874" s="5"/>
     </row>
-    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="31"/>
       <c r="B875" s="31"/>
       <c r="C875" s="31"/>
@@ -44453,7 +47831,7 @@
       <c r="Y875" s="5"/>
       <c r="Z875" s="5"/>
     </row>
-    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="31"/>
       <c r="B876" s="31"/>
       <c r="C876" s="31"/>
@@ -44481,7 +47859,7 @@
       <c r="Y876" s="5"/>
       <c r="Z876" s="5"/>
     </row>
-    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="31"/>
       <c r="B877" s="31"/>
       <c r="C877" s="31"/>
@@ -44509,7 +47887,7 @@
       <c r="Y877" s="5"/>
       <c r="Z877" s="5"/>
     </row>
-    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="31"/>
       <c r="B878" s="31"/>
       <c r="C878" s="31"/>
@@ -44537,7 +47915,7 @@
       <c r="Y878" s="5"/>
       <c r="Z878" s="5"/>
     </row>
-    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="31"/>
       <c r="B879" s="31"/>
       <c r="C879" s="31"/>
@@ -44565,7 +47943,7 @@
       <c r="Y879" s="5"/>
       <c r="Z879" s="5"/>
     </row>
-    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="31"/>
       <c r="B880" s="31"/>
       <c r="C880" s="31"/>
@@ -44593,7 +47971,7 @@
       <c r="Y880" s="5"/>
       <c r="Z880" s="5"/>
     </row>
-    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="31"/>
       <c r="B881" s="31"/>
       <c r="C881" s="31"/>
@@ -44621,7 +47999,7 @@
       <c r="Y881" s="5"/>
       <c r="Z881" s="5"/>
     </row>
-    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="31"/>
       <c r="B882" s="31"/>
       <c r="C882" s="31"/>
@@ -44649,7 +48027,7 @@
       <c r="Y882" s="5"/>
       <c r="Z882" s="5"/>
     </row>
-    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="31"/>
       <c r="B883" s="31"/>
       <c r="C883" s="31"/>
@@ -44677,7 +48055,7 @@
       <c r="Y883" s="5"/>
       <c r="Z883" s="5"/>
     </row>
-    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="31"/>
       <c r="B884" s="31"/>
       <c r="C884" s="31"/>
@@ -44705,7 +48083,7 @@
       <c r="Y884" s="5"/>
       <c r="Z884" s="5"/>
     </row>
-    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="31"/>
       <c r="B885" s="31"/>
       <c r="C885" s="31"/>
@@ -44733,7 +48111,7 @@
       <c r="Y885" s="5"/>
       <c r="Z885" s="5"/>
     </row>
-    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="31"/>
       <c r="B886" s="31"/>
       <c r="C886" s="31"/>
@@ -44761,7 +48139,7 @@
       <c r="Y886" s="5"/>
       <c r="Z886" s="5"/>
     </row>
-    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="31"/>
       <c r="B887" s="31"/>
       <c r="C887" s="31"/>
@@ -44789,7 +48167,7 @@
       <c r="Y887" s="5"/>
       <c r="Z887" s="5"/>
     </row>
-    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="31"/>
       <c r="B888" s="31"/>
       <c r="C888" s="31"/>
@@ -44817,7 +48195,7 @@
       <c r="Y888" s="5"/>
       <c r="Z888" s="5"/>
     </row>
-    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="31"/>
       <c r="B889" s="31"/>
       <c r="C889" s="31"/>
@@ -44845,7 +48223,7 @@
       <c r="Y889" s="5"/>
       <c r="Z889" s="5"/>
     </row>
-    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="31"/>
       <c r="B890" s="31"/>
       <c r="C890" s="31"/>
@@ -44873,7 +48251,7 @@
       <c r="Y890" s="5"/>
       <c r="Z890" s="5"/>
     </row>
-    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="31"/>
       <c r="B891" s="31"/>
       <c r="C891" s="31"/>
@@ -44901,7 +48279,7 @@
       <c r="Y891" s="5"/>
       <c r="Z891" s="5"/>
     </row>
-    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="31"/>
       <c r="B892" s="31"/>
       <c r="C892" s="31"/>
@@ -44929,7 +48307,7 @@
       <c r="Y892" s="5"/>
       <c r="Z892" s="5"/>
     </row>
-    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="31"/>
       <c r="B893" s="31"/>
       <c r="C893" s="31"/>
@@ -44957,7 +48335,7 @@
       <c r="Y893" s="5"/>
       <c r="Z893" s="5"/>
     </row>
-    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="31"/>
       <c r="B894" s="31"/>
       <c r="C894" s="31"/>
@@ -44985,7 +48363,7 @@
       <c r="Y894" s="5"/>
       <c r="Z894" s="5"/>
     </row>
-    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="31"/>
       <c r="B895" s="31"/>
       <c r="C895" s="31"/>
@@ -45013,7 +48391,7 @@
       <c r="Y895" s="5"/>
       <c r="Z895" s="5"/>
     </row>
-    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="31"/>
       <c r="B896" s="31"/>
       <c r="C896" s="31"/>
@@ -45041,7 +48419,7 @@
       <c r="Y896" s="5"/>
       <c r="Z896" s="5"/>
     </row>
-    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="31"/>
       <c r="B897" s="31"/>
       <c r="C897" s="31"/>
@@ -45069,7 +48447,7 @@
       <c r="Y897" s="5"/>
       <c r="Z897" s="5"/>
     </row>
-    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="31"/>
       <c r="B898" s="31"/>
       <c r="C898" s="31"/>
@@ -45097,7 +48475,7 @@
       <c r="Y898" s="5"/>
       <c r="Z898" s="5"/>
     </row>
-    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="31"/>
       <c r="B899" s="31"/>
       <c r="C899" s="31"/>
@@ -45125,7 +48503,7 @@
       <c r="Y899" s="5"/>
       <c r="Z899" s="5"/>
     </row>
-    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="31"/>
       <c r="B900" s="31"/>
       <c r="C900" s="31"/>
@@ -45153,7 +48531,7 @@
       <c r="Y900" s="5"/>
       <c r="Z900" s="5"/>
     </row>
-    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="31"/>
       <c r="B901" s="31"/>
       <c r="C901" s="31"/>
@@ -45181,7 +48559,7 @@
       <c r="Y901" s="5"/>
       <c r="Z901" s="5"/>
     </row>
-    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="31"/>
       <c r="B902" s="31"/>
       <c r="C902" s="31"/>
@@ -45209,7 +48587,7 @@
       <c r="Y902" s="5"/>
       <c r="Z902" s="5"/>
     </row>
-    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="31"/>
       <c r="B903" s="31"/>
       <c r="C903" s="31"/>
@@ -45237,7 +48615,7 @@
       <c r="Y903" s="5"/>
       <c r="Z903" s="5"/>
     </row>
-    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="31"/>
       <c r="B904" s="31"/>
       <c r="C904" s="31"/>
@@ -45265,7 +48643,7 @@
       <c r="Y904" s="5"/>
       <c r="Z904" s="5"/>
     </row>
-    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="31"/>
       <c r="B905" s="31"/>
       <c r="C905" s="31"/>
@@ -45293,7 +48671,7 @@
       <c r="Y905" s="5"/>
       <c r="Z905" s="5"/>
     </row>
-    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="31"/>
       <c r="B906" s="31"/>
       <c r="C906" s="31"/>
@@ -45321,7 +48699,7 @@
       <c r="Y906" s="5"/>
       <c r="Z906" s="5"/>
     </row>
-    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="31"/>
       <c r="B907" s="31"/>
       <c r="C907" s="31"/>
@@ -45349,7 +48727,7 @@
       <c r="Y907" s="5"/>
       <c r="Z907" s="5"/>
     </row>
-    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="31"/>
       <c r="B908" s="31"/>
       <c r="C908" s="31"/>
@@ -45377,7 +48755,7 @@
       <c r="Y908" s="5"/>
       <c r="Z908" s="5"/>
     </row>
-    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="31"/>
       <c r="B909" s="31"/>
       <c r="C909" s="31"/>
@@ -45405,7 +48783,7 @@
       <c r="Y909" s="5"/>
       <c r="Z909" s="5"/>
     </row>
-    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="31"/>
       <c r="B910" s="31"/>
       <c r="C910" s="31"/>
@@ -45433,7 +48811,7 @@
       <c r="Y910" s="5"/>
       <c r="Z910" s="5"/>
     </row>
-    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="31"/>
       <c r="B911" s="31"/>
       <c r="C911" s="31"/>
@@ -45461,7 +48839,7 @@
       <c r="Y911" s="5"/>
       <c r="Z911" s="5"/>
     </row>
-    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="31"/>
       <c r="B912" s="31"/>
       <c r="C912" s="31"/>
@@ -45489,7 +48867,7 @@
       <c r="Y912" s="5"/>
       <c r="Z912" s="5"/>
     </row>
-    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="31"/>
       <c r="B913" s="31"/>
       <c r="C913" s="31"/>
@@ -45517,7 +48895,7 @@
       <c r="Y913" s="5"/>
       <c r="Z913" s="5"/>
     </row>
-    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="31"/>
       <c r="B914" s="31"/>
       <c r="C914" s="31"/>
@@ -45545,7 +48923,7 @@
       <c r="Y914" s="5"/>
       <c r="Z914" s="5"/>
     </row>
-    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="31"/>
       <c r="B915" s="31"/>
       <c r="C915" s="31"/>
@@ -45573,7 +48951,7 @@
       <c r="Y915" s="5"/>
       <c r="Z915" s="5"/>
     </row>
-    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="31"/>
       <c r="B916" s="31"/>
       <c r="C916" s="31"/>
@@ -45601,7 +48979,7 @@
       <c r="Y916" s="5"/>
       <c r="Z916" s="5"/>
     </row>
-    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="31"/>
       <c r="B917" s="31"/>
       <c r="C917" s="31"/>
@@ -45629,7 +49007,7 @@
       <c r="Y917" s="5"/>
       <c r="Z917" s="5"/>
     </row>
-    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="31"/>
       <c r="B918" s="31"/>
       <c r="C918" s="31"/>
@@ -45657,7 +49035,7 @@
       <c r="Y918" s="5"/>
       <c r="Z918" s="5"/>
     </row>
-    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="31"/>
       <c r="B919" s="31"/>
       <c r="C919" s="31"/>
@@ -45685,7 +49063,7 @@
       <c r="Y919" s="5"/>
       <c r="Z919" s="5"/>
     </row>
-    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="31"/>
       <c r="B920" s="31"/>
       <c r="C920" s="31"/>
@@ -45713,7 +49091,7 @@
       <c r="Y920" s="5"/>
       <c r="Z920" s="5"/>
     </row>
-    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="31"/>
       <c r="B921" s="31"/>
       <c r="C921" s="31"/>
@@ -45741,7 +49119,7 @@
       <c r="Y921" s="5"/>
       <c r="Z921" s="5"/>
     </row>
-    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="31"/>
       <c r="B922" s="31"/>
       <c r="C922" s="31"/>
@@ -45769,7 +49147,7 @@
       <c r="Y922" s="5"/>
       <c r="Z922" s="5"/>
     </row>
-    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="31"/>
       <c r="B923" s="31"/>
       <c r="C923" s="31"/>
@@ -45797,7 +49175,7 @@
       <c r="Y923" s="5"/>
       <c r="Z923" s="5"/>
     </row>
-    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="31"/>
       <c r="B924" s="31"/>
       <c r="C924" s="31"/>
@@ -45825,7 +49203,7 @@
       <c r="Y924" s="5"/>
       <c r="Z924" s="5"/>
     </row>
-    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="31"/>
       <c r="B925" s="31"/>
       <c r="C925" s="31"/>
@@ -45853,7 +49231,7 @@
       <c r="Y925" s="5"/>
       <c r="Z925" s="5"/>
     </row>
-    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="31"/>
       <c r="B926" s="31"/>
       <c r="C926" s="31"/>
@@ -45881,7 +49259,7 @@
       <c r="Y926" s="5"/>
       <c r="Z926" s="5"/>
     </row>
-    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="31"/>
       <c r="B927" s="31"/>
       <c r="C927" s="31"/>
@@ -45909,7 +49287,7 @@
       <c r="Y927" s="5"/>
       <c r="Z927" s="5"/>
     </row>
-    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="31"/>
       <c r="B928" s="31"/>
       <c r="C928" s="31"/>
@@ -45937,7 +49315,7 @@
       <c r="Y928" s="5"/>
       <c r="Z928" s="5"/>
     </row>
-    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="31"/>
       <c r="B929" s="31"/>
       <c r="C929" s="31"/>
@@ -45965,7 +49343,7 @@
       <c r="Y929" s="5"/>
       <c r="Z929" s="5"/>
     </row>
-    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="31"/>
       <c r="B930" s="31"/>
       <c r="C930" s="31"/>
@@ -45993,7 +49371,7 @@
       <c r="Y930" s="5"/>
       <c r="Z930" s="5"/>
     </row>
-    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="31"/>
       <c r="B931" s="31"/>
       <c r="C931" s="31"/>
@@ -46021,7 +49399,7 @@
       <c r="Y931" s="5"/>
       <c r="Z931" s="5"/>
     </row>
-    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="31"/>
       <c r="B932" s="31"/>
       <c r="C932" s="31"/>
@@ -46049,7 +49427,7 @@
       <c r="Y932" s="5"/>
       <c r="Z932" s="5"/>
     </row>
-    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="31"/>
       <c r="B933" s="31"/>
       <c r="C933" s="31"/>
@@ -46077,7 +49455,7 @@
       <c r="Y933" s="5"/>
       <c r="Z933" s="5"/>
     </row>
-    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="31"/>
       <c r="B934" s="31"/>
       <c r="C934" s="31"/>
@@ -46105,7 +49483,7 @@
       <c r="Y934" s="5"/>
       <c r="Z934" s="5"/>
     </row>
-    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="31"/>
       <c r="B935" s="31"/>
       <c r="C935" s="31"/>
@@ -46133,7 +49511,7 @@
       <c r="Y935" s="5"/>
       <c r="Z935" s="5"/>
     </row>
-    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="31"/>
       <c r="B936" s="31"/>
       <c r="C936" s="31"/>
@@ -47337,62 +50715,8 @@
       <c r="Y978" s="5"/>
       <c r="Z978" s="5"/>
     </row>
-    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A979" s="31"/>
-      <c r="B979" s="31"/>
-      <c r="C979" s="31"/>
-      <c r="D979" s="31"/>
-      <c r="E979" s="31"/>
-      <c r="F979" s="32"/>
-      <c r="G979" s="32"/>
-      <c r="H979" s="32"/>
-      <c r="I979" s="32"/>
-      <c r="J979" s="32"/>
-      <c r="K979" s="31"/>
-      <c r="L979" s="5"/>
-      <c r="M979" s="5"/>
-      <c r="N979" s="5"/>
-      <c r="O979" s="5"/>
-      <c r="P979" s="5"/>
-      <c r="Q979" s="5"/>
-      <c r="R979" s="5"/>
-      <c r="S979" s="5"/>
-      <c r="T979" s="5"/>
-      <c r="U979" s="5"/>
-      <c r="V979" s="5"/>
-      <c r="W979" s="5"/>
-      <c r="X979" s="5"/>
-      <c r="Y979" s="5"/>
-      <c r="Z979" s="5"/>
-    </row>
-    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A980" s="31"/>
-      <c r="B980" s="31"/>
-      <c r="C980" s="31"/>
-      <c r="D980" s="31"/>
-      <c r="E980" s="31"/>
-      <c r="F980" s="32"/>
-      <c r="G980" s="32"/>
-      <c r="H980" s="32"/>
-      <c r="I980" s="32"/>
-      <c r="J980" s="32"/>
-      <c r="K980" s="31"/>
-      <c r="L980" s="5"/>
-      <c r="M980" s="5"/>
-      <c r="N980" s="5"/>
-      <c r="O980" s="5"/>
-      <c r="P980" s="5"/>
-      <c r="Q980" s="5"/>
-      <c r="R980" s="5"/>
-      <c r="S980" s="5"/>
-      <c r="T980" s="5"/>
-      <c r="U980" s="5"/>
-      <c r="V980" s="5"/>
-      <c r="W980" s="5"/>
-      <c r="X980" s="5"/>
-      <c r="Y980" s="5"/>
-      <c r="Z980" s="5"/>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:K548"/>
